--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>AEG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,173 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44515100</v>
+        <v>29495400</v>
       </c>
       <c r="E8" s="3">
-        <v>3699200</v>
+        <v>44904300</v>
       </c>
       <c r="F8" s="3">
-        <v>18873500</v>
+        <v>3731500</v>
       </c>
       <c r="G8" s="3">
-        <v>17133200</v>
+        <v>19038500</v>
       </c>
       <c r="H8" s="3">
-        <v>14400300</v>
+        <v>17283000</v>
       </c>
       <c r="I8" s="3">
-        <v>14611100</v>
+        <v>14526200</v>
       </c>
       <c r="J8" s="3">
+        <v>14738800</v>
+      </c>
+      <c r="K8" s="3">
         <v>17115600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11262500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20941900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16622300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>442500</v>
+        <v>389900</v>
       </c>
       <c r="E9" s="3">
-        <v>469900</v>
+        <v>446400</v>
       </c>
       <c r="F9" s="3">
-        <v>549000</v>
+        <v>474100</v>
       </c>
       <c r="G9" s="3">
-        <v>75800</v>
+        <v>553800</v>
       </c>
       <c r="H9" s="3">
-        <v>86700</v>
+        <v>76400</v>
       </c>
       <c r="I9" s="3">
-        <v>209700</v>
+        <v>87500</v>
       </c>
       <c r="J9" s="3">
+        <v>211600</v>
+      </c>
+      <c r="K9" s="3">
         <v>-287700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>143600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>314600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>44072600</v>
+        <v>29105500</v>
       </c>
       <c r="E10" s="3">
-        <v>3229200</v>
+        <v>44458000</v>
       </c>
       <c r="F10" s="3">
-        <v>18324500</v>
+        <v>3257500</v>
       </c>
       <c r="G10" s="3">
-        <v>17057400</v>
+        <v>18484700</v>
       </c>
       <c r="H10" s="3">
-        <v>14313500</v>
+        <v>17206600</v>
       </c>
       <c r="I10" s="3">
-        <v>14401400</v>
+        <v>14438700</v>
       </c>
       <c r="J10" s="3">
+        <v>14527300</v>
+      </c>
+      <c r="K10" s="3">
         <v>17403300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11118900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20627400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16378200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,8 +845,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -903,43 +919,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>70300</v>
+        <v>-234800</v>
       </c>
       <c r="E14" s="3">
-        <v>-92200</v>
+        <v>70900</v>
       </c>
       <c r="F14" s="3">
-        <v>-108700</v>
+        <v>-93000</v>
       </c>
       <c r="G14" s="3">
-        <v>-18700</v>
+        <v>-109700</v>
       </c>
       <c r="H14" s="3">
-        <v>-103200</v>
+        <v>-18800</v>
       </c>
       <c r="I14" s="3">
-        <v>-31800</v>
+        <v>-104100</v>
       </c>
       <c r="J14" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-12100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-38700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -973,8 +995,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -985,78 +1010,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43810200</v>
+        <v>28426600</v>
       </c>
       <c r="E17" s="3">
-        <v>3698100</v>
+        <v>44193200</v>
       </c>
       <c r="F17" s="3">
-        <v>18254300</v>
+        <v>3730400</v>
       </c>
       <c r="G17" s="3">
-        <v>16616000</v>
+        <v>18413900</v>
       </c>
       <c r="H17" s="3">
-        <v>13787600</v>
+        <v>16761300</v>
       </c>
       <c r="I17" s="3">
-        <v>13839200</v>
+        <v>13908100</v>
       </c>
       <c r="J17" s="3">
+        <v>13960200</v>
+      </c>
+      <c r="K17" s="3">
         <v>16579800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10703800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20412600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17081300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>704900</v>
+        <v>1068800</v>
       </c>
       <c r="E18" s="3">
+        <v>711100</v>
+      </c>
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
-        <v>619300</v>
-      </c>
       <c r="G18" s="3">
-        <v>517200</v>
+        <v>624700</v>
       </c>
       <c r="H18" s="3">
-        <v>612700</v>
+        <v>521700</v>
       </c>
       <c r="I18" s="3">
-        <v>771900</v>
+        <v>618000</v>
       </c>
       <c r="J18" s="3">
+        <v>778600</v>
+      </c>
+      <c r="K18" s="3">
         <v>535800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>558800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>529400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-459000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1070,51 +1102,55 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>119700</v>
+        <v>128500</v>
       </c>
       <c r="E20" s="3">
-        <v>127400</v>
+        <v>120700</v>
       </c>
       <c r="F20" s="3">
-        <v>110900</v>
+        <v>128500</v>
       </c>
       <c r="G20" s="3">
-        <v>50500</v>
+        <v>111900</v>
       </c>
       <c r="H20" s="3">
-        <v>53800</v>
+        <v>50900</v>
       </c>
       <c r="I20" s="3">
-        <v>47200</v>
+        <v>54300</v>
       </c>
       <c r="J20" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K20" s="3">
         <v>38400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>56300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1363700</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+        <v>1966000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1375600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
@@ -1140,8 +1176,11 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1175,78 +1214,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>824600</v>
+        <v>1197300</v>
       </c>
       <c r="E23" s="3">
-        <v>128500</v>
+        <v>831800</v>
       </c>
       <c r="F23" s="3">
-        <v>730200</v>
+        <v>129600</v>
       </c>
       <c r="G23" s="3">
-        <v>567700</v>
+        <v>736600</v>
       </c>
       <c r="H23" s="3">
-        <v>666500</v>
+        <v>572600</v>
       </c>
       <c r="I23" s="3">
-        <v>819100</v>
+        <v>672300</v>
       </c>
       <c r="J23" s="3">
+        <v>826300</v>
+      </c>
+      <c r="K23" s="3">
         <v>574300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>595800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>585700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-424900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>146000</v>
+        <v>189400</v>
       </c>
       <c r="E24" s="3">
-        <v>-150400</v>
+        <v>147300</v>
       </c>
       <c r="F24" s="3">
-        <v>191100</v>
+        <v>-151700</v>
       </c>
       <c r="G24" s="3">
-        <v>-513900</v>
+        <v>192700</v>
       </c>
       <c r="H24" s="3">
-        <v>152600</v>
+        <v>-518400</v>
       </c>
       <c r="I24" s="3">
-        <v>238300</v>
+        <v>154000</v>
       </c>
       <c r="J24" s="3">
+        <v>240300</v>
+      </c>
+      <c r="K24" s="3">
         <v>159200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>68400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>165500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1280,78 +1328,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>678600</v>
+        <v>1007900</v>
       </c>
       <c r="E26" s="3">
-        <v>278900</v>
+        <v>684500</v>
       </c>
       <c r="F26" s="3">
-        <v>539100</v>
+        <v>281300</v>
       </c>
       <c r="G26" s="3">
-        <v>1081500</v>
+        <v>543800</v>
       </c>
       <c r="H26" s="3">
-        <v>513900</v>
+        <v>1091000</v>
       </c>
       <c r="I26" s="3">
-        <v>580800</v>
+        <v>518400</v>
       </c>
       <c r="J26" s="3">
+        <v>585900</v>
+      </c>
+      <c r="K26" s="3">
         <v>415000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>527300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>420200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-451900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>625900</v>
+        <v>963600</v>
       </c>
       <c r="E27" s="3">
-        <v>216300</v>
+        <v>631300</v>
       </c>
       <c r="F27" s="3">
-        <v>476500</v>
+        <v>218200</v>
       </c>
       <c r="G27" s="3">
-        <v>1046400</v>
+        <v>480700</v>
       </c>
       <c r="H27" s="3">
-        <v>476500</v>
+        <v>1055500</v>
       </c>
       <c r="I27" s="3">
-        <v>547900</v>
+        <v>480700</v>
       </c>
       <c r="J27" s="3">
+        <v>552700</v>
+      </c>
+      <c r="K27" s="3">
         <v>376600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>490300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>378000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1385,8 +1442,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1420,8 +1480,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1518,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1490,78 +1556,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-119700</v>
+        <v>-128500</v>
       </c>
       <c r="E32" s="3">
-        <v>-127400</v>
+        <v>-120700</v>
       </c>
       <c r="F32" s="3">
-        <v>-110900</v>
+        <v>-128500</v>
       </c>
       <c r="G32" s="3">
-        <v>-50500</v>
+        <v>-111900</v>
       </c>
       <c r="H32" s="3">
-        <v>-53800</v>
+        <v>-50900</v>
       </c>
       <c r="I32" s="3">
-        <v>-47200</v>
+        <v>-54300</v>
       </c>
       <c r="J32" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-38400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-56300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>625900</v>
+        <v>963600</v>
       </c>
       <c r="E33" s="3">
-        <v>216300</v>
+        <v>631300</v>
       </c>
       <c r="F33" s="3">
-        <v>476500</v>
+        <v>218200</v>
       </c>
       <c r="G33" s="3">
-        <v>1046400</v>
+        <v>480700</v>
       </c>
       <c r="H33" s="3">
-        <v>476500</v>
+        <v>1055500</v>
       </c>
       <c r="I33" s="3">
-        <v>547900</v>
+        <v>480700</v>
       </c>
       <c r="J33" s="3">
+        <v>552700</v>
+      </c>
+      <c r="K33" s="3">
         <v>376600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>490300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>378000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1595,83 +1670,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>625900</v>
+        <v>963600</v>
       </c>
       <c r="E35" s="3">
-        <v>216300</v>
+        <v>631300</v>
       </c>
       <c r="F35" s="3">
-        <v>476500</v>
+        <v>218200</v>
       </c>
       <c r="G35" s="3">
-        <v>1046400</v>
+        <v>480700</v>
       </c>
       <c r="H35" s="3">
-        <v>476500</v>
+        <v>1055500</v>
       </c>
       <c r="I35" s="3">
-        <v>547900</v>
+        <v>480700</v>
       </c>
       <c r="J35" s="3">
+        <v>552700</v>
+      </c>
+      <c r="K35" s="3">
         <v>376600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>490300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>378000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1685,8 +1769,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1700,43 +1785,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13165000</v>
+        <v>13582500</v>
       </c>
       <c r="E41" s="3">
-        <v>9600900</v>
+        <v>13280100</v>
       </c>
       <c r="F41" s="3">
-        <v>10524300</v>
+        <v>9684900</v>
       </c>
       <c r="G41" s="3">
-        <v>11823300</v>
+        <v>10616300</v>
       </c>
       <c r="H41" s="3">
-        <v>12997000</v>
+        <v>11926600</v>
       </c>
       <c r="I41" s="3">
-        <v>14142200</v>
+        <v>13110700</v>
       </c>
       <c r="J41" s="3">
+        <v>14265900</v>
+      </c>
+      <c r="K41" s="3">
         <v>12118600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12731200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13282800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12303900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1770,8 +1859,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1784,11 +1876,11 @@
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="3">
-        <v>4509500</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4548900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -1805,8 +1897,11 @@
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1840,8 +1935,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1875,8 +1973,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1910,113 +2011,125 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>157867100</v>
+        <v>161925600</v>
       </c>
       <c r="E47" s="3">
-        <v>151958800</v>
+        <v>159247400</v>
       </c>
       <c r="F47" s="3">
-        <v>151048600</v>
+        <v>153287400</v>
       </c>
       <c r="G47" s="3">
-        <v>154849800</v>
+        <v>152369200</v>
       </c>
       <c r="H47" s="3">
-        <v>151912700</v>
+        <v>156203700</v>
       </c>
       <c r="I47" s="3">
-        <v>154220700</v>
+        <v>153240900</v>
       </c>
       <c r="J47" s="3">
+        <v>155569100</v>
+      </c>
+      <c r="K47" s="3">
         <v>171034400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>175813600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>186608800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>187632400</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3023900</v>
+        <v>3213100</v>
       </c>
       <c r="E48" s="3">
-        <v>2964600</v>
+        <v>3050300</v>
       </c>
       <c r="F48" s="3">
-        <v>2760400</v>
+        <v>2990500</v>
       </c>
       <c r="G48" s="3">
-        <v>2939300</v>
+        <v>2784500</v>
       </c>
       <c r="H48" s="3">
-        <v>2275100</v>
+        <v>2965000</v>
       </c>
       <c r="I48" s="3">
-        <v>2224500</v>
+        <v>2294900</v>
       </c>
       <c r="J48" s="3">
+        <v>2244000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2211400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2242900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2239600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2232600</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1798500</v>
+        <v>1726700</v>
       </c>
       <c r="E49" s="3">
-        <v>3792500</v>
+        <v>1814200</v>
       </c>
       <c r="F49" s="3">
-        <v>1804000</v>
+        <v>3825700</v>
       </c>
       <c r="G49" s="3">
-        <v>1793000</v>
+        <v>1819800</v>
       </c>
       <c r="H49" s="3">
-        <v>1846800</v>
+        <v>1808700</v>
       </c>
       <c r="I49" s="3">
-        <v>1853400</v>
+        <v>1863000</v>
       </c>
       <c r="J49" s="3">
+        <v>1869600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2021400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2042000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2024800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2118700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2050,8 +2163,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2085,43 +2201,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3">
-        <v>137300</v>
+      <c r="D52" s="3">
+        <v>213800</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>138500</v>
       </c>
       <c r="G52" s="3">
-        <v>5910500</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>5757900</v>
+        <v>5962200</v>
       </c>
       <c r="I52" s="3">
-        <v>2551800</v>
+        <v>5808300</v>
       </c>
       <c r="J52" s="3">
+        <v>2574100</v>
+      </c>
+      <c r="K52" s="3">
         <v>9734900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9921800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10226200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10604200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2155,43 +2277,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>466073600</v>
+        <v>488587800</v>
       </c>
       <c r="E54" s="3">
-        <v>431548000</v>
+        <v>470148500</v>
       </c>
       <c r="F54" s="3">
-        <v>427002300</v>
+        <v>435321100</v>
       </c>
       <c r="G54" s="3">
-        <v>435127500</v>
+        <v>430735700</v>
       </c>
       <c r="H54" s="3">
-        <v>436120100</v>
+        <v>438931900</v>
       </c>
       <c r="I54" s="3">
-        <v>444278300</v>
+        <v>439933200</v>
       </c>
       <c r="J54" s="3">
+        <v>448162700</v>
+      </c>
+      <c r="K54" s="3">
         <v>467149600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>477894800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>499290600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>499808300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2205,8 +2333,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2220,8 +2349,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2255,8 +2385,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2269,11 +2402,11 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>1939100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1956000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2290,43 +2423,49 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>390415900</v>
+        <v>412038300</v>
       </c>
       <c r="E59" s="3">
-        <v>363409500</v>
+        <v>393829300</v>
       </c>
       <c r="F59" s="3">
-        <v>358151100</v>
+        <v>366586800</v>
       </c>
       <c r="G59" s="3">
-        <v>359254600</v>
+        <v>361282500</v>
       </c>
       <c r="H59" s="3">
-        <v>354271900</v>
+        <v>362395600</v>
       </c>
       <c r="I59" s="3">
-        <v>363825600</v>
+        <v>357369400</v>
       </c>
       <c r="J59" s="3">
+        <v>367006600</v>
+      </c>
+      <c r="K59" s="3">
         <v>377844900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>387177400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>395586900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>391081800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2360,78 +2499,87 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12108700</v>
+        <v>12903500</v>
       </c>
       <c r="E61" s="3">
-        <v>14914100</v>
+        <v>12214600</v>
       </c>
       <c r="F61" s="3">
-        <v>16345900</v>
+        <v>15044500</v>
       </c>
       <c r="G61" s="3">
-        <v>14098300</v>
+        <v>16488800</v>
       </c>
       <c r="H61" s="3">
-        <v>17132100</v>
+        <v>14221600</v>
       </c>
       <c r="I61" s="3">
-        <v>17321000</v>
+        <v>17281900</v>
       </c>
       <c r="J61" s="3">
+        <v>17472400</v>
+      </c>
+      <c r="K61" s="3">
         <v>17503200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15793100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16121100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15254800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
-        <v>5058500</v>
+      <c r="D62" s="3">
+        <v>6373100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>5102700</v>
       </c>
       <c r="G62" s="3">
-        <v>11111800</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>5464700</v>
+        <v>11208900</v>
       </c>
       <c r="I62" s="3">
-        <v>2573700</v>
+        <v>5512500</v>
       </c>
       <c r="J62" s="3">
+        <v>2596200</v>
+      </c>
+      <c r="K62" s="3">
         <v>9855600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17896900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10355400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10723900</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2465,8 +2613,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2500,8 +2651,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2535,43 +2689,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>438771800</v>
+        <v>460866800</v>
       </c>
       <c r="E66" s="3">
-        <v>406471900</v>
+        <v>442608000</v>
       </c>
       <c r="F66" s="3">
-        <v>400893000</v>
+        <v>410025800</v>
       </c>
       <c r="G66" s="3">
-        <v>408373700</v>
+        <v>404398100</v>
       </c>
       <c r="H66" s="3">
-        <v>409884500</v>
+        <v>411944100</v>
       </c>
       <c r="I66" s="3">
-        <v>417719800</v>
+        <v>413468200</v>
       </c>
       <c r="J66" s="3">
+        <v>421372000</v>
+      </c>
+      <c r="K66" s="3">
         <v>439360300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>450169300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>470018200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>469565100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2585,8 +2745,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2620,8 +2781,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2655,8 +2819,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2690,8 +2857,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2725,43 +2895,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11746400</v>
+        <v>12993300</v>
       </c>
       <c r="E72" s="3">
-        <v>11323700</v>
+        <v>11849100</v>
       </c>
       <c r="F72" s="3">
-        <v>11002000</v>
+        <v>11422700</v>
       </c>
       <c r="G72" s="3">
-        <v>11029400</v>
+        <v>11098200</v>
       </c>
       <c r="H72" s="3">
-        <v>9660200</v>
+        <v>11125800</v>
       </c>
       <c r="I72" s="3">
-        <v>9817200</v>
+        <v>9744700</v>
       </c>
       <c r="J72" s="3">
+        <v>9903100</v>
+      </c>
+      <c r="K72" s="3">
         <v>10237800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8979300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9437400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9470300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2795,8 +2971,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2830,8 +3009,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2865,43 +3047,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27301800</v>
+        <v>27721000</v>
       </c>
       <c r="E76" s="3">
-        <v>25076100</v>
+        <v>27540500</v>
       </c>
       <c r="F76" s="3">
-        <v>26109300</v>
+        <v>25295400</v>
       </c>
       <c r="G76" s="3">
-        <v>26753900</v>
+        <v>26337600</v>
       </c>
       <c r="H76" s="3">
-        <v>26235600</v>
+        <v>26987800</v>
       </c>
       <c r="I76" s="3">
-        <v>26558400</v>
+        <v>26465000</v>
       </c>
       <c r="J76" s="3">
+        <v>26790600</v>
+      </c>
+      <c r="K76" s="3">
         <v>27789300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27725500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29272500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30243200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2935,83 +3123,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>625900</v>
+        <v>963600</v>
       </c>
       <c r="E81" s="3">
-        <v>216300</v>
+        <v>631300</v>
       </c>
       <c r="F81" s="3">
-        <v>476500</v>
+        <v>218200</v>
       </c>
       <c r="G81" s="3">
-        <v>1046400</v>
+        <v>480700</v>
       </c>
       <c r="H81" s="3">
-        <v>476500</v>
+        <v>1055500</v>
       </c>
       <c r="I81" s="3">
-        <v>547900</v>
+        <v>480700</v>
       </c>
       <c r="J81" s="3">
+        <v>552700</v>
+      </c>
+      <c r="K81" s="3">
         <v>376600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>490300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>378000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3025,16 +3222,17 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>539100</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
+        <v>768700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>543800</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
@@ -3051,8 +3249,8 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3060,8 +3258,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3095,8 +3296,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3130,8 +3334,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3165,8 +3372,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3200,8 +3410,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3235,43 +3448,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6546300</v>
+        <v>1484200</v>
       </c>
       <c r="E89" s="3">
-        <v>1636000</v>
+        <v>6603500</v>
       </c>
       <c r="F89" s="3">
-        <v>-1068400</v>
+        <v>1650300</v>
       </c>
       <c r="G89" s="3">
-        <v>455700</v>
+        <v>-1077700</v>
       </c>
       <c r="H89" s="3">
-        <v>-647800</v>
+        <v>459700</v>
       </c>
       <c r="I89" s="3">
-        <v>3101900</v>
+        <v>-653500</v>
       </c>
       <c r="J89" s="3">
+        <v>3129000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2302500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>102100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>685500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-181900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3285,43 +3504,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-49400</v>
+        <v>-63100</v>
       </c>
       <c r="E91" s="3">
-        <v>-73600</v>
+        <v>-49800</v>
       </c>
       <c r="F91" s="3">
-        <v>-15400</v>
+        <v>-74200</v>
       </c>
       <c r="G91" s="3">
-        <v>-17600</v>
+        <v>-15500</v>
       </c>
       <c r="H91" s="3">
-        <v>-22000</v>
+        <v>-17700</v>
       </c>
       <c r="I91" s="3">
-        <v>-16500</v>
+        <v>-22200</v>
       </c>
       <c r="J91" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3355,8 +3578,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3390,43 +3616,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>95500</v>
+        <v>-191600</v>
       </c>
       <c r="E94" s="3">
-        <v>-383200</v>
+        <v>96400</v>
       </c>
       <c r="F94" s="3">
-        <v>-97700</v>
+        <v>-386600</v>
       </c>
       <c r="G94" s="3">
-        <v>-128500</v>
+        <v>-98600</v>
       </c>
       <c r="H94" s="3">
-        <v>-14300</v>
+        <v>-129600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1060700</v>
+        <v>-14400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1069900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-109800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-359000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-906200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3440,43 +3672,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-186700</v>
+        <v>-154000</v>
       </c>
       <c r="E96" s="3">
-        <v>-176800</v>
+        <v>-188300</v>
       </c>
       <c r="F96" s="3">
-        <v>-183400</v>
+        <v>-178300</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-185000</v>
       </c>
       <c r="H96" s="3">
-        <v>-165800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-167200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-180800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3510,8 +3746,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3545,8 +3784,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3580,109 +3822,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3083200</v>
+        <v>-1021200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2182800</v>
+        <v>-3110100</v>
       </c>
       <c r="F100" s="3">
-        <v>-446900</v>
+        <v>-2201900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1443900</v>
+        <v>-450800</v>
       </c>
       <c r="H100" s="3">
-        <v>-187800</v>
+        <v>-1456500</v>
       </c>
       <c r="I100" s="3">
-        <v>103200</v>
+        <v>-189400</v>
       </c>
       <c r="J100" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K100" s="3">
         <v>2098300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-157100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>625600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>961400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>7700</v>
-      </c>
       <c r="F101" s="3">
-        <v>30700</v>
+        <v>7800</v>
       </c>
       <c r="G101" s="3">
-        <v>-13200</v>
+        <v>31000</v>
       </c>
       <c r="H101" s="3">
-        <v>-50500</v>
+        <v>-13300</v>
       </c>
       <c r="I101" s="3">
-        <v>-123000</v>
+        <v>-50900</v>
       </c>
       <c r="J101" s="3">
+        <v>-124100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-28500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>151500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-31700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3557500</v>
+        <v>309000</v>
       </c>
       <c r="E102" s="3">
-        <v>-922300</v>
+        <v>3588600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1582200</v>
+        <v>-930400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1129800</v>
+        <v>-1596100</v>
       </c>
       <c r="H102" s="3">
-        <v>-900400</v>
+        <v>-1139700</v>
       </c>
       <c r="I102" s="3">
-        <v>2021400</v>
+        <v>-908200</v>
       </c>
       <c r="J102" s="3">
+        <v>2039100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-342600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>976600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-125600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>AEG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,199 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29495400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>44904300</v>
+        <v>13271000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="3">
-        <v>3731500</v>
+        <v>31500600</v>
       </c>
       <c r="G8" s="3">
-        <v>19038500</v>
+        <v>47991400</v>
       </c>
       <c r="H8" s="3">
-        <v>17283000</v>
+        <v>3985200</v>
       </c>
       <c r="I8" s="3">
+        <v>20332900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>18458000</v>
+      </c>
+      <c r="K8" s="3">
         <v>14526200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>14738800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>17115600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>11262500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>20941900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>16622300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>389900</v>
-      </c>
-      <c r="E9" s="3">
-        <v>446400</v>
+        <v>606800</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>474100</v>
+        <v>416400</v>
       </c>
       <c r="G9" s="3">
-        <v>553800</v>
+        <v>476700</v>
       </c>
       <c r="H9" s="3">
-        <v>76400</v>
+        <v>506300</v>
       </c>
       <c r="I9" s="3">
+        <v>591500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K9" s="3">
         <v>87500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>211600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>-287700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>143600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>314600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29105500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>44458000</v>
+        <v>12664100</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>3257500</v>
+        <v>31084200</v>
       </c>
       <c r="G10" s="3">
-        <v>18484700</v>
+        <v>47514700</v>
       </c>
       <c r="H10" s="3">
-        <v>17206600</v>
+        <v>3478900</v>
       </c>
       <c r="I10" s="3">
+        <v>19741400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18376400</v>
+      </c>
+      <c r="K10" s="3">
         <v>14438700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>14527300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>17403300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>11118900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>20627400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>16378200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +872,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,8 +912,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,46 +956,58 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-234800</v>
+        <v>278000</v>
       </c>
       <c r="E14" s="3">
-        <v>70900</v>
+        <v>146700</v>
       </c>
       <c r="F14" s="3">
-        <v>-93000</v>
+        <v>-250800</v>
       </c>
       <c r="G14" s="3">
-        <v>-109700</v>
+        <v>75700</v>
       </c>
       <c r="H14" s="3">
-        <v>-18800</v>
+        <v>-99400</v>
       </c>
       <c r="I14" s="3">
+        <v>-117100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-104100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-32100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-12100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>25800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-38700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -998,8 +1044,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1011,84 +1063,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28426600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>44193200</v>
+        <v>13280400</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F17" s="3">
-        <v>3730400</v>
+        <v>30359100</v>
       </c>
       <c r="G17" s="3">
-        <v>18413900</v>
+        <v>47233200</v>
       </c>
       <c r="H17" s="3">
-        <v>16761300</v>
+        <v>3984000</v>
       </c>
       <c r="I17" s="3">
+        <v>19665700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>17900800</v>
+      </c>
+      <c r="K17" s="3">
         <v>13908100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13960200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16579800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10703800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>20412600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>17081300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1068800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>711100</v>
+        <v>-9500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>1100</v>
+        <v>1141500</v>
       </c>
       <c r="G18" s="3">
-        <v>624700</v>
+        <v>758200</v>
       </c>
       <c r="H18" s="3">
-        <v>521700</v>
+        <v>1200</v>
       </c>
       <c r="I18" s="3">
+        <v>667200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>557100</v>
+      </c>
+      <c r="K18" s="3">
         <v>618000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>778600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>535800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>558800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>529400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-459000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,60 +1169,68 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>128500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>120700</v>
+        <v>140800</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>128500</v>
+        <v>137200</v>
       </c>
       <c r="G20" s="3">
-        <v>111900</v>
+        <v>127800</v>
       </c>
       <c r="H20" s="3">
-        <v>50900</v>
+        <v>137200</v>
       </c>
       <c r="I20" s="3">
+        <v>119500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K20" s="3">
         <v>54300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>47600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>38400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>37000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>56300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1966000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1375600</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
+        <v>448300</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2099600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1466800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
@@ -1179,8 +1253,14 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1217,84 +1297,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1197300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>831800</v>
+        <v>131300</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F23" s="3">
-        <v>129600</v>
+        <v>1278700</v>
       </c>
       <c r="G23" s="3">
-        <v>736600</v>
+        <v>886000</v>
       </c>
       <c r="H23" s="3">
-        <v>572600</v>
+        <v>138400</v>
       </c>
       <c r="I23" s="3">
+        <v>786600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>611600</v>
+      </c>
+      <c r="K23" s="3">
         <v>672300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>826300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>574300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>595800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>585700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-424900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>189400</v>
+        <v>-108800</v>
       </c>
       <c r="E24" s="3">
-        <v>147300</v>
+        <v>305200</v>
       </c>
       <c r="F24" s="3">
-        <v>-151700</v>
+        <v>202300</v>
       </c>
       <c r="G24" s="3">
-        <v>192700</v>
+        <v>157300</v>
       </c>
       <c r="H24" s="3">
-        <v>-518400</v>
+        <v>-162100</v>
       </c>
       <c r="I24" s="3">
+        <v>205800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-553600</v>
+      </c>
+      <c r="K24" s="3">
         <v>154000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>240300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>159200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>68400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>165500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1331,84 +1429,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1007900</v>
-      </c>
-      <c r="E26" s="3">
-        <v>684500</v>
+        <v>240100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F26" s="3">
-        <v>281300</v>
+        <v>1076400</v>
       </c>
       <c r="G26" s="3">
-        <v>543800</v>
+        <v>728700</v>
       </c>
       <c r="H26" s="3">
-        <v>1091000</v>
+        <v>300500</v>
       </c>
       <c r="I26" s="3">
+        <v>580800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1165200</v>
+      </c>
+      <c r="K26" s="3">
         <v>518400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>585900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>415000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>527300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>420200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-451900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>963600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>631300</v>
+        <v>204600</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F27" s="3">
-        <v>218200</v>
+        <v>1029100</v>
       </c>
       <c r="G27" s="3">
+        <v>671900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>233000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>513400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1127300</v>
+      </c>
+      <c r="K27" s="3">
         <v>480700</v>
       </c>
-      <c r="H27" s="3">
-        <v>1055500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>480700</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>552700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>376600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>490300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>378000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1445,8 +1561,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1483,8 +1605,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1521,8 +1649,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1559,84 +1693,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-128500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-120700</v>
+        <v>-140800</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
-        <v>-128500</v>
+        <v>-137200</v>
       </c>
       <c r="G32" s="3">
-        <v>-111900</v>
+        <v>-127800</v>
       </c>
       <c r="H32" s="3">
-        <v>-50900</v>
+        <v>-137200</v>
       </c>
       <c r="I32" s="3">
+        <v>-119500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-54300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-47600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-38400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-37000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-56300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>963600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>631300</v>
+        <v>204600</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F33" s="3">
-        <v>218200</v>
+        <v>1029100</v>
       </c>
       <c r="G33" s="3">
+        <v>671900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>233000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>513400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1127300</v>
+      </c>
+      <c r="K33" s="3">
         <v>480700</v>
       </c>
-      <c r="H33" s="3">
-        <v>1055500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>480700</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>552700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>376600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>490300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>378000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1673,89 +1825,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>963600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>631300</v>
+        <v>204600</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F35" s="3">
-        <v>218200</v>
+        <v>1029100</v>
       </c>
       <c r="G35" s="3">
+        <v>671900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>233000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>513400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1127300</v>
+      </c>
+      <c r="K35" s="3">
         <v>480700</v>
       </c>
-      <c r="H35" s="3">
-        <v>1055500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>480700</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>552700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>376600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>490300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>378000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1770,8 +1940,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1786,46 +1958,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13582500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>13280100</v>
+        <v>13175100</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F41" s="3">
-        <v>9684900</v>
+        <v>14505900</v>
       </c>
       <c r="G41" s="3">
-        <v>10616300</v>
+        <v>14183000</v>
       </c>
       <c r="H41" s="3">
-        <v>11926600</v>
+        <v>10343300</v>
       </c>
       <c r="I41" s="3">
+        <v>11338100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>12737500</v>
+      </c>
+      <c r="K41" s="3">
         <v>13110700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14265900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12118600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12731200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13282800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12303900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1862,8 +2042,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1879,14 +2065,14 @@
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="3">
-        <v>4548900</v>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+      <c r="J43" s="3">
+        <v>4858200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -1900,8 +2086,14 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1938,8 +2130,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1976,8 +2174,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2014,122 +2218,146 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>161925600</v>
-      </c>
-      <c r="E47" s="3">
-        <v>159247400</v>
+        <v>187919000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
-        <v>153287400</v>
+        <v>172934100</v>
       </c>
       <c r="G47" s="3">
-        <v>152369200</v>
+        <v>170073800</v>
       </c>
       <c r="H47" s="3">
-        <v>156203700</v>
+        <v>163708600</v>
       </c>
       <c r="I47" s="3">
+        <v>162728000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>166823200</v>
+      </c>
+      <c r="K47" s="3">
         <v>153240900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>155569100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>171034400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>175813600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>186608800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>187632400</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3213100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3050300</v>
+        <v>3539200</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>2990500</v>
+        <v>3431600</v>
       </c>
       <c r="G48" s="3">
-        <v>2784500</v>
+        <v>3257700</v>
       </c>
       <c r="H48" s="3">
-        <v>2965000</v>
+        <v>3193800</v>
       </c>
       <c r="I48" s="3">
+        <v>2973800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3166600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2294900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2244000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2211400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2242900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2239600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2232600</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1726700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1814200</v>
+        <v>1779100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>3825700</v>
+        <v>3688300</v>
       </c>
       <c r="G49" s="3">
-        <v>1819800</v>
+        <v>1937600</v>
       </c>
       <c r="H49" s="3">
-        <v>1808700</v>
+        <v>4085700</v>
       </c>
       <c r="I49" s="3">
+        <v>1943500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1931700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1863000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1869600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2021400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2042000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2024800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2118700</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2166,8 +2394,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2204,46 +2438,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>213800</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="3">
-        <v>138500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+        <v>228300</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>5962200</v>
+        <v>147900</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6367600</v>
+      </c>
+      <c r="K52" s="3">
         <v>5808300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2574100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9734900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>9921800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>10226200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>10604200</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2280,46 +2526,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>488587800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>470148500</v>
+        <v>525915000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F54" s="3">
-        <v>435321100</v>
+        <v>521118300</v>
       </c>
       <c r="G54" s="3">
-        <v>430735700</v>
+        <v>502111500</v>
       </c>
       <c r="H54" s="3">
-        <v>438931900</v>
+        <v>464916400</v>
       </c>
       <c r="I54" s="3">
+        <v>460019200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>468772600</v>
+      </c>
+      <c r="K54" s="3">
         <v>439933200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>448162700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>467149600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>477894800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>499290600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>499808300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2334,8 +2592,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2350,8 +2610,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2388,31 +2650,37 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>8520400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>8945100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>1956000</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>2089000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2426,46 +2694,58 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>412038300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>393829300</v>
+        <v>429651800</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F59" s="3">
-        <v>366586800</v>
+        <v>439377600</v>
       </c>
       <c r="G59" s="3">
-        <v>361282500</v>
+        <v>420603800</v>
       </c>
       <c r="H59" s="3">
-        <v>362395600</v>
+        <v>391509100</v>
       </c>
       <c r="I59" s="3">
+        <v>385844200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>387033100</v>
+      </c>
+      <c r="K59" s="3">
         <v>357369400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>367006600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>377844900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>387177400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>395586900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>391081800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2502,84 +2782,102 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12903500</v>
+        <v>4775400</v>
       </c>
       <c r="E61" s="3">
-        <v>12214600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>15044500</v>
+        <v>4835700</v>
       </c>
       <c r="G61" s="3">
-        <v>16488800</v>
+        <v>13045000</v>
       </c>
       <c r="H61" s="3">
-        <v>14221600</v>
+        <v>16067300</v>
       </c>
       <c r="I61" s="3">
+        <v>17609800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>15188400</v>
+      </c>
+      <c r="K61" s="3">
         <v>17281900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>17472400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>17503200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>15793100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>16121100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>15254800</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>6373100</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="3">
-        <v>5102700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
+        <v>6806400</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3">
-        <v>11208900</v>
+        <v>5449600</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>11970900</v>
+      </c>
+      <c r="K62" s="3">
         <v>5512500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2596200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>9855600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>17896900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10355400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>10723900</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2616,8 +2914,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2654,8 +2958,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2692,46 +3002,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>460866800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>442608000</v>
+        <v>494601200</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F66" s="3">
-        <v>410025800</v>
+        <v>491522200</v>
       </c>
       <c r="G66" s="3">
-        <v>404398100</v>
+        <v>472698700</v>
       </c>
       <c r="H66" s="3">
-        <v>411944100</v>
+        <v>437901300</v>
       </c>
       <c r="I66" s="3">
+        <v>431891000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>439950100</v>
+      </c>
+      <c r="K66" s="3">
         <v>413468200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>421372000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>439360300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>450169300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>470018200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>469565100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2746,8 +3068,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2784,8 +3108,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2822,8 +3152,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2860,8 +3196,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2898,46 +3240,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12993300</v>
-      </c>
-      <c r="E72" s="3">
-        <v>11849100</v>
+        <v>13597400</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>11422700</v>
+        <v>13528800</v>
       </c>
       <c r="G72" s="3">
-        <v>11098200</v>
+        <v>12654700</v>
       </c>
       <c r="H72" s="3">
-        <v>11125800</v>
+        <v>12199200</v>
       </c>
       <c r="I72" s="3">
+        <v>11852700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>11882200</v>
+      </c>
+      <c r="K72" s="3">
         <v>9744700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>9903100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>10237800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>8979300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>9437400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>9470300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2974,8 +3328,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3012,8 +3372,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3050,46 +3416,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27721000</v>
+        <v>31313700</v>
       </c>
       <c r="E76" s="3">
-        <v>27540500</v>
+        <v>28114000</v>
       </c>
       <c r="F76" s="3">
-        <v>25295400</v>
+        <v>29596200</v>
       </c>
       <c r="G76" s="3">
-        <v>26337600</v>
+        <v>29412800</v>
       </c>
       <c r="H76" s="3">
-        <v>26987800</v>
+        <v>27015100</v>
       </c>
       <c r="I76" s="3">
+        <v>28128200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>28822500</v>
+      </c>
+      <c r="K76" s="3">
         <v>26465000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>26790600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>27789300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>27725500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>29272500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>30243200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3126,89 +3504,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>963600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>631300</v>
+        <v>204600</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F81" s="3">
-        <v>218200</v>
+        <v>1029100</v>
       </c>
       <c r="G81" s="3">
+        <v>671900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>233000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>513400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1127300</v>
+      </c>
+      <c r="K81" s="3">
         <v>480700</v>
       </c>
-      <c r="H81" s="3">
-        <v>1055500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>480700</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>552700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>376600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>490300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>378000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3223,22 +3619,24 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>768700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>543800</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
+        <v>317000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
+        <v>820900</v>
+      </c>
+      <c r="G83" s="3">
+        <v>580800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
@@ -3252,17 +3650,23 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3299,8 +3703,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3337,8 +3747,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3375,8 +3791,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3413,8 +3835,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3451,46 +3879,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1484200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>6603500</v>
+        <v>-938000</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F89" s="3">
-        <v>1650300</v>
+        <v>1585100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1077700</v>
+        <v>7052400</v>
       </c>
       <c r="H89" s="3">
-        <v>459700</v>
+        <v>1762500</v>
       </c>
       <c r="I89" s="3">
+        <v>-1151000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>490900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-653500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3129000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2302500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>102100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>685500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-181900</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3505,46 +3945,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-63100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-49800</v>
+        <v>-31900</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
-        <v>-74200</v>
+        <v>-67400</v>
       </c>
       <c r="G91" s="3">
-        <v>-15500</v>
+        <v>-53200</v>
       </c>
       <c r="H91" s="3">
-        <v>-17700</v>
+        <v>-79300</v>
       </c>
       <c r="I91" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-22200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-16600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-23100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-32500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-28200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3581,8 +4029,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3619,46 +4073,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-191600</v>
-      </c>
-      <c r="E94" s="3">
-        <v>96400</v>
+        <v>119500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>-386600</v>
+        <v>-204600</v>
       </c>
       <c r="G94" s="3">
-        <v>-98600</v>
+        <v>102900</v>
       </c>
       <c r="H94" s="3">
-        <v>-129600</v>
+        <v>-412800</v>
       </c>
       <c r="I94" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-14400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1069900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-109800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-359000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>9400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-906200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3673,46 +4139,54 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-154000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-188300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-178300</v>
+        <v>-164400</v>
       </c>
       <c r="G96" s="3">
-        <v>-185000</v>
+        <v>-201100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-190400</v>
       </c>
       <c r="I96" s="3">
+        <v>-197500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-167200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-180800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3749,8 +4223,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3787,8 +4267,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3825,118 +4311,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1021200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-3110100</v>
+        <v>-474300</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
-        <v>-2201900</v>
+        <v>-1090600</v>
       </c>
       <c r="G100" s="3">
-        <v>-450800</v>
+        <v>-3321600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1456500</v>
+        <v>-2351600</v>
       </c>
       <c r="I100" s="3">
+        <v>-481400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1555500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-189400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>104100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2098300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-157100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>625600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>961400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37700</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-1100</v>
+        <v>-37900</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F101" s="3">
-        <v>7800</v>
+        <v>40200</v>
       </c>
       <c r="G101" s="3">
-        <v>31000</v>
+        <v>-1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-13300</v>
+        <v>8300</v>
       </c>
       <c r="I101" s="3">
+        <v>33100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-50900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-124100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-28500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>151500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-31700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>309000</v>
-      </c>
-      <c r="E102" s="3">
-        <v>3588600</v>
+        <v>-1330800</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>-930400</v>
+        <v>330000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1596100</v>
+        <v>3832600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1139700</v>
+        <v>-993600</v>
       </c>
       <c r="I102" s="3">
+        <v>-1704600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1217200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-908200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2039100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-342600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>51600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>976600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-125600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13271000</v>
+        <v>13420200</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="3">
-        <v>31500600</v>
+        <v>31854800</v>
       </c>
       <c r="G8" s="3">
-        <v>47991400</v>
+        <v>48531000</v>
       </c>
       <c r="H8" s="3">
-        <v>3985200</v>
+        <v>4030000</v>
       </c>
       <c r="I8" s="3">
-        <v>20332900</v>
+        <v>20561500</v>
       </c>
       <c r="J8" s="3">
-        <v>18458000</v>
+        <v>18665500</v>
       </c>
       <c r="K8" s="3">
         <v>14526200</v>
@@ -774,25 +774,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>606800</v>
+        <v>613700</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>416400</v>
+        <v>421100</v>
       </c>
       <c r="G9" s="3">
-        <v>476700</v>
+        <v>482100</v>
       </c>
       <c r="H9" s="3">
-        <v>506300</v>
+        <v>512000</v>
       </c>
       <c r="I9" s="3">
-        <v>591500</v>
+        <v>598100</v>
       </c>
       <c r="J9" s="3">
-        <v>81600</v>
+        <v>82500</v>
       </c>
       <c r="K9" s="3">
         <v>87500</v>
@@ -818,25 +818,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12664100</v>
+        <v>12806500</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>31084200</v>
+        <v>31433700</v>
       </c>
       <c r="G10" s="3">
-        <v>47514700</v>
+        <v>48049000</v>
       </c>
       <c r="H10" s="3">
-        <v>3478900</v>
+        <v>3518000</v>
       </c>
       <c r="I10" s="3">
-        <v>19741400</v>
+        <v>19963400</v>
       </c>
       <c r="J10" s="3">
-        <v>18376400</v>
+        <v>18583000</v>
       </c>
       <c r="K10" s="3">
         <v>14438700</v>
@@ -968,25 +968,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>278000</v>
+        <v>281100</v>
       </c>
       <c r="E14" s="3">
-        <v>146700</v>
+        <v>148300</v>
       </c>
       <c r="F14" s="3">
-        <v>-250800</v>
+        <v>-253600</v>
       </c>
       <c r="G14" s="3">
-        <v>75700</v>
+        <v>76600</v>
       </c>
       <c r="H14" s="3">
-        <v>-99400</v>
+        <v>-100500</v>
       </c>
       <c r="I14" s="3">
-        <v>-117100</v>
+        <v>-118400</v>
       </c>
       <c r="J14" s="3">
-        <v>-20100</v>
+        <v>-20300</v>
       </c>
       <c r="K14" s="3">
         <v>-104100</v>
@@ -1071,25 +1071,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13280400</v>
+        <v>13429700</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="3">
-        <v>30359100</v>
+        <v>30700500</v>
       </c>
       <c r="G17" s="3">
-        <v>47233200</v>
+        <v>47764300</v>
       </c>
       <c r="H17" s="3">
-        <v>3984000</v>
+        <v>4028800</v>
       </c>
       <c r="I17" s="3">
-        <v>19665700</v>
+        <v>19886800</v>
       </c>
       <c r="J17" s="3">
-        <v>17900800</v>
+        <v>18102100</v>
       </c>
       <c r="K17" s="3">
         <v>13908100</v>
@@ -1115,25 +1115,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>1141500</v>
+        <v>1154300</v>
       </c>
       <c r="G18" s="3">
-        <v>758200</v>
+        <v>766800</v>
       </c>
       <c r="H18" s="3">
         <v>1200</v>
       </c>
       <c r="I18" s="3">
-        <v>667200</v>
+        <v>674700</v>
       </c>
       <c r="J18" s="3">
-        <v>557100</v>
+        <v>563400</v>
       </c>
       <c r="K18" s="3">
         <v>618000</v>
@@ -1177,25 +1177,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>140800</v>
+        <v>142300</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>137200</v>
+        <v>138800</v>
       </c>
       <c r="G20" s="3">
-        <v>127800</v>
+        <v>129200</v>
       </c>
       <c r="H20" s="3">
-        <v>137200</v>
+        <v>138800</v>
       </c>
       <c r="I20" s="3">
-        <v>119500</v>
+        <v>120800</v>
       </c>
       <c r="J20" s="3">
-        <v>54400</v>
+        <v>55000</v>
       </c>
       <c r="K20" s="3">
         <v>54300</v>
@@ -1221,16 +1221,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>448300</v>
+        <v>453400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>2099600</v>
+        <v>2123300</v>
       </c>
       <c r="G21" s="3">
-        <v>1466800</v>
+        <v>1483300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
@@ -1309,25 +1309,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>131300</v>
+        <v>132800</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="3">
-        <v>1278700</v>
+        <v>1293100</v>
       </c>
       <c r="G23" s="3">
-        <v>886000</v>
+        <v>896000</v>
       </c>
       <c r="H23" s="3">
-        <v>138400</v>
+        <v>140000</v>
       </c>
       <c r="I23" s="3">
-        <v>786600</v>
+        <v>795500</v>
       </c>
       <c r="J23" s="3">
-        <v>611600</v>
+        <v>618400</v>
       </c>
       <c r="K23" s="3">
         <v>672300</v>
@@ -1353,25 +1353,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-108800</v>
+        <v>-110100</v>
       </c>
       <c r="E24" s="3">
-        <v>305200</v>
+        <v>308600</v>
       </c>
       <c r="F24" s="3">
-        <v>202300</v>
+        <v>204600</v>
       </c>
       <c r="G24" s="3">
-        <v>157300</v>
+        <v>159100</v>
       </c>
       <c r="H24" s="3">
-        <v>-162100</v>
+        <v>-163900</v>
       </c>
       <c r="I24" s="3">
-        <v>205800</v>
+        <v>208100</v>
       </c>
       <c r="J24" s="3">
-        <v>-553600</v>
+        <v>-559800</v>
       </c>
       <c r="K24" s="3">
         <v>154000</v>
@@ -1441,25 +1441,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>240100</v>
+        <v>242800</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="3">
-        <v>1076400</v>
+        <v>1088500</v>
       </c>
       <c r="G26" s="3">
-        <v>728700</v>
+        <v>736900</v>
       </c>
       <c r="H26" s="3">
-        <v>300500</v>
+        <v>303800</v>
       </c>
       <c r="I26" s="3">
-        <v>580800</v>
+        <v>587300</v>
       </c>
       <c r="J26" s="3">
-        <v>1165200</v>
+        <v>1178300</v>
       </c>
       <c r="K26" s="3">
         <v>518400</v>
@@ -1485,25 +1485,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>204600</v>
+        <v>206900</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="3">
-        <v>1029100</v>
+        <v>1040700</v>
       </c>
       <c r="G27" s="3">
-        <v>671900</v>
+        <v>679400</v>
       </c>
       <c r="H27" s="3">
-        <v>233000</v>
+        <v>235700</v>
       </c>
       <c r="I27" s="3">
-        <v>513400</v>
+        <v>519200</v>
       </c>
       <c r="J27" s="3">
-        <v>1127300</v>
+        <v>1140000</v>
       </c>
       <c r="K27" s="3">
         <v>480700</v>
@@ -1705,25 +1705,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-140800</v>
+        <v>-142300</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="3">
-        <v>-137200</v>
+        <v>-138800</v>
       </c>
       <c r="G32" s="3">
-        <v>-127800</v>
+        <v>-129200</v>
       </c>
       <c r="H32" s="3">
-        <v>-137200</v>
+        <v>-138800</v>
       </c>
       <c r="I32" s="3">
-        <v>-119500</v>
+        <v>-120800</v>
       </c>
       <c r="J32" s="3">
-        <v>-54400</v>
+        <v>-55000</v>
       </c>
       <c r="K32" s="3">
         <v>-54300</v>
@@ -1749,25 +1749,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>204600</v>
+        <v>206900</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="3">
-        <v>1029100</v>
+        <v>1040700</v>
       </c>
       <c r="G33" s="3">
-        <v>671900</v>
+        <v>679400</v>
       </c>
       <c r="H33" s="3">
-        <v>233000</v>
+        <v>235700</v>
       </c>
       <c r="I33" s="3">
-        <v>513400</v>
+        <v>519200</v>
       </c>
       <c r="J33" s="3">
-        <v>1127300</v>
+        <v>1140000</v>
       </c>
       <c r="K33" s="3">
         <v>480700</v>
@@ -1837,25 +1837,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>204600</v>
+        <v>206900</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="3">
-        <v>1029100</v>
+        <v>1040700</v>
       </c>
       <c r="G35" s="3">
-        <v>671900</v>
+        <v>679400</v>
       </c>
       <c r="H35" s="3">
-        <v>233000</v>
+        <v>235700</v>
       </c>
       <c r="I35" s="3">
-        <v>513400</v>
+        <v>519200</v>
       </c>
       <c r="J35" s="3">
-        <v>1127300</v>
+        <v>1140000</v>
       </c>
       <c r="K35" s="3">
         <v>480700</v>
@@ -1966,25 +1966,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13175100</v>
+        <v>13323300</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="3">
-        <v>14505900</v>
+        <v>14669000</v>
       </c>
       <c r="G41" s="3">
-        <v>14183000</v>
+        <v>14342400</v>
       </c>
       <c r="H41" s="3">
-        <v>10343300</v>
+        <v>10459600</v>
       </c>
       <c r="I41" s="3">
-        <v>11338100</v>
+        <v>11465600</v>
       </c>
       <c r="J41" s="3">
-        <v>12737500</v>
+        <v>12880700</v>
       </c>
       <c r="K41" s="3">
         <v>13110700</v>
@@ -2072,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="3">
-        <v>4858200</v>
+        <v>4912800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -2230,25 +2230,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>187919000</v>
+        <v>190031900</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="3">
-        <v>172934100</v>
+        <v>174878500</v>
       </c>
       <c r="G47" s="3">
-        <v>170073800</v>
+        <v>171986000</v>
       </c>
       <c r="H47" s="3">
-        <v>163708600</v>
+        <v>165549300</v>
       </c>
       <c r="I47" s="3">
-        <v>162728000</v>
+        <v>164557600</v>
       </c>
       <c r="J47" s="3">
-        <v>166823200</v>
+        <v>168698900</v>
       </c>
       <c r="K47" s="3">
         <v>153240900</v>
@@ -2274,25 +2274,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3539200</v>
+        <v>3579000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>3431600</v>
+        <v>3470200</v>
       </c>
       <c r="G48" s="3">
-        <v>3257700</v>
+        <v>3294300</v>
       </c>
       <c r="H48" s="3">
-        <v>3193800</v>
+        <v>3229700</v>
       </c>
       <c r="I48" s="3">
-        <v>2973800</v>
+        <v>3007200</v>
       </c>
       <c r="J48" s="3">
-        <v>3166600</v>
+        <v>3202200</v>
       </c>
       <c r="K48" s="3">
         <v>2294900</v>
@@ -2318,25 +2318,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1779100</v>
+        <v>1799100</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>3688300</v>
+        <v>3729800</v>
       </c>
       <c r="G49" s="3">
-        <v>1937600</v>
+        <v>1959400</v>
       </c>
       <c r="H49" s="3">
-        <v>4085700</v>
+        <v>4131700</v>
       </c>
       <c r="I49" s="3">
-        <v>1943500</v>
+        <v>1965400</v>
       </c>
       <c r="J49" s="3">
-        <v>1931700</v>
+        <v>1953400</v>
       </c>
       <c r="K49" s="3">
         <v>1863000</v>
@@ -2456,19 +2456,19 @@
         <v>8</v>
       </c>
       <c r="F52" s="3">
-        <v>228300</v>
+        <v>230900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>147900</v>
+        <v>149500</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>6367600</v>
+        <v>6439100</v>
       </c>
       <c r="K52" s="3">
         <v>5808300</v>
@@ -2538,25 +2538,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>525915000</v>
+        <v>531828100</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="3">
-        <v>521118300</v>
+        <v>526977500</v>
       </c>
       <c r="G54" s="3">
-        <v>502111500</v>
+        <v>507757000</v>
       </c>
       <c r="H54" s="3">
-        <v>464916400</v>
+        <v>470143700</v>
       </c>
       <c r="I54" s="3">
-        <v>460019200</v>
+        <v>465191400</v>
       </c>
       <c r="J54" s="3">
-        <v>468772600</v>
+        <v>474043300</v>
       </c>
       <c r="K54" s="3">
         <v>439933200</v>
@@ -2662,13 +2662,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8520400</v>
+        <v>8616200</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="3">
-        <v>8945100</v>
+        <v>9045700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2680,7 +2680,7 @@
         <v>8</v>
       </c>
       <c r="J58" s="3">
-        <v>2089000</v>
+        <v>2112500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2706,25 +2706,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>429651800</v>
+        <v>434482600</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="3">
-        <v>439377600</v>
+        <v>444317700</v>
       </c>
       <c r="G59" s="3">
-        <v>420603800</v>
+        <v>425332800</v>
       </c>
       <c r="H59" s="3">
-        <v>391509100</v>
+        <v>395911100</v>
       </c>
       <c r="I59" s="3">
-        <v>385844200</v>
+        <v>390182500</v>
       </c>
       <c r="J59" s="3">
-        <v>387033100</v>
+        <v>391384700</v>
       </c>
       <c r="K59" s="3">
         <v>357369400</v>
@@ -2794,25 +2794,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4775400</v>
+        <v>4829100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>4835700</v>
+        <v>4890100</v>
       </c>
       <c r="G61" s="3">
-        <v>13045000</v>
+        <v>13191700</v>
       </c>
       <c r="H61" s="3">
-        <v>16067300</v>
+        <v>16248000</v>
       </c>
       <c r="I61" s="3">
-        <v>17609800</v>
+        <v>17807800</v>
       </c>
       <c r="J61" s="3">
-        <v>15188400</v>
+        <v>15359200</v>
       </c>
       <c r="K61" s="3">
         <v>17281900</v>
@@ -2844,19 +2844,19 @@
         <v>8</v>
       </c>
       <c r="F62" s="3">
-        <v>6806400</v>
+        <v>6882900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="3">
-        <v>5449600</v>
+        <v>5510900</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>11970900</v>
+        <v>12105500</v>
       </c>
       <c r="K62" s="3">
         <v>5512500</v>
@@ -3014,25 +3014,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>494601200</v>
+        <v>500162300</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="3">
-        <v>491522200</v>
+        <v>497048600</v>
       </c>
       <c r="G66" s="3">
-        <v>472698700</v>
+        <v>478013500</v>
       </c>
       <c r="H66" s="3">
-        <v>437901300</v>
+        <v>442824900</v>
       </c>
       <c r="I66" s="3">
-        <v>431891000</v>
+        <v>436747000</v>
       </c>
       <c r="J66" s="3">
-        <v>439950100</v>
+        <v>444896700</v>
       </c>
       <c r="K66" s="3">
         <v>413468200</v>
@@ -3252,25 +3252,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13597400</v>
+        <v>13750300</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>13528800</v>
+        <v>13680900</v>
       </c>
       <c r="G72" s="3">
-        <v>12654700</v>
+        <v>12796900</v>
       </c>
       <c r="H72" s="3">
-        <v>12199200</v>
+        <v>12336400</v>
       </c>
       <c r="I72" s="3">
-        <v>11852700</v>
+        <v>11985900</v>
       </c>
       <c r="J72" s="3">
-        <v>11882200</v>
+        <v>12015800</v>
       </c>
       <c r="K72" s="3">
         <v>9744700</v>
@@ -3428,25 +3428,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31313700</v>
+        <v>31665800</v>
       </c>
       <c r="E76" s="3">
-        <v>28114000</v>
+        <v>28430100</v>
       </c>
       <c r="F76" s="3">
-        <v>29596200</v>
+        <v>29928900</v>
       </c>
       <c r="G76" s="3">
-        <v>29412800</v>
+        <v>29743500</v>
       </c>
       <c r="H76" s="3">
-        <v>27015100</v>
+        <v>27318800</v>
       </c>
       <c r="I76" s="3">
-        <v>28128200</v>
+        <v>28444400</v>
       </c>
       <c r="J76" s="3">
-        <v>28822500</v>
+        <v>29146600</v>
       </c>
       <c r="K76" s="3">
         <v>26465000</v>
@@ -3565,25 +3565,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>204600</v>
+        <v>206900</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="3">
-        <v>1029100</v>
+        <v>1040700</v>
       </c>
       <c r="G81" s="3">
-        <v>671900</v>
+        <v>679400</v>
       </c>
       <c r="H81" s="3">
-        <v>233000</v>
+        <v>235700</v>
       </c>
       <c r="I81" s="3">
-        <v>513400</v>
+        <v>519200</v>
       </c>
       <c r="J81" s="3">
-        <v>1127300</v>
+        <v>1140000</v>
       </c>
       <c r="K81" s="3">
         <v>480700</v>
@@ -3627,16 +3627,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>317000</v>
+        <v>320600</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F83" s="3">
-        <v>820900</v>
+        <v>830200</v>
       </c>
       <c r="G83" s="3">
-        <v>580800</v>
+        <v>587300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
@@ -3891,25 +3891,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-938000</v>
+        <v>-948600</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F89" s="3">
-        <v>1585100</v>
+        <v>1602900</v>
       </c>
       <c r="G89" s="3">
-        <v>7052400</v>
+        <v>7131700</v>
       </c>
       <c r="H89" s="3">
-        <v>1762500</v>
+        <v>1782300</v>
       </c>
       <c r="I89" s="3">
-        <v>-1151000</v>
+        <v>-1163900</v>
       </c>
       <c r="J89" s="3">
-        <v>490900</v>
+        <v>496400</v>
       </c>
       <c r="K89" s="3">
         <v>-653500</v>
@@ -3953,25 +3953,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31900</v>
+        <v>-32300</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F91" s="3">
-        <v>-67400</v>
+        <v>-68200</v>
       </c>
       <c r="G91" s="3">
-        <v>-53200</v>
+        <v>-53800</v>
       </c>
       <c r="H91" s="3">
-        <v>-79300</v>
+        <v>-80100</v>
       </c>
       <c r="I91" s="3">
-        <v>-16600</v>
+        <v>-16700</v>
       </c>
       <c r="J91" s="3">
-        <v>-18900</v>
+        <v>-19100</v>
       </c>
       <c r="K91" s="3">
         <v>-22200</v>
@@ -4085,25 +4085,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>119500</v>
+        <v>120800</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>-204600</v>
+        <v>-206900</v>
       </c>
       <c r="G94" s="3">
-        <v>102900</v>
+        <v>104100</v>
       </c>
       <c r="H94" s="3">
-        <v>-412800</v>
+        <v>-417500</v>
       </c>
       <c r="I94" s="3">
-        <v>-105300</v>
+        <v>-106500</v>
       </c>
       <c r="J94" s="3">
-        <v>-138400</v>
+        <v>-140000</v>
       </c>
       <c r="K94" s="3">
         <v>-14400</v>
@@ -4153,16 +4153,16 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-164400</v>
+        <v>-166300</v>
       </c>
       <c r="G96" s="3">
-        <v>-201100</v>
+        <v>-203400</v>
       </c>
       <c r="H96" s="3">
-        <v>-190400</v>
+        <v>-192600</v>
       </c>
       <c r="I96" s="3">
-        <v>-197500</v>
+        <v>-199800</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4323,25 +4323,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-474300</v>
+        <v>-479700</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F100" s="3">
-        <v>-1090600</v>
+        <v>-1102900</v>
       </c>
       <c r="G100" s="3">
-        <v>-3321600</v>
+        <v>-3358900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2351600</v>
+        <v>-2378000</v>
       </c>
       <c r="I100" s="3">
-        <v>-481400</v>
+        <v>-486900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1555500</v>
+        <v>-1573000</v>
       </c>
       <c r="K100" s="3">
         <v>-189400</v>
@@ -4367,25 +4367,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37900</v>
+        <v>-38300</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F101" s="3">
-        <v>40200</v>
+        <v>40700</v>
       </c>
       <c r="G101" s="3">
         <v>-1200</v>
       </c>
       <c r="H101" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="I101" s="3">
-        <v>33100</v>
+        <v>33500</v>
       </c>
       <c r="J101" s="3">
-        <v>-14200</v>
+        <v>-14400</v>
       </c>
       <c r="K101" s="3">
         <v>-50900</v>
@@ -4411,25 +4411,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1330800</v>
+        <v>-1345700</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>330000</v>
+        <v>333700</v>
       </c>
       <c r="G102" s="3">
-        <v>3832600</v>
+        <v>3875700</v>
       </c>
       <c r="H102" s="3">
-        <v>-993600</v>
+        <v>-1004800</v>
       </c>
       <c r="I102" s="3">
-        <v>-1704600</v>
+        <v>-1723700</v>
       </c>
       <c r="J102" s="3">
-        <v>-1217200</v>
+        <v>-1230900</v>
       </c>
       <c r="K102" s="3">
         <v>-908200</v>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>AEG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,211 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13420200</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3">
-        <v>31854800</v>
+        <v>47118300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13198000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G8" s="3">
-        <v>48531000</v>
+        <v>31327500</v>
       </c>
       <c r="H8" s="3">
-        <v>4030000</v>
+        <v>47727700</v>
       </c>
       <c r="I8" s="3">
-        <v>20561500</v>
+        <v>3963300</v>
       </c>
       <c r="J8" s="3">
+        <v>20221100</v>
+      </c>
+      <c r="K8" s="3">
         <v>18665500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14526200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14738800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17115600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11262500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20941900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16622300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>613700</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>421100</v>
+        <v>298800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>603500</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G9" s="3">
-        <v>482100</v>
+        <v>414100</v>
       </c>
       <c r="H9" s="3">
-        <v>512000</v>
+        <v>474100</v>
       </c>
       <c r="I9" s="3">
-        <v>598100</v>
+        <v>503500</v>
       </c>
       <c r="J9" s="3">
+        <v>588200</v>
+      </c>
+      <c r="K9" s="3">
         <v>82500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>87500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>211600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-287700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>143600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>314600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12806500</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>31433700</v>
+        <v>46819500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12594500</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G10" s="3">
-        <v>48049000</v>
+        <v>30913400</v>
       </c>
       <c r="H10" s="3">
-        <v>3518000</v>
+        <v>47253600</v>
       </c>
       <c r="I10" s="3">
-        <v>19963400</v>
+        <v>3459800</v>
       </c>
       <c r="J10" s="3">
+        <v>19632900</v>
+      </c>
+      <c r="K10" s="3">
         <v>18583000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14438700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14527300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17403300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11118900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20627400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16378200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +886,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,8 +931,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -962,52 +978,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>281100</v>
+        <v>96500</v>
       </c>
       <c r="E14" s="3">
-        <v>148300</v>
+        <v>276500</v>
       </c>
       <c r="F14" s="3">
-        <v>-253600</v>
+        <v>145900</v>
       </c>
       <c r="G14" s="3">
-        <v>76600</v>
+        <v>-249400</v>
       </c>
       <c r="H14" s="3">
-        <v>-100500</v>
+        <v>75300</v>
       </c>
       <c r="I14" s="3">
-        <v>-118400</v>
+        <v>-98800</v>
       </c>
       <c r="J14" s="3">
+        <v>-116500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-20300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-104100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-32100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-12100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>25800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-38700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1050,8 +1072,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1065,96 +1090,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13429700</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>30700500</v>
+        <v>47554800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13207400</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G17" s="3">
-        <v>47764300</v>
+        <v>30192300</v>
       </c>
       <c r="H17" s="3">
-        <v>4028800</v>
+        <v>46973700</v>
       </c>
       <c r="I17" s="3">
-        <v>19886800</v>
+        <v>3962100</v>
       </c>
       <c r="J17" s="3">
+        <v>19557700</v>
+      </c>
+      <c r="K17" s="3">
         <v>18102100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13908100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13960200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16579800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10703800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20412600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17081300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1154300</v>
+        <v>-436400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G18" s="3">
-        <v>766800</v>
+        <v>1135200</v>
       </c>
       <c r="H18" s="3">
+        <v>754100</v>
+      </c>
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
-        <v>674700</v>
-      </c>
       <c r="J18" s="3">
+        <v>663500</v>
+      </c>
+      <c r="K18" s="3">
         <v>563400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>618000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>778600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>535800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>558800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>529400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-459000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1171,69 +1203,73 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>142300</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>138800</v>
+        <v>207000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G20" s="3">
-        <v>129200</v>
+        <v>136500</v>
       </c>
       <c r="H20" s="3">
-        <v>138800</v>
+        <v>127100</v>
       </c>
       <c r="I20" s="3">
-        <v>120800</v>
+        <v>136500</v>
       </c>
       <c r="J20" s="3">
+        <v>118800</v>
+      </c>
+      <c r="K20" s="3">
         <v>55000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>54300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>38400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>37000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>56300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>453400</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2123300</v>
+        <v>304700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>445900</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G21" s="3">
-        <v>1483300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
+        <v>2088100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1458700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1259,8 +1295,11 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1303,96 +1342,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>132800</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1293100</v>
+        <v>-229400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>130600</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G23" s="3">
-        <v>896000</v>
+        <v>1271700</v>
       </c>
       <c r="H23" s="3">
-        <v>140000</v>
+        <v>881100</v>
       </c>
       <c r="I23" s="3">
-        <v>795500</v>
+        <v>137600</v>
       </c>
       <c r="J23" s="3">
+        <v>782300</v>
+      </c>
+      <c r="K23" s="3">
         <v>618400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>672300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>826300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>574300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>595800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>585700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-424900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-110100</v>
+        <v>-55300</v>
       </c>
       <c r="E24" s="3">
-        <v>308600</v>
+        <v>-108200</v>
       </c>
       <c r="F24" s="3">
-        <v>204600</v>
+        <v>303500</v>
       </c>
       <c r="G24" s="3">
-        <v>159100</v>
+        <v>201200</v>
       </c>
       <c r="H24" s="3">
-        <v>-163900</v>
+        <v>156500</v>
       </c>
       <c r="I24" s="3">
-        <v>208100</v>
+        <v>-161200</v>
       </c>
       <c r="J24" s="3">
+        <v>204700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-559800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>154000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>240300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>159200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>68400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>165500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1435,96 +1483,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>242800</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1088500</v>
+        <v>-174100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>238800</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G26" s="3">
-        <v>736900</v>
+        <v>1070500</v>
       </c>
       <c r="H26" s="3">
-        <v>303800</v>
+        <v>724700</v>
       </c>
       <c r="I26" s="3">
-        <v>587300</v>
+        <v>298800</v>
       </c>
       <c r="J26" s="3">
+        <v>577600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1178300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>518400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>585900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>415000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>527300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>420200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-451900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>206900</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1040700</v>
+        <v>-195300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>203500</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G27" s="3">
-        <v>679400</v>
+        <v>1023500</v>
       </c>
       <c r="H27" s="3">
-        <v>235700</v>
+        <v>668200</v>
       </c>
       <c r="I27" s="3">
-        <v>519200</v>
+        <v>231800</v>
       </c>
       <c r="J27" s="3">
+        <v>510600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1140000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>480700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>552700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>376600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>490300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>378000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1567,8 +1624,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1611,8 +1671,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1655,8 +1718,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1699,96 +1765,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-142300</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-138800</v>
+        <v>-207000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G32" s="3">
-        <v>-129200</v>
+        <v>-136500</v>
       </c>
       <c r="H32" s="3">
-        <v>-138800</v>
+        <v>-127100</v>
       </c>
       <c r="I32" s="3">
-        <v>-120800</v>
+        <v>-136500</v>
       </c>
       <c r="J32" s="3">
+        <v>-118800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-55000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-54300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-38400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-37000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-56300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>206900</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1040700</v>
+        <v>-195300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>203500</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G33" s="3">
-        <v>679400</v>
+        <v>1023500</v>
       </c>
       <c r="H33" s="3">
-        <v>235700</v>
+        <v>668200</v>
       </c>
       <c r="I33" s="3">
-        <v>519200</v>
+        <v>231800</v>
       </c>
       <c r="J33" s="3">
+        <v>510600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1140000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>480700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>552700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>376600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>490300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>378000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1831,101 +1906,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>206900</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1040700</v>
+        <v>-195300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>203500</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G35" s="3">
-        <v>679400</v>
+        <v>1023500</v>
       </c>
       <c r="H35" s="3">
-        <v>235700</v>
+        <v>668200</v>
       </c>
       <c r="I35" s="3">
-        <v>519200</v>
+        <v>231800</v>
       </c>
       <c r="J35" s="3">
+        <v>510600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1140000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>480700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>552700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>376600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>490300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>378000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1942,8 +2026,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1960,52 +2045,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13323300</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3">
-        <v>14669000</v>
+        <v>9848800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13102700</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G41" s="3">
-        <v>14342400</v>
+        <v>14426200</v>
       </c>
       <c r="H41" s="3">
-        <v>10459600</v>
+        <v>14105000</v>
       </c>
       <c r="I41" s="3">
-        <v>11465600</v>
+        <v>10286400</v>
       </c>
       <c r="J41" s="3">
+        <v>11275800</v>
+      </c>
+      <c r="K41" s="3">
         <v>12880700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13110700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14265900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12118600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12731200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13282800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12303900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2048,8 +2137,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2071,12 +2163,12 @@
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>4912800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2092,8 +2184,11 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2136,8 +2231,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2180,8 +2278,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2224,140 +2325,152 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>190031900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3">
-        <v>174878500</v>
+        <v>185694700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>186886400</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>171986000</v>
+        <v>171983800</v>
       </c>
       <c r="H47" s="3">
-        <v>165549300</v>
+        <v>169139300</v>
       </c>
       <c r="I47" s="3">
-        <v>164557600</v>
+        <v>162809100</v>
       </c>
       <c r="J47" s="3">
+        <v>161833800</v>
+      </c>
+      <c r="K47" s="3">
         <v>168698900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>153240900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>155569100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>171034400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>175813600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>186608800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>187632400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3579000</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3470200</v>
+        <v>2805700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3519800</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>3294300</v>
+        <v>3412700</v>
       </c>
       <c r="H48" s="3">
-        <v>3229700</v>
+        <v>3239800</v>
       </c>
       <c r="I48" s="3">
-        <v>3007200</v>
+        <v>3176300</v>
       </c>
       <c r="J48" s="3">
+        <v>2957500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3202200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2294900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2244000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2211400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2242900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2239600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2232600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1799100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3729800</v>
+        <v>1630500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1769300</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>1959400</v>
+        <v>3668000</v>
       </c>
       <c r="H49" s="3">
-        <v>4131700</v>
+        <v>1926900</v>
       </c>
       <c r="I49" s="3">
-        <v>1965400</v>
+        <v>4063300</v>
       </c>
       <c r="J49" s="3">
+        <v>1932800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1953400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1863000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1869600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2021400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2042000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2024800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2118700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2400,8 +2513,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2444,52 +2560,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>169400</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>230900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
-        <v>149500</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>228200</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>147100</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>6439100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5808300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2574100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9734900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9921800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10226200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10604200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2532,52 +2654,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>531828100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3">
-        <v>526977500</v>
+        <v>523342700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>523025100</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G54" s="3">
-        <v>507757000</v>
+        <v>518254800</v>
       </c>
       <c r="H54" s="3">
-        <v>470143700</v>
+        <v>499352400</v>
       </c>
       <c r="I54" s="3">
-        <v>465191400</v>
+        <v>462361700</v>
       </c>
       <c r="J54" s="3">
+        <v>457491400</v>
+      </c>
+      <c r="K54" s="3">
         <v>474043300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>439933200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>448162700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>467149600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>477894800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>499290600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>499808300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2594,8 +2722,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2612,8 +2741,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2656,19 +2786,22 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8616200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3">
-        <v>9045700</v>
+        <v>8567700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8473600</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2679,12 +2812,12 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>2112500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2700,52 +2833,58 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>434482600</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3">
-        <v>444317700</v>
+        <v>436135000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>427290800</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G59" s="3">
-        <v>425332800</v>
+        <v>436963200</v>
       </c>
       <c r="H59" s="3">
-        <v>395911100</v>
+        <v>418292500</v>
       </c>
       <c r="I59" s="3">
-        <v>390182500</v>
+        <v>389357800</v>
       </c>
       <c r="J59" s="3">
+        <v>383724000</v>
+      </c>
+      <c r="K59" s="3">
         <v>391384700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>357369400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>367006600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>377844900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>387177400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>395586900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>391081800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2788,96 +2927,105 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4829100</v>
+        <v>4060900</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>4749100</v>
       </c>
       <c r="F61" s="3">
-        <v>4890100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>13191700</v>
+        <v>13705100</v>
       </c>
       <c r="H61" s="3">
-        <v>16248000</v>
+        <v>12973300</v>
       </c>
       <c r="I61" s="3">
-        <v>17807800</v>
+        <v>15979000</v>
       </c>
       <c r="J61" s="3">
+        <v>17513100</v>
+      </c>
+      <c r="K61" s="3">
         <v>15359200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17281900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17472400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17503200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15793100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16121100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15254800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>7431300</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>6882900</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5510900</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>6771400</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>5419700</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>12105500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5512500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2596200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9855600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17896900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10355400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10723900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2920,8 +3068,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2964,8 +3115,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3008,52 +3162,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500162300</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3">
-        <v>497048600</v>
+        <v>493481000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>491883400</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G66" s="3">
-        <v>478013500</v>
+        <v>488821300</v>
       </c>
       <c r="H66" s="3">
-        <v>442824900</v>
+        <v>470101200</v>
       </c>
       <c r="I66" s="3">
-        <v>436747000</v>
+        <v>435495000</v>
       </c>
       <c r="J66" s="3">
+        <v>429517800</v>
+      </c>
+      <c r="K66" s="3">
         <v>444896700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>413468200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>421372000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>439360300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>450169300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>470018200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>469565100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3070,8 +3230,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3114,8 +3275,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3158,8 +3322,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3202,8 +3369,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3246,52 +3416,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13750300</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3">
-        <v>13680900</v>
+        <v>12222800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>13522700</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G72" s="3">
-        <v>12796900</v>
+        <v>13454500</v>
       </c>
       <c r="H72" s="3">
-        <v>12336400</v>
+        <v>12585100</v>
       </c>
       <c r="I72" s="3">
-        <v>11985900</v>
+        <v>12132200</v>
       </c>
       <c r="J72" s="3">
+        <v>11787500</v>
+      </c>
+      <c r="K72" s="3">
         <v>12015800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9744700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9903100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10237800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8979300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9437400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9470300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3334,8 +3510,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3378,8 +3557,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3422,52 +3604,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31665800</v>
+        <v>29861700</v>
       </c>
       <c r="E76" s="3">
-        <v>28430100</v>
+        <v>31141700</v>
       </c>
       <c r="F76" s="3">
-        <v>29928900</v>
+        <v>27959500</v>
       </c>
       <c r="G76" s="3">
-        <v>29743500</v>
+        <v>29433500</v>
       </c>
       <c r="H76" s="3">
-        <v>27318800</v>
+        <v>29251200</v>
       </c>
       <c r="I76" s="3">
-        <v>28444400</v>
+        <v>26866600</v>
       </c>
       <c r="J76" s="3">
+        <v>27973600</v>
+      </c>
+      <c r="K76" s="3">
         <v>29146600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26465000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26790600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27789300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27725500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29272500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30243200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3510,101 +3698,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>206900</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1040700</v>
+        <v>-195300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>203500</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G81" s="3">
-        <v>679400</v>
+        <v>1023500</v>
       </c>
       <c r="H81" s="3">
-        <v>235700</v>
+        <v>668200</v>
       </c>
       <c r="I81" s="3">
-        <v>519200</v>
+        <v>231800</v>
       </c>
       <c r="J81" s="3">
+        <v>510600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1140000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>480700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>552700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>376600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>490300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>378000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3621,25 +3818,26 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>320600</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3">
-        <v>830200</v>
+        <v>534100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>315300</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G83" s="3">
-        <v>587300</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
+        <v>816400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>577600</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
@@ -3656,8 +3854,8 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3665,8 +3863,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3709,8 +3910,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3753,8 +3957,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3797,8 +4004,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3841,8 +4051,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3885,52 +4098,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-948600</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1602900</v>
+        <v>-2424600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-932900</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G89" s="3">
-        <v>7131700</v>
+        <v>1576400</v>
       </c>
       <c r="H89" s="3">
-        <v>1782300</v>
+        <v>7013700</v>
       </c>
       <c r="I89" s="3">
-        <v>-1163900</v>
+        <v>1752800</v>
       </c>
       <c r="J89" s="3">
+        <v>-1144600</v>
+      </c>
+      <c r="K89" s="3">
         <v>496400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-653500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3129000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2302500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>102100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>685500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-181900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3947,52 +4166,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-68200</v>
+        <v>-62300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
-        <v>-53800</v>
+        <v>-67100</v>
       </c>
       <c r="H91" s="3">
-        <v>-80100</v>
+        <v>-52900</v>
       </c>
       <c r="I91" s="3">
-        <v>-16700</v>
+        <v>-78800</v>
       </c>
       <c r="J91" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-19100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4035,8 +4258,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4079,52 +4305,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>120800</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-206900</v>
+        <v>-282300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>118800</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
-        <v>104100</v>
+        <v>-203500</v>
       </c>
       <c r="H94" s="3">
-        <v>-417500</v>
+        <v>102300</v>
       </c>
       <c r="I94" s="3">
-        <v>-106500</v>
+        <v>-410600</v>
       </c>
       <c r="J94" s="3">
+        <v>-104700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-140000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1069900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-109800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-359000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>9400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-906200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4141,52 +4373,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-74100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-166300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-203400</v>
+        <v>-163500</v>
       </c>
       <c r="H96" s="3">
-        <v>-192600</v>
+        <v>-200000</v>
       </c>
       <c r="I96" s="3">
-        <v>-199800</v>
+        <v>-189400</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-196500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-167200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-180800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4229,8 +4465,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4273,8 +4512,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4317,136 +4559,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-479700</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1102900</v>
+        <v>-443500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-471700</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3">
-        <v>-3358900</v>
+        <v>-1084600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2378000</v>
+        <v>-3303300</v>
       </c>
       <c r="I100" s="3">
-        <v>-486900</v>
+        <v>-2338700</v>
       </c>
       <c r="J100" s="3">
+        <v>-478800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1573000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-189400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>104100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2098300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-157100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>625600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>961400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38300</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3">
-        <v>40700</v>
+        <v>-104700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G101" s="3">
+        <v>40000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>8400</v>
-      </c>
       <c r="I101" s="3">
-        <v>33500</v>
+        <v>8200</v>
       </c>
       <c r="J101" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-14400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-50900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-124100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-28500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>151500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-31700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1345700</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3">
-        <v>333700</v>
+        <v>-3255100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1323500</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G102" s="3">
-        <v>3875700</v>
+        <v>328200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1004800</v>
+        <v>3811500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1723700</v>
+        <v>-988200</v>
       </c>
       <c r="J102" s="3">
+        <v>-1695200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1230900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-908200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2039100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-342600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>51600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>976600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-125600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>AEG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,211 +665,223 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47118300</v>
+        <v>11583500</v>
       </c>
       <c r="E8" s="3">
-        <v>13198000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
-        <v>31327500</v>
+        <v>49064500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>13743200</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H8" s="3">
-        <v>47727700</v>
+        <v>32621500</v>
       </c>
       <c r="I8" s="3">
-        <v>3963300</v>
+        <v>49699100</v>
       </c>
       <c r="J8" s="3">
+        <v>4127000</v>
+      </c>
+      <c r="K8" s="3">
         <v>20221100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18665500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14526200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14738800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17115600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11262500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20941900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16622300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>298800</v>
+        <v>251100</v>
       </c>
       <c r="E9" s="3">
-        <v>603500</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3">
-        <v>414100</v>
+        <v>311100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>628400</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="3">
-        <v>474100</v>
+        <v>431200</v>
       </c>
       <c r="I9" s="3">
-        <v>503500</v>
+        <v>493700</v>
       </c>
       <c r="J9" s="3">
+        <v>524300</v>
+      </c>
+      <c r="K9" s="3">
         <v>588200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>82500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>87500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>211600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-287700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>143600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>314600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>46819500</v>
+        <v>11332400</v>
       </c>
       <c r="E10" s="3">
-        <v>12594500</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3">
-        <v>30913400</v>
+        <v>48753400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>13114700</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H10" s="3">
-        <v>47253600</v>
+        <v>32190300</v>
       </c>
       <c r="I10" s="3">
-        <v>3459800</v>
+        <v>49205400</v>
       </c>
       <c r="J10" s="3">
+        <v>3602700</v>
+      </c>
+      <c r="K10" s="3">
         <v>19632900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18583000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14438700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14527300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17403300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11118900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20627400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16378200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +899,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +947,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -981,55 +997,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>96500</v>
+        <v>68600</v>
       </c>
       <c r="E14" s="3">
-        <v>276500</v>
+        <v>100400</v>
       </c>
       <c r="F14" s="3">
-        <v>145900</v>
+        <v>287900</v>
       </c>
       <c r="G14" s="3">
-        <v>-249400</v>
+        <v>151900</v>
       </c>
       <c r="H14" s="3">
-        <v>75300</v>
+        <v>-259700</v>
       </c>
       <c r="I14" s="3">
-        <v>-98800</v>
+        <v>78400</v>
       </c>
       <c r="J14" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-116500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-20300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-104100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-32100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-12100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-38700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1075,8 +1097,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1091,102 +1116,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>47554800</v>
+        <v>11088600</v>
       </c>
       <c r="E17" s="3">
-        <v>13207400</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>30192300</v>
+        <v>49519000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>13753000</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H17" s="3">
-        <v>46973700</v>
+        <v>31439400</v>
       </c>
       <c r="I17" s="3">
-        <v>3962100</v>
+        <v>48913900</v>
       </c>
       <c r="J17" s="3">
+        <v>4125800</v>
+      </c>
+      <c r="K17" s="3">
         <v>19557700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18102100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13908100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13960200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16579800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10703800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20412600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17081300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-436400</v>
+        <v>494900</v>
       </c>
       <c r="E18" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1135200</v>
+        <v>-454500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H18" s="3">
-        <v>754100</v>
+        <v>1182100</v>
       </c>
       <c r="I18" s="3">
+        <v>785200</v>
+      </c>
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>663500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>563400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>618000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>778600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>535800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>558800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>529400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-459000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1204,75 +1236,79 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>207000</v>
+        <v>66100</v>
       </c>
       <c r="E20" s="3">
-        <v>140000</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>136500</v>
+        <v>215600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>145800</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H20" s="3">
-        <v>127100</v>
+        <v>142100</v>
       </c>
       <c r="I20" s="3">
-        <v>136500</v>
+        <v>132300</v>
       </c>
       <c r="J20" s="3">
+        <v>142100</v>
+      </c>
+      <c r="K20" s="3">
         <v>118800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>55000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>54300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>47600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>38400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>37000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>56300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>304700</v>
+        <v>896700</v>
       </c>
       <c r="E21" s="3">
-        <v>445900</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2088100</v>
+        <v>317300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>464300</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>1458700</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>2174400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1519000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1298,8 +1334,11 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1345,102 +1384,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-229400</v>
+        <v>561000</v>
       </c>
       <c r="E23" s="3">
-        <v>130600</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1271700</v>
+        <v>-238900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>136000</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H23" s="3">
-        <v>881100</v>
+        <v>1324200</v>
       </c>
       <c r="I23" s="3">
-        <v>137600</v>
+        <v>917500</v>
       </c>
       <c r="J23" s="3">
+        <v>143300</v>
+      </c>
+      <c r="K23" s="3">
         <v>782300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>618400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>672300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>826300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>574300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>595800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>585700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-424900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-55300</v>
+        <v>88200</v>
       </c>
       <c r="E24" s="3">
-        <v>-108200</v>
+        <v>-57600</v>
       </c>
       <c r="F24" s="3">
-        <v>303500</v>
+        <v>-112700</v>
       </c>
       <c r="G24" s="3">
-        <v>201200</v>
+        <v>316000</v>
       </c>
       <c r="H24" s="3">
-        <v>156500</v>
+        <v>209500</v>
       </c>
       <c r="I24" s="3">
-        <v>-161200</v>
+        <v>162900</v>
       </c>
       <c r="J24" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="K24" s="3">
         <v>204700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-559800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>154000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>240300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>159200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>68400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>165500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1486,102 +1534,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-174100</v>
+        <v>472800</v>
       </c>
       <c r="E26" s="3">
-        <v>238800</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1070500</v>
+        <v>-181300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>248700</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H26" s="3">
-        <v>724700</v>
+        <v>1114700</v>
       </c>
       <c r="I26" s="3">
-        <v>298800</v>
+        <v>754600</v>
       </c>
       <c r="J26" s="3">
+        <v>311100</v>
+      </c>
+      <c r="K26" s="3">
         <v>577600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1178300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>518400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>585900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>415000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>527300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>420200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-451900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-195300</v>
+        <v>459400</v>
       </c>
       <c r="E27" s="3">
-        <v>203500</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1023500</v>
+        <v>-203300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>211900</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H27" s="3">
-        <v>668200</v>
+        <v>1065700</v>
       </c>
       <c r="I27" s="3">
-        <v>231800</v>
+        <v>695800</v>
       </c>
       <c r="J27" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K27" s="3">
         <v>510600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1140000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>480700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>552700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>376600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>490300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>378000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1627,8 +1684,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1674,8 +1734,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1721,8 +1784,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1768,102 +1834,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-207000</v>
+        <v>-66100</v>
       </c>
       <c r="E32" s="3">
-        <v>-140000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-136500</v>
+        <v>-215600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-145800</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H32" s="3">
-        <v>-127100</v>
+        <v>-142100</v>
       </c>
       <c r="I32" s="3">
-        <v>-136500</v>
+        <v>-132300</v>
       </c>
       <c r="J32" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-118800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-55000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-54300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-47600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-38400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-37000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-195300</v>
+        <v>459400</v>
       </c>
       <c r="E33" s="3">
-        <v>203500</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1023500</v>
+        <v>-203300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>211900</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H33" s="3">
-        <v>668200</v>
+        <v>1065700</v>
       </c>
       <c r="I33" s="3">
-        <v>231800</v>
+        <v>695800</v>
       </c>
       <c r="J33" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K33" s="3">
         <v>510600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1140000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>480700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>552700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>376600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>490300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>378000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1909,107 +1984,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-195300</v>
+        <v>459400</v>
       </c>
       <c r="E35" s="3">
-        <v>203500</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1023500</v>
+        <v>-203300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>211900</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H35" s="3">
-        <v>668200</v>
+        <v>1065700</v>
       </c>
       <c r="I35" s="3">
-        <v>231800</v>
+        <v>695800</v>
       </c>
       <c r="J35" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K35" s="3">
         <v>510600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1140000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>480700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>552700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>376600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>490300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>378000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2027,8 +2111,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2046,55 +2131,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9848800</v>
+        <v>8877500</v>
       </c>
       <c r="E41" s="3">
-        <v>13102700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3">
-        <v>14426200</v>
+        <v>10255600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>13643900</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H41" s="3">
-        <v>14105000</v>
+        <v>15022100</v>
       </c>
       <c r="I41" s="3">
-        <v>10286400</v>
+        <v>14687600</v>
       </c>
       <c r="J41" s="3">
+        <v>10711300</v>
+      </c>
+      <c r="K41" s="3">
         <v>11275800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12880700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13110700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14265900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12118600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12731200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13282800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12303900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2140,38 +2229,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>4912800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,8 +2279,11 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2234,8 +2329,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2281,8 +2379,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2328,149 +2429,161 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>185694700</v>
+        <v>189993500</v>
       </c>
       <c r="E47" s="3">
-        <v>186886400</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3">
-        <v>171983800</v>
+        <v>193364700</v>
+      </c>
+      <c r="F47" s="3">
+        <v>194605600</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
-        <v>169139300</v>
+        <v>179087400</v>
       </c>
       <c r="I47" s="3">
-        <v>162809100</v>
+        <v>176125400</v>
       </c>
       <c r="J47" s="3">
+        <v>169533700</v>
+      </c>
+      <c r="K47" s="3">
         <v>161833800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>168698900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>153240900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>155569100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>171034400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>175813600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>186608800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>187632400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2805700</v>
+        <v>2864000</v>
       </c>
       <c r="E48" s="3">
-        <v>3519800</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3412700</v>
+        <v>2921600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3665200</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H48" s="3">
-        <v>3239800</v>
+        <v>3553700</v>
       </c>
       <c r="I48" s="3">
-        <v>3176300</v>
+        <v>3373600</v>
       </c>
       <c r="J48" s="3">
+        <v>3307500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2957500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3202200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2294900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2244000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2211400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2242900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2239600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2232600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1630500</v>
+        <v>1784800</v>
       </c>
       <c r="E49" s="3">
-        <v>1769300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3668000</v>
+        <v>1697800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1842400</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H49" s="3">
-        <v>1926900</v>
+        <v>3819500</v>
       </c>
       <c r="I49" s="3">
-        <v>4063300</v>
+        <v>2006500</v>
       </c>
       <c r="J49" s="3">
+        <v>4231100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1932800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1953400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1863000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1869600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2021400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2042000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2024800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2118700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2516,8 +2629,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2563,55 +2679,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>169400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
+        <v>176400</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>228200</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
-        <v>147100</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
+        <v>237600</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>153100</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>6439100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5808300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2574100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9734900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9921800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10226200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10604200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2657,55 +2779,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>523342700</v>
+        <v>552079700</v>
       </c>
       <c r="E54" s="3">
-        <v>523025100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3">
-        <v>518254800</v>
+        <v>544958900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>544628100</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H54" s="3">
-        <v>499352400</v>
+        <v>539660800</v>
       </c>
       <c r="I54" s="3">
-        <v>462361700</v>
+        <v>519977600</v>
       </c>
       <c r="J54" s="3">
+        <v>481459000</v>
+      </c>
+      <c r="K54" s="3">
         <v>457491400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>474043300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>439933200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>448162700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>467149600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>477894800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>499290600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>499808300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2723,8 +2851,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2742,8 +2871,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2789,19 +2919,22 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8567700</v>
+        <v>9325800</v>
       </c>
       <c r="E58" s="3">
-        <v>8473600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+        <v>8921600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>8823600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2815,12 +2948,12 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>2112500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2836,55 +2969,61 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>436135000</v>
+        <v>465871000</v>
       </c>
       <c r="E59" s="3">
-        <v>427290800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3">
-        <v>436963200</v>
+        <v>454149100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>444939600</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H59" s="3">
-        <v>418292500</v>
+        <v>455011500</v>
       </c>
       <c r="I59" s="3">
-        <v>389357800</v>
+        <v>435569700</v>
       </c>
       <c r="J59" s="3">
+        <v>405439800</v>
+      </c>
+      <c r="K59" s="3">
         <v>383724000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>391384700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>357369400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>367006600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>377844900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>387177400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>395586900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>391081800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2930,102 +3069,111 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4060900</v>
+        <v>4346300</v>
       </c>
       <c r="E61" s="3">
-        <v>4749100</v>
+        <v>4228700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>4945300</v>
       </c>
       <c r="G61" s="3">
-        <v>13705100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>12973300</v>
+        <v>14271100</v>
       </c>
       <c r="I61" s="3">
-        <v>15979000</v>
+        <v>13509200</v>
       </c>
       <c r="J61" s="3">
+        <v>16639000</v>
+      </c>
+      <c r="K61" s="3">
         <v>17513100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15359200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17281900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17472400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17503200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15793100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16121100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15254800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>7431300</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7738300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>6771400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5419700</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>7051000</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>5643500</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>12105500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5512500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2596200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9855600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17896900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10355400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10723900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3071,8 +3219,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3118,8 +3269,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3165,55 +3319,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>493481000</v>
+        <v>521933900</v>
       </c>
       <c r="E66" s="3">
-        <v>491883400</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3">
-        <v>488821300</v>
+        <v>513863700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>512200200</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H66" s="3">
-        <v>470101200</v>
+        <v>509011500</v>
       </c>
       <c r="I66" s="3">
-        <v>435495000</v>
+        <v>489518300</v>
       </c>
       <c r="J66" s="3">
+        <v>453482700</v>
+      </c>
+      <c r="K66" s="3">
         <v>429517800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>444896700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>413468200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>421372000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>439360300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>450169300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>470018200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>469565100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3231,8 +3391,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3278,8 +3439,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3325,8 +3489,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3372,8 +3539,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3419,55 +3589,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12222800</v>
+        <v>13776200</v>
       </c>
       <c r="E72" s="3">
-        <v>13522700</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3">
-        <v>13454500</v>
+        <v>12727600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>14081300</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H72" s="3">
-        <v>12585100</v>
+        <v>14010200</v>
       </c>
       <c r="I72" s="3">
-        <v>12132200</v>
+        <v>13104900</v>
       </c>
       <c r="J72" s="3">
+        <v>12633300</v>
+      </c>
+      <c r="K72" s="3">
         <v>11787500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12015800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9744700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9903100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10237800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8979300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9437400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9470300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3513,8 +3689,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3560,8 +3739,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3607,55 +3789,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29861700</v>
+        <v>30145800</v>
       </c>
       <c r="E76" s="3">
-        <v>31141700</v>
+        <v>31095100</v>
       </c>
       <c r="F76" s="3">
-        <v>27959500</v>
+        <v>32427900</v>
       </c>
       <c r="G76" s="3">
-        <v>29433500</v>
+        <v>29114300</v>
       </c>
       <c r="H76" s="3">
-        <v>29251200</v>
+        <v>30649200</v>
       </c>
       <c r="I76" s="3">
-        <v>26866600</v>
+        <v>30459400</v>
       </c>
       <c r="J76" s="3">
+        <v>27976300</v>
+      </c>
+      <c r="K76" s="3">
         <v>27973600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29146600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26465000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26790600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27789300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27725500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29272500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30243200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3701,107 +3889,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-195300</v>
+        <v>459400</v>
       </c>
       <c r="E81" s="3">
-        <v>203500</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1023500</v>
+        <v>-203300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>211900</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H81" s="3">
-        <v>668200</v>
+        <v>1065700</v>
       </c>
       <c r="I81" s="3">
-        <v>231800</v>
+        <v>695800</v>
       </c>
       <c r="J81" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K81" s="3">
         <v>510600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1140000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>480700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>552700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>376600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>490300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>378000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3819,28 +4016,29 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>534100</v>
+        <v>335600</v>
       </c>
       <c r="E83" s="3">
-        <v>315300</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3">
-        <v>816400</v>
+        <v>556100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>328300</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H83" s="3">
-        <v>577600</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+        <v>850100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>601500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3857,8 +4055,8 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3866,8 +4064,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3913,8 +4114,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3960,8 +4164,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4007,8 +4214,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4054,8 +4264,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4101,55 +4314,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2424600</v>
+        <v>-1804400</v>
       </c>
       <c r="E89" s="3">
-        <v>-932900</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1576400</v>
+        <v>-2524700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-971400</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H89" s="3">
-        <v>7013700</v>
+        <v>1641500</v>
       </c>
       <c r="I89" s="3">
-        <v>1752800</v>
+        <v>7303400</v>
       </c>
       <c r="J89" s="3">
+        <v>1825200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1144600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>496400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-653500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3129000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2302500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>102100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>685500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-181900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4167,55 +4386,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-62300</v>
+        <v>-12200</v>
       </c>
       <c r="E91" s="3">
-        <v>-31800</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-67100</v>
+        <v>-64900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
-        <v>-52900</v>
+        <v>-69800</v>
       </c>
       <c r="I91" s="3">
-        <v>-78800</v>
+        <v>-55100</v>
       </c>
       <c r="J91" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-16500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4261,8 +4484,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4308,55 +4534,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-282300</v>
+        <v>46500</v>
       </c>
       <c r="E94" s="3">
-        <v>118800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-203500</v>
+        <v>-294000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>123700</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3">
-        <v>102300</v>
+        <v>-211900</v>
       </c>
       <c r="I94" s="3">
-        <v>-410600</v>
+        <v>106600</v>
       </c>
       <c r="J94" s="3">
+        <v>-427500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-104700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-140000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1069900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-109800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-359000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>9400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-906200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4374,55 +4606,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-74100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-77200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-163500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-200000</v>
+        <v>-170300</v>
       </c>
       <c r="I96" s="3">
-        <v>-189400</v>
+        <v>-208200</v>
       </c>
       <c r="J96" s="3">
+        <v>-197200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-196500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-167200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-180800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4468,8 +4704,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4515,8 +4754,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4562,145 +4804,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-443500</v>
+        <v>263400</v>
       </c>
       <c r="E100" s="3">
-        <v>-471700</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1084600</v>
+        <v>-461800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-491200</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H100" s="3">
-        <v>-3303300</v>
+        <v>-1129400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2338700</v>
+        <v>-3439800</v>
       </c>
       <c r="J100" s="3">
+        <v>-2435300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-478800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1573000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-189400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>104100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2098300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-157100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>625600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>961400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-104700</v>
+        <v>69800</v>
       </c>
       <c r="E101" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3">
-        <v>40000</v>
+        <v>-109000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H101" s="3">
+        <v>41600</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
-        <v>8200</v>
-      </c>
       <c r="J101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K101" s="3">
         <v>32900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-50900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-124100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-28500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>151500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3255100</v>
+        <v>-1424700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1323500</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3">
-        <v>328200</v>
+        <v>-3389500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-1378100</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H102" s="3">
-        <v>3811500</v>
+        <v>341800</v>
       </c>
       <c r="I102" s="3">
-        <v>-988200</v>
+        <v>3969000</v>
       </c>
       <c r="J102" s="3">
+        <v>-1029000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1695200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1230900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-908200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2039100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-342600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>51600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>976600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-125600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,223 +665,235 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11583500</v>
+        <v>21206000</v>
       </c>
       <c r="E8" s="3">
-        <v>49064500</v>
+        <v>11039000</v>
       </c>
       <c r="F8" s="3">
-        <v>13743200</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3">
-        <v>32621500</v>
+        <v>46758300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>13097200</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I8" s="3">
-        <v>49699100</v>
+        <v>31088100</v>
       </c>
       <c r="J8" s="3">
+        <v>47363000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4127000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20221100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18665500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14526200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14738800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17115600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11262500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20941900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16622300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>251100</v>
+        <v>163400</v>
       </c>
       <c r="E9" s="3">
-        <v>311100</v>
+        <v>239300</v>
       </c>
       <c r="F9" s="3">
-        <v>628400</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3">
-        <v>431200</v>
+        <v>296500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>598900</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I9" s="3">
-        <v>493700</v>
+        <v>410900</v>
       </c>
       <c r="J9" s="3">
+        <v>470500</v>
+      </c>
+      <c r="K9" s="3">
         <v>524300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>588200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>82500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>87500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>211600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-287700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>143600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>314600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11332400</v>
+        <v>21042600</v>
       </c>
       <c r="E10" s="3">
-        <v>48753400</v>
+        <v>10799700</v>
       </c>
       <c r="F10" s="3">
-        <v>13114700</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3">
-        <v>32190300</v>
+        <v>46461800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>12498300</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I10" s="3">
-        <v>49205400</v>
+        <v>30677200</v>
       </c>
       <c r="J10" s="3">
+        <v>46892500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3602700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19632900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18583000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14438700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14527300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17403300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11118900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20627400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16378200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +912,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1000,58 +1016,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>68600</v>
+        <v>-108600</v>
       </c>
       <c r="E14" s="3">
-        <v>100400</v>
+        <v>65400</v>
       </c>
       <c r="F14" s="3">
-        <v>287900</v>
+        <v>95700</v>
       </c>
       <c r="G14" s="3">
-        <v>151900</v>
+        <v>274300</v>
       </c>
       <c r="H14" s="3">
-        <v>-259700</v>
+        <v>144800</v>
       </c>
       <c r="I14" s="3">
-        <v>78400</v>
+        <v>-247500</v>
       </c>
       <c r="J14" s="3">
+        <v>74700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-102900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-116500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-20300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-104100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-32100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-12100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-38700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1100,8 +1122,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1117,108 +1142,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11088600</v>
+        <v>20112100</v>
       </c>
       <c r="E17" s="3">
-        <v>49519000</v>
+        <v>10567400</v>
       </c>
       <c r="F17" s="3">
-        <v>13753000</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
-        <v>31439400</v>
+        <v>47191400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>13106500</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I17" s="3">
-        <v>48913900</v>
+        <v>29961600</v>
       </c>
       <c r="J17" s="3">
+        <v>46614700</v>
+      </c>
+      <c r="K17" s="3">
         <v>4125800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19557700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18102100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13908100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13960200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16579800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10703800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20412600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17081300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>494900</v>
+        <v>1093900</v>
       </c>
       <c r="E18" s="3">
-        <v>-454500</v>
+        <v>471600</v>
       </c>
       <c r="F18" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1182100</v>
+        <v>-433100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I18" s="3">
-        <v>785200</v>
+        <v>1126600</v>
       </c>
       <c r="J18" s="3">
+        <v>748300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>663500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>563400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>618000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>778600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>535800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>558800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>529400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-459000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1237,81 +1269,85 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>66100</v>
+        <v>113200</v>
       </c>
       <c r="E20" s="3">
-        <v>215600</v>
+        <v>63000</v>
       </c>
       <c r="F20" s="3">
-        <v>145800</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
+        <v>205500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>138900</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
+        <v>135400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>126100</v>
+      </c>
+      <c r="K20" s="3">
         <v>142100</v>
       </c>
-      <c r="I20" s="3">
-        <v>132300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>142100</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>118800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>55000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>54300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>47600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>38400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>37000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>56300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>896700</v>
+        <v>1395100</v>
       </c>
       <c r="E21" s="3">
-        <v>317300</v>
+        <v>854500</v>
       </c>
       <c r="F21" s="3">
-        <v>464300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2174400</v>
+        <v>302400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>442400</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>1519000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>2072200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1447600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1337,8 +1373,11 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1387,108 +1426,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>561000</v>
+        <v>1207100</v>
       </c>
       <c r="E23" s="3">
-        <v>-238900</v>
+        <v>534700</v>
       </c>
       <c r="F23" s="3">
-        <v>136000</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1324200</v>
+        <v>-227600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>129600</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I23" s="3">
-        <v>917500</v>
+        <v>1262000</v>
       </c>
       <c r="J23" s="3">
+        <v>874400</v>
+      </c>
+      <c r="K23" s="3">
         <v>143300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>782300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>618400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>672300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>826300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>574300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>595800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>585700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-424900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>88200</v>
+        <v>216000</v>
       </c>
       <c r="E24" s="3">
-        <v>-57600</v>
+        <v>84100</v>
       </c>
       <c r="F24" s="3">
-        <v>-112700</v>
+        <v>-54900</v>
       </c>
       <c r="G24" s="3">
-        <v>316000</v>
+        <v>-107400</v>
       </c>
       <c r="H24" s="3">
-        <v>209500</v>
+        <v>301200</v>
       </c>
       <c r="I24" s="3">
-        <v>162900</v>
+        <v>199600</v>
       </c>
       <c r="J24" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-167800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>204700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-559800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>154000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>240300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>159200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>68400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>165500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1537,108 +1585,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>472800</v>
+        <v>991100</v>
       </c>
       <c r="E26" s="3">
-        <v>-181300</v>
+        <v>450600</v>
       </c>
       <c r="F26" s="3">
-        <v>248700</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1114700</v>
+        <v>-172800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>237000</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I26" s="3">
-        <v>754600</v>
+        <v>1062300</v>
       </c>
       <c r="J26" s="3">
+        <v>719100</v>
+      </c>
+      <c r="K26" s="3">
         <v>311100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>577600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1178300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>518400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>585900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>415000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>527300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>420200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-451900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>459400</v>
+        <v>966600</v>
       </c>
       <c r="E27" s="3">
-        <v>-203300</v>
+        <v>437800</v>
       </c>
       <c r="F27" s="3">
-        <v>211900</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1065700</v>
+        <v>-193800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>202000</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I27" s="3">
-        <v>695800</v>
+        <v>1015600</v>
       </c>
       <c r="J27" s="3">
+        <v>663100</v>
+      </c>
+      <c r="K27" s="3">
         <v>241300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>510600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1140000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>480700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>552700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>376600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>490300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>378000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1687,8 +1744,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1737,8 +1797,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1787,8 +1850,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1837,108 +1903,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-66100</v>
+        <v>-113200</v>
       </c>
       <c r="E32" s="3">
-        <v>-215600</v>
+        <v>-63000</v>
       </c>
       <c r="F32" s="3">
-        <v>-145800</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3">
+        <v>-205500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-135400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-126100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-142100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-132300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-142100</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-118800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-55000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-54300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-47600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-38400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-56300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>459400</v>
+        <v>966600</v>
       </c>
       <c r="E33" s="3">
-        <v>-203300</v>
+        <v>437800</v>
       </c>
       <c r="F33" s="3">
-        <v>211900</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1065700</v>
+        <v>-193800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>202000</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I33" s="3">
-        <v>695800</v>
+        <v>1015600</v>
       </c>
       <c r="J33" s="3">
+        <v>663100</v>
+      </c>
+      <c r="K33" s="3">
         <v>241300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>510600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1140000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>480700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>552700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>376600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>490300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>378000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1987,113 +2062,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>459400</v>
+        <v>966600</v>
       </c>
       <c r="E35" s="3">
-        <v>-203300</v>
+        <v>437800</v>
       </c>
       <c r="F35" s="3">
-        <v>211900</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1065700</v>
+        <v>-193800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>202000</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I35" s="3">
-        <v>695800</v>
+        <v>1015600</v>
       </c>
       <c r="J35" s="3">
+        <v>663100</v>
+      </c>
+      <c r="K35" s="3">
         <v>241300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>510600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1140000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>480700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>552700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>376600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>490300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>378000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2112,8 +2196,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2132,58 +2217,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8877500</v>
+        <v>9089500</v>
       </c>
       <c r="E41" s="3">
-        <v>10255600</v>
+        <v>8460200</v>
       </c>
       <c r="F41" s="3">
-        <v>13643900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3">
-        <v>15022100</v>
+        <v>9773600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>13002600</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I41" s="3">
-        <v>14687600</v>
+        <v>14315900</v>
       </c>
       <c r="J41" s="3">
+        <v>13997200</v>
+      </c>
+      <c r="K41" s="3">
         <v>10711300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11275800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12880700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13110700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14265900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12118600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12731200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13282800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12303900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2232,8 +2321,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2258,15 +2350,15 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>4912800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2282,8 +2374,11 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2332,8 +2427,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2382,8 +2480,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2432,158 +2533,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>189993500</v>
+        <v>183251800</v>
       </c>
       <c r="E47" s="3">
-        <v>193364700</v>
+        <v>181063000</v>
       </c>
       <c r="F47" s="3">
-        <v>194605600</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3">
-        <v>179087400</v>
+        <v>184275700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>185458300</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3">
-        <v>176125400</v>
+        <v>170669500</v>
       </c>
       <c r="J47" s="3">
+        <v>167846700</v>
+      </c>
+      <c r="K47" s="3">
         <v>169533700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>161833800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>168698900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>153240900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>155569100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>171034400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>175813600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>186608800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>187632400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2864000</v>
+        <v>2828600</v>
       </c>
       <c r="E48" s="3">
-        <v>2921600</v>
+        <v>2729400</v>
       </c>
       <c r="F48" s="3">
-        <v>3665200</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3553700</v>
+        <v>2784300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3492900</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I48" s="3">
-        <v>3373600</v>
+        <v>3386700</v>
       </c>
       <c r="J48" s="3">
+        <v>3215000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3307500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2957500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3202200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2294900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2244000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2211400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2242900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2239600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2232600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1784800</v>
+        <v>1635500</v>
       </c>
       <c r="E49" s="3">
-        <v>1697800</v>
+        <v>1700900</v>
       </c>
       <c r="F49" s="3">
-        <v>1842400</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3819500</v>
+        <v>1618000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1755800</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I49" s="3">
-        <v>2006500</v>
+        <v>3640000</v>
       </c>
       <c r="J49" s="3">
+        <v>1912200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4231100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1932800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1953400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1863000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1869600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2021400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2042000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2024800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2118700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2632,8 +2745,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2682,58 +2798,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>176400</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>168100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>237600</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>226500</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>153100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>6439100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5808300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2574100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9734900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9921800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10226200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10604200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2782,58 +2904,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>552079700</v>
+        <v>536323300</v>
       </c>
       <c r="E54" s="3">
-        <v>544958900</v>
+        <v>526129500</v>
       </c>
       <c r="F54" s="3">
-        <v>544628100</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3">
-        <v>539660800</v>
+        <v>519343400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>519028200</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I54" s="3">
-        <v>519977600</v>
+        <v>514294300</v>
       </c>
       <c r="J54" s="3">
+        <v>495536400</v>
+      </c>
+      <c r="K54" s="3">
         <v>481459000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>457491400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>474043300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>439933200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>448162700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>467149600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>477894800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>499290600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>499808300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2852,8 +2980,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2872,8 +3001,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2922,41 +3052,44 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9325800</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>8921600</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>8823600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>2112500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2972,58 +3105,64 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>465871000</v>
+        <v>452536000</v>
       </c>
       <c r="E59" s="3">
-        <v>454149100</v>
+        <v>443973000</v>
       </c>
       <c r="F59" s="3">
-        <v>444939600</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
-        <v>455011500</v>
+        <v>432802100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>424025500</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I59" s="3">
-        <v>435569700</v>
+        <v>433623900</v>
       </c>
       <c r="J59" s="3">
+        <v>415096000</v>
+      </c>
+      <c r="K59" s="3">
         <v>405439800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>383724000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>391384700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>357369400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>367006600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>377844900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>387177400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>395586900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>391081800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3072,108 +3211,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4346300</v>
+        <v>13494100</v>
       </c>
       <c r="E61" s="3">
-        <v>4228700</v>
+        <v>13029500</v>
       </c>
       <c r="F61" s="3">
-        <v>4945300</v>
+        <v>12532100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>13121700</v>
       </c>
       <c r="H61" s="3">
-        <v>14271100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>13509200</v>
+        <v>13600300</v>
       </c>
       <c r="J61" s="3">
+        <v>12874200</v>
+      </c>
+      <c r="K61" s="3">
         <v>16639000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17513100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15359200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17281900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17472400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17503200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15793100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16121100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15254800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>7738300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>7374500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>7051000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6719600</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>5643500</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>12105500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5512500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2596200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9855600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17896900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10355400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10723900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3222,8 +3370,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3272,8 +3423,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3322,58 +3476,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>521933900</v>
+        <v>505757000</v>
       </c>
       <c r="E66" s="3">
-        <v>513863700</v>
+        <v>497400700</v>
       </c>
       <c r="F66" s="3">
-        <v>512200200</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3">
-        <v>509011500</v>
+        <v>489709800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>488124500</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I66" s="3">
-        <v>489518300</v>
+        <v>485085700</v>
       </c>
       <c r="J66" s="3">
+        <v>466508700</v>
+      </c>
+      <c r="K66" s="3">
         <v>453482700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>429517800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>444896700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>413468200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>421372000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>439360300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>450169300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>470018200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>469565100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3392,8 +3552,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3442,8 +3603,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3492,8 +3656,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3542,8 +3709,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3592,58 +3762,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13776200</v>
+        <v>14022900</v>
       </c>
       <c r="E72" s="3">
-        <v>12727600</v>
+        <v>13128700</v>
       </c>
       <c r="F72" s="3">
-        <v>14081300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3">
-        <v>14010200</v>
+        <v>12129400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>13419400</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I72" s="3">
-        <v>13104900</v>
+        <v>13351700</v>
       </c>
       <c r="J72" s="3">
+        <v>12489000</v>
+      </c>
+      <c r="K72" s="3">
         <v>12633300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11787500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12015800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9744700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9903100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10237800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8979300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9437400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9470300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3692,8 +3868,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3742,8 +3921,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3792,58 +3974,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30145800</v>
+        <v>30566300</v>
       </c>
       <c r="E76" s="3">
-        <v>31095100</v>
+        <v>28728800</v>
       </c>
       <c r="F76" s="3">
-        <v>32427900</v>
+        <v>29633500</v>
       </c>
       <c r="G76" s="3">
-        <v>29114300</v>
+        <v>30903700</v>
       </c>
       <c r="H76" s="3">
-        <v>30649200</v>
+        <v>27745800</v>
       </c>
       <c r="I76" s="3">
-        <v>30459400</v>
+        <v>29208600</v>
       </c>
       <c r="J76" s="3">
+        <v>29027600</v>
+      </c>
+      <c r="K76" s="3">
         <v>27976300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27973600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29146600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26465000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26790600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27789300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27725500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29272500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30243200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3892,113 +4080,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>459400</v>
+        <v>966600</v>
       </c>
       <c r="E81" s="3">
-        <v>-203300</v>
+        <v>437800</v>
       </c>
       <c r="F81" s="3">
-        <v>211900</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1065700</v>
+        <v>-193800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>202000</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I81" s="3">
-        <v>695800</v>
+        <v>1015600</v>
       </c>
       <c r="J81" s="3">
+        <v>663100</v>
+      </c>
+      <c r="K81" s="3">
         <v>241300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>510600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1140000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>480700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>552700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>376600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>490300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>378000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4017,31 +4214,32 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>335600</v>
+        <v>188000</v>
       </c>
       <c r="E83" s="3">
-        <v>556100</v>
+        <v>319900</v>
       </c>
       <c r="F83" s="3">
-        <v>328300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3">
-        <v>850100</v>
+        <v>530000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>312900</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I83" s="3">
-        <v>601500</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>810200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>573200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -4058,8 +4256,8 @@
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4067,8 +4265,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4117,8 +4318,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4167,8 +4371,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4217,8 +4424,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4267,8 +4477,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4317,58 +4530,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1804400</v>
+        <v>151800</v>
       </c>
       <c r="E89" s="3">
-        <v>-2524700</v>
+        <v>-1719600</v>
       </c>
       <c r="F89" s="3">
-        <v>-971400</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1641500</v>
+        <v>-2406000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-925800</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I89" s="3">
-        <v>7303400</v>
+        <v>1564300</v>
       </c>
       <c r="J89" s="3">
+        <v>6960100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1825200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1144600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>496400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-653500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3129000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2302500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>102100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>685500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-181900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4387,58 +4606,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12200</v>
+        <v>-18700</v>
       </c>
       <c r="E91" s="3">
-        <v>-64900</v>
+        <v>-11700</v>
       </c>
       <c r="F91" s="3">
-        <v>-33100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-69800</v>
+        <v>-61900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
-        <v>-55100</v>
+        <v>-66500</v>
       </c>
       <c r="J91" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-82100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4487,8 +4710,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4537,58 +4763,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>46500</v>
+        <v>-37400</v>
       </c>
       <c r="E94" s="3">
-        <v>-294000</v>
+        <v>44400</v>
       </c>
       <c r="F94" s="3">
-        <v>123700</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-211900</v>
+        <v>-280200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>117900</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3">
-        <v>106600</v>
+        <v>-202000</v>
       </c>
       <c r="J94" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-427500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-104700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-140000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1069900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-109800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-359000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>9400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-906200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4607,8 +4839,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4616,49 +4849,52 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-77200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-73500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-170300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-208200</v>
+        <v>-162300</v>
       </c>
       <c r="J96" s="3">
+        <v>-198500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-197200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-196500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-167200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-180800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4707,8 +4943,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4757,8 +4996,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4807,154 +5049,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>263400</v>
+        <v>570900</v>
       </c>
       <c r="E100" s="3">
-        <v>-461800</v>
+        <v>251000</v>
       </c>
       <c r="F100" s="3">
-        <v>-491200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1129400</v>
+        <v>-440100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-468100</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I100" s="3">
-        <v>-3439800</v>
+        <v>-1076400</v>
       </c>
       <c r="J100" s="3">
+        <v>-3278100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2435300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-478800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1573000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-189400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>104100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2098300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-157100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>625600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>961400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>69800</v>
+        <v>-11700</v>
       </c>
       <c r="E101" s="3">
-        <v>-109000</v>
+        <v>66500</v>
       </c>
       <c r="F101" s="3">
-        <v>-39200</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3">
-        <v>41600</v>
+        <v>-103900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I101" s="3">
+        <v>39700</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>32900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-50900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-124100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-28500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>151500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-31700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1424700</v>
+        <v>673600</v>
       </c>
       <c r="E102" s="3">
-        <v>-3389500</v>
+        <v>-1357700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1378100</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3">
-        <v>341800</v>
+        <v>-3230200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-1313300</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I102" s="3">
-        <v>3969000</v>
+        <v>325700</v>
       </c>
       <c r="J102" s="3">
+        <v>3782400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1029000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1695200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1230900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-908200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2039100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-342600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>51600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>976600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-125600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>AEG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,247 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21206000</v>
+        <v>8594700</v>
       </c>
       <c r="E8" s="3">
-        <v>11039000</v>
+        <v>20514600</v>
       </c>
       <c r="F8" s="3">
-        <v>46758300</v>
+        <v>10676800</v>
       </c>
       <c r="G8" s="3">
-        <v>13097200</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="3">
-        <v>31088100</v>
+        <v>45223800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12667400</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J8" s="3">
+        <v>30067900</v>
+      </c>
+      <c r="K8" s="3">
         <v>47363000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4127000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20221100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18665500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14526200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14738800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17115600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11262500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20941900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16622300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>163400</v>
+        <v>658300</v>
       </c>
       <c r="E9" s="3">
-        <v>239300</v>
+        <v>158100</v>
       </c>
       <c r="F9" s="3">
-        <v>296500</v>
+        <v>231500</v>
       </c>
       <c r="G9" s="3">
-        <v>598900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="3">
-        <v>410900</v>
+        <v>286800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>579200</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J9" s="3">
+        <v>397400</v>
+      </c>
+      <c r="K9" s="3">
         <v>470500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>524300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>588200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>82500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>87500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>211600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-287700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>143600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>314600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21042600</v>
+        <v>7936400</v>
       </c>
       <c r="E10" s="3">
-        <v>10799700</v>
+        <v>20356500</v>
       </c>
       <c r="F10" s="3">
-        <v>46461800</v>
+        <v>10445300</v>
       </c>
       <c r="G10" s="3">
-        <v>12498300</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
-        <v>30677200</v>
+        <v>44937100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>12088100</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J10" s="3">
+        <v>29670500</v>
+      </c>
+      <c r="K10" s="3">
         <v>46892500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3602700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19632900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18583000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14438700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14527300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17403300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11118900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>20627400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>16378200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +925,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -966,8 +979,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1019,61 +1035,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-108600</v>
+        <v>-65500</v>
       </c>
       <c r="E14" s="3">
-        <v>65400</v>
+        <v>-105000</v>
       </c>
       <c r="F14" s="3">
-        <v>95700</v>
+        <v>63200</v>
       </c>
       <c r="G14" s="3">
-        <v>274300</v>
+        <v>92600</v>
       </c>
       <c r="H14" s="3">
-        <v>144800</v>
+        <v>265300</v>
       </c>
       <c r="I14" s="3">
-        <v>-247500</v>
+        <v>140000</v>
       </c>
       <c r="J14" s="3">
+        <v>-239400</v>
+      </c>
+      <c r="K14" s="3">
         <v>74700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-102900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-116500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-20300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-104100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-32100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>25800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-38700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1125,8 +1147,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1143,114 +1168,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20112100</v>
+        <v>8848800</v>
       </c>
       <c r="E17" s="3">
-        <v>10567400</v>
+        <v>19452100</v>
       </c>
       <c r="F17" s="3">
-        <v>47191400</v>
+        <v>10220600</v>
       </c>
       <c r="G17" s="3">
-        <v>13106500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
-        <v>29961600</v>
+        <v>45642700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12676400</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J17" s="3">
+        <v>28978400</v>
+      </c>
+      <c r="K17" s="3">
         <v>46614700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4125800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19557700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18102100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13908100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13960200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16579800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10703800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20412600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17081300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1093900</v>
+        <v>-254000</v>
       </c>
       <c r="E18" s="3">
-        <v>471600</v>
+        <v>1062500</v>
       </c>
       <c r="F18" s="3">
-        <v>-433100</v>
+        <v>456200</v>
       </c>
       <c r="G18" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1126600</v>
+        <v>-418900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J18" s="3">
+        <v>1089600</v>
+      </c>
+      <c r="K18" s="3">
         <v>748300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>663500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>563400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>618000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>778600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>535800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>558800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>529400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-459000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1270,88 +1302,92 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>113200</v>
+        <v>114000</v>
       </c>
       <c r="E20" s="3">
-        <v>63000</v>
+        <v>105000</v>
       </c>
       <c r="F20" s="3">
-        <v>205500</v>
+        <v>61000</v>
       </c>
       <c r="G20" s="3">
-        <v>138900</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>135400</v>
+        <v>198700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>134400</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J20" s="3">
+        <v>131000</v>
+      </c>
+      <c r="K20" s="3">
         <v>126100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>142100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>118800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>55000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>54300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>47600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>38400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>37000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>56300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1395100</v>
+        <v>532900</v>
       </c>
       <c r="E21" s="3">
-        <v>854500</v>
+        <v>1349300</v>
       </c>
       <c r="F21" s="3">
-        <v>302400</v>
+        <v>826500</v>
       </c>
       <c r="G21" s="3">
-        <v>442400</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2072200</v>
+        <v>292400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>427900</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J21" s="3">
+        <v>2558500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1447600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1376,8 +1412,11 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1429,114 +1468,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1207100</v>
+        <v>-140000</v>
       </c>
       <c r="E23" s="3">
-        <v>534700</v>
+        <v>1167500</v>
       </c>
       <c r="F23" s="3">
-        <v>-227600</v>
+        <v>517100</v>
       </c>
       <c r="G23" s="3">
-        <v>129600</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1262000</v>
+        <v>-220200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>125300</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J23" s="3">
+        <v>1220600</v>
+      </c>
+      <c r="K23" s="3">
         <v>874400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>143300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>782300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>618400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>672300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>826300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>574300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>595800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>585700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-424900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>216000</v>
+        <v>-73400</v>
       </c>
       <c r="E24" s="3">
-        <v>84100</v>
+        <v>208900</v>
       </c>
       <c r="F24" s="3">
-        <v>-54900</v>
+        <v>81300</v>
       </c>
       <c r="G24" s="3">
-        <v>-107400</v>
+        <v>-53100</v>
       </c>
       <c r="H24" s="3">
-        <v>301200</v>
+        <v>-103900</v>
       </c>
       <c r="I24" s="3">
-        <v>199600</v>
+        <v>291300</v>
       </c>
       <c r="J24" s="3">
+        <v>193100</v>
+      </c>
+      <c r="K24" s="3">
         <v>155300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-167800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>204700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-559800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>154000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>240300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>159200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>68400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>165500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1588,114 +1636,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>991100</v>
+        <v>-66600</v>
       </c>
       <c r="E26" s="3">
-        <v>450600</v>
+        <v>958600</v>
       </c>
       <c r="F26" s="3">
-        <v>-172800</v>
+        <v>435800</v>
       </c>
       <c r="G26" s="3">
-        <v>237000</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1062300</v>
+        <v>-167100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>229200</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J26" s="3">
+        <v>1027500</v>
+      </c>
+      <c r="K26" s="3">
         <v>719100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>311100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>577600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1178300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>518400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>585900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>415000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>527300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>420200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-451900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>966600</v>
+        <v>-91500</v>
       </c>
       <c r="E27" s="3">
-        <v>437800</v>
+        <v>934900</v>
       </c>
       <c r="F27" s="3">
-        <v>-193800</v>
+        <v>423400</v>
       </c>
       <c r="G27" s="3">
-        <v>202000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1015600</v>
+        <v>-187400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>195300</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J27" s="3">
+        <v>982300</v>
+      </c>
+      <c r="K27" s="3">
         <v>663100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>241300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>510600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1140000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>480700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>552700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>376600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>490300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>378000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1747,8 +1804,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1800,8 +1860,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1853,8 +1916,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1906,114 +1972,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-113200</v>
+        <v>-114000</v>
       </c>
       <c r="E32" s="3">
-        <v>-63000</v>
+        <v>-105000</v>
       </c>
       <c r="F32" s="3">
-        <v>-205500</v>
+        <v>-61000</v>
       </c>
       <c r="G32" s="3">
-        <v>-138900</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-135400</v>
+        <v>-198700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-134400</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J32" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-126100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-142100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-118800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-55000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-54300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-47600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-38400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-37000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-56300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>966600</v>
+        <v>-91500</v>
       </c>
       <c r="E33" s="3">
-        <v>437800</v>
+        <v>934900</v>
       </c>
       <c r="F33" s="3">
-        <v>-193800</v>
+        <v>423400</v>
       </c>
       <c r="G33" s="3">
-        <v>202000</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1015600</v>
+        <v>-187400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>195300</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J33" s="3">
+        <v>982300</v>
+      </c>
+      <c r="K33" s="3">
         <v>663100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>241300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>510600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1140000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>480700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>552700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>376600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>490300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>378000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2065,119 +2140,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>966600</v>
+        <v>-91500</v>
       </c>
       <c r="E35" s="3">
-        <v>437800</v>
+        <v>934900</v>
       </c>
       <c r="F35" s="3">
-        <v>-193800</v>
+        <v>423400</v>
       </c>
       <c r="G35" s="3">
-        <v>202000</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1015600</v>
+        <v>-187400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>195300</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J35" s="3">
+        <v>982300</v>
+      </c>
+      <c r="K35" s="3">
         <v>663100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>241300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>510600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1140000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>480700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>552700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>376600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>490300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>378000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2197,8 +2281,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2218,61 +2303,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9089500</v>
+        <v>7176600</v>
       </c>
       <c r="E41" s="3">
-        <v>8460200</v>
+        <v>8791200</v>
       </c>
       <c r="F41" s="3">
-        <v>9773600</v>
+        <v>8182600</v>
       </c>
       <c r="G41" s="3">
-        <v>13002600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
-        <v>14315900</v>
+        <v>9452800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>12575900</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J41" s="3">
+        <v>13846200</v>
+      </c>
+      <c r="K41" s="3">
         <v>13997200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10711300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11275800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12880700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13110700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14265900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12118600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12731200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13282800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12303900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2324,8 +2413,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2353,15 +2445,15 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>4912800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2377,8 +2469,11 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2430,8 +2525,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2483,8 +2581,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2536,167 +2637,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>183251800</v>
+        <v>179459200</v>
       </c>
       <c r="E47" s="3">
-        <v>181063000</v>
+        <v>177238200</v>
       </c>
       <c r="F47" s="3">
-        <v>184275700</v>
+        <v>175121200</v>
       </c>
       <c r="G47" s="3">
-        <v>185458300</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
-        <v>170669500</v>
+        <v>178228400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>179372200</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3">
+        <v>165068800</v>
+      </c>
+      <c r="K47" s="3">
         <v>167846700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>169533700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>161833800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>168698900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>153240900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>155569100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>171034400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>175813600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>186608800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>187632400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2828600</v>
+        <v>2822800</v>
       </c>
       <c r="E48" s="3">
-        <v>2729400</v>
+        <v>2735800</v>
       </c>
       <c r="F48" s="3">
-        <v>2784300</v>
+        <v>2639800</v>
       </c>
       <c r="G48" s="3">
-        <v>3492900</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3386700</v>
+        <v>2692900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3378300</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J48" s="3">
+        <v>3275500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3215000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3307500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2957500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3202200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2294900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2244000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2211400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2242900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2239600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2232600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1635500</v>
+        <v>1483600</v>
       </c>
       <c r="E49" s="3">
-        <v>1700900</v>
+        <v>1581900</v>
       </c>
       <c r="F49" s="3">
-        <v>1618000</v>
+        <v>1645100</v>
       </c>
       <c r="G49" s="3">
-        <v>1755800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3640000</v>
+        <v>1564900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1698200</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3">
+        <v>3520500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1912200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4231100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1932800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1953400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1863000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1869600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2021400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2042000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2024800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2118700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2748,8 +2861,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2801,8 +2917,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2812,50 +2931,53 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>168100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>162600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>226500</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>219000</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>153100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>6439100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5808300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2574100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9734900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9921800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10226200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10604200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2907,61 +3029,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>536323300</v>
+        <v>519029200</v>
       </c>
       <c r="E54" s="3">
-        <v>526129500</v>
+        <v>518723200</v>
       </c>
       <c r="F54" s="3">
-        <v>519343400</v>
+        <v>508863900</v>
       </c>
       <c r="G54" s="3">
-        <v>519028200</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3">
-        <v>514294300</v>
+        <v>502300500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>501995600</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J54" s="3">
+        <v>497417100</v>
+      </c>
+      <c r="K54" s="3">
         <v>495536400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>481459000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>457491400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>474043300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>439933200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>448162700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>467149600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>477894800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>499290600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>499808300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2981,8 +3109,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3002,8 +3131,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3055,8 +3185,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3081,18 +3214,18 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>2112500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3108,61 +3241,67 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>452536000</v>
+        <v>438174400</v>
       </c>
       <c r="E59" s="3">
-        <v>443973000</v>
+        <v>437685500</v>
       </c>
       <c r="F59" s="3">
-        <v>432802100</v>
+        <v>429403500</v>
       </c>
       <c r="G59" s="3">
-        <v>424025500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
-        <v>433623900</v>
+        <v>418599100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>410110600</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J59" s="3">
+        <v>419394000</v>
+      </c>
+      <c r="K59" s="3">
         <v>415096000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>405439800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>383724000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>391384700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>357369400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>367006600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>377844900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>387177400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>395586900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>391081800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3214,61 +3353,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13494100</v>
+        <v>13272600</v>
       </c>
       <c r="E61" s="3">
-        <v>13029500</v>
+        <v>13051300</v>
       </c>
       <c r="F61" s="3">
-        <v>12532100</v>
+        <v>12601900</v>
       </c>
       <c r="G61" s="3">
-        <v>13121700</v>
+        <v>12120900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>12691100</v>
       </c>
       <c r="I61" s="3">
-        <v>13600300</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>13154000</v>
+      </c>
+      <c r="K61" s="3">
         <v>12874200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16639000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17513100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15359200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17281900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17472400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17503200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15793100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16121100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15254800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3278,50 +3423,53 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>7374500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>7132500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>6719600</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6499100</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>5643500</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>12105500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5512500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2596200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9855600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17896900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10355400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10723900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3373,8 +3521,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3426,8 +3577,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3479,61 +3633,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>505757000</v>
+        <v>489723400</v>
       </c>
       <c r="E66" s="3">
-        <v>497400700</v>
+        <v>489160000</v>
       </c>
       <c r="F66" s="3">
-        <v>489709800</v>
+        <v>481077900</v>
       </c>
       <c r="G66" s="3">
-        <v>488124500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3">
-        <v>485085700</v>
+        <v>473639400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>472106100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J66" s="3">
+        <v>469167000</v>
+      </c>
+      <c r="K66" s="3">
         <v>466508700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>453482700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>429517800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>444896700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>413468200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>421372000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>439360300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>450169300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>470018200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>469565100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3553,8 +3713,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3606,8 +3767,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3659,8 +3823,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3712,8 +3879,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3765,61 +3935,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14022900</v>
+        <v>13596600</v>
       </c>
       <c r="E72" s="3">
-        <v>13128700</v>
+        <v>13562700</v>
       </c>
       <c r="F72" s="3">
-        <v>12129400</v>
+        <v>12697900</v>
       </c>
       <c r="G72" s="3">
-        <v>13419400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3">
-        <v>13351700</v>
+        <v>11731300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>12979000</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J72" s="3">
+        <v>12913500</v>
+      </c>
+      <c r="K72" s="3">
         <v>12489000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12633300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11787500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12015800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9744700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9903100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10237800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8979300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9437400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9470300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3871,8 +4047,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3924,8 +4103,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3977,61 +4159,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30566300</v>
+        <v>29305800</v>
       </c>
       <c r="E76" s="3">
-        <v>28728800</v>
+        <v>29563200</v>
       </c>
       <c r="F76" s="3">
-        <v>29633500</v>
+        <v>27786000</v>
       </c>
       <c r="G76" s="3">
-        <v>30903700</v>
+        <v>28661100</v>
       </c>
       <c r="H76" s="3">
-        <v>27745800</v>
+        <v>29889500</v>
       </c>
       <c r="I76" s="3">
-        <v>29208600</v>
+        <v>26835300</v>
       </c>
       <c r="J76" s="3">
+        <v>28250100</v>
+      </c>
+      <c r="K76" s="3">
         <v>29027600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27976300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27973600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29146600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26465000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26790600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27789300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27725500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29272500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30243200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4083,119 +4271,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>966600</v>
+        <v>-91500</v>
       </c>
       <c r="E81" s="3">
-        <v>437800</v>
+        <v>934900</v>
       </c>
       <c r="F81" s="3">
-        <v>-193800</v>
+        <v>423400</v>
       </c>
       <c r="G81" s="3">
-        <v>202000</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1015600</v>
+        <v>-187400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>195300</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J81" s="3">
+        <v>982300</v>
+      </c>
+      <c r="K81" s="3">
         <v>663100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>241300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>510600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1140000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>480700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>552700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>376600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>490300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>378000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4215,35 +4412,36 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>188000</v>
+        <v>672900</v>
       </c>
       <c r="E83" s="3">
-        <v>319900</v>
+        <v>181800</v>
       </c>
       <c r="F83" s="3">
-        <v>530000</v>
+        <v>309400</v>
       </c>
       <c r="G83" s="3">
-        <v>312900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3">
-        <v>810200</v>
+        <v>512600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>302600</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J83" s="3">
+        <v>1338000</v>
+      </c>
+      <c r="K83" s="3">
         <v>573200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4259,8 +4457,8 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4268,8 +4466,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4321,8 +4522,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4374,8 +4578,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4427,8 +4634,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4480,8 +4690,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4533,61 +4746,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>151800</v>
+        <v>-1152800</v>
       </c>
       <c r="E89" s="3">
-        <v>-1719600</v>
+        <v>146800</v>
       </c>
       <c r="F89" s="3">
-        <v>-2406000</v>
+        <v>-1663200</v>
       </c>
       <c r="G89" s="3">
-        <v>-925800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1564300</v>
+        <v>-2327100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-895400</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J89" s="3">
+        <v>8244700</v>
+      </c>
+      <c r="K89" s="3">
         <v>6960100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1825200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1144600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>496400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-653500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3129000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2302500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>102100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>685500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-181900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4607,61 +4826,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18700</v>
+        <v>-21500</v>
       </c>
       <c r="E91" s="3">
-        <v>-11700</v>
+        <v>-18100</v>
       </c>
       <c r="F91" s="3">
-        <v>-61900</v>
+        <v>-11300</v>
       </c>
       <c r="G91" s="3">
-        <v>-31500</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-66500</v>
+        <v>-59800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-52500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-82100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4713,8 +4936,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4766,61 +4992,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37400</v>
+        <v>-6800</v>
       </c>
       <c r="E94" s="3">
-        <v>44400</v>
+        <v>-36100</v>
       </c>
       <c r="F94" s="3">
-        <v>-280200</v>
+        <v>42900</v>
       </c>
       <c r="G94" s="3">
-        <v>117900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-202000</v>
+        <v>-271000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>114000</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="K94" s="3">
         <v>101600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-427500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-104700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-140000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1069900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-109800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-359000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>9400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-906200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4840,8 +5072,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4852,49 +5085,52 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-73500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-71100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-162300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-348900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-198500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-197200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-196500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-167200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-180800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4946,8 +5182,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4999,8 +5238,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5052,163 +5294,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>570900</v>
+        <v>-450500</v>
       </c>
       <c r="E100" s="3">
-        <v>251000</v>
+        <v>552100</v>
       </c>
       <c r="F100" s="3">
-        <v>-440100</v>
+        <v>242800</v>
       </c>
       <c r="G100" s="3">
-        <v>-468100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1076400</v>
+        <v>-425700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-452800</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J100" s="3">
+        <v>-4211500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3278100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2435300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-478800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1573000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-189400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>104100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2098300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-157100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>625600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>961400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11700</v>
+        <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>66500</v>
+        <v>-11300</v>
       </c>
       <c r="F101" s="3">
-        <v>-103900</v>
+        <v>64400</v>
       </c>
       <c r="G101" s="3">
-        <v>-37400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3">
-        <v>39700</v>
+        <v>-100500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J101" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>32900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-50900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-124100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>151500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-31700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>673600</v>
+        <v>-1613500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1357700</v>
+        <v>651500</v>
       </c>
       <c r="F102" s="3">
-        <v>-3230200</v>
+        <v>-1313100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1313300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3">
-        <v>325700</v>
+        <v>-3124200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-1270200</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J102" s="3">
+        <v>3973300</v>
+      </c>
+      <c r="K102" s="3">
         <v>3782400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1029000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1695200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1230900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-908200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2039100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-342600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>51600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>976600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-125600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -742,25 +742,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8594700</v>
+        <v>8304000</v>
       </c>
       <c r="E8" s="3">
-        <v>20514600</v>
+        <v>19820700</v>
       </c>
       <c r="F8" s="3">
-        <v>10676800</v>
+        <v>10315600</v>
       </c>
       <c r="G8" s="3">
-        <v>45223800</v>
+        <v>43694200</v>
       </c>
       <c r="H8" s="3">
-        <v>12667400</v>
+        <v>12238900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J8" s="3">
-        <v>30067900</v>
+        <v>29050900</v>
       </c>
       <c r="K8" s="3">
         <v>47363000</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>658300</v>
+        <v>636000</v>
       </c>
       <c r="E9" s="3">
-        <v>158100</v>
+        <v>152700</v>
       </c>
       <c r="F9" s="3">
-        <v>231500</v>
+        <v>223600</v>
       </c>
       <c r="G9" s="3">
-        <v>286800</v>
+        <v>277100</v>
       </c>
       <c r="H9" s="3">
-        <v>579200</v>
+        <v>559600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="3">
-        <v>397400</v>
+        <v>384000</v>
       </c>
       <c r="K9" s="3">
         <v>470500</v>
@@ -854,25 +854,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7936400</v>
+        <v>7668000</v>
       </c>
       <c r="E10" s="3">
-        <v>20356500</v>
+        <v>19668000</v>
       </c>
       <c r="F10" s="3">
-        <v>10445300</v>
+        <v>10092000</v>
       </c>
       <c r="G10" s="3">
-        <v>44937100</v>
+        <v>43417100</v>
       </c>
       <c r="H10" s="3">
-        <v>12088100</v>
+        <v>11679300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="3">
-        <v>29670500</v>
+        <v>28666900</v>
       </c>
       <c r="K10" s="3">
         <v>46892500</v>
@@ -1044,25 +1044,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-65500</v>
+        <v>-63300</v>
       </c>
       <c r="E14" s="3">
-        <v>-105000</v>
+        <v>-101500</v>
       </c>
       <c r="F14" s="3">
-        <v>63200</v>
+        <v>61100</v>
       </c>
       <c r="G14" s="3">
-        <v>92600</v>
+        <v>89500</v>
       </c>
       <c r="H14" s="3">
-        <v>265300</v>
+        <v>256400</v>
       </c>
       <c r="I14" s="3">
-        <v>140000</v>
+        <v>135300</v>
       </c>
       <c r="J14" s="3">
-        <v>-239400</v>
+        <v>-231300</v>
       </c>
       <c r="K14" s="3">
         <v>74700</v>
@@ -1175,25 +1175,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8848800</v>
+        <v>8549500</v>
       </c>
       <c r="E17" s="3">
-        <v>19452100</v>
+        <v>18794200</v>
       </c>
       <c r="F17" s="3">
-        <v>10220600</v>
+        <v>9874900</v>
       </c>
       <c r="G17" s="3">
-        <v>45642700</v>
+        <v>44098900</v>
       </c>
       <c r="H17" s="3">
-        <v>12676400</v>
+        <v>12247600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="3">
-        <v>28978400</v>
+        <v>27998200</v>
       </c>
       <c r="K17" s="3">
         <v>46614700</v>
@@ -1231,25 +1231,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-254000</v>
+        <v>-245500</v>
       </c>
       <c r="E18" s="3">
-        <v>1062500</v>
+        <v>1026500</v>
       </c>
       <c r="F18" s="3">
-        <v>456200</v>
+        <v>440700</v>
       </c>
       <c r="G18" s="3">
-        <v>-418900</v>
+        <v>-404700</v>
       </c>
       <c r="H18" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J18" s="3">
-        <v>1089600</v>
+        <v>1052700</v>
       </c>
       <c r="K18" s="3">
         <v>748300</v>
@@ -1309,25 +1309,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>114000</v>
+        <v>110200</v>
       </c>
       <c r="E20" s="3">
-        <v>105000</v>
+        <v>101500</v>
       </c>
       <c r="F20" s="3">
-        <v>61000</v>
+        <v>58900</v>
       </c>
       <c r="G20" s="3">
-        <v>198700</v>
+        <v>192000</v>
       </c>
       <c r="H20" s="3">
-        <v>134400</v>
+        <v>129800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J20" s="3">
-        <v>131000</v>
+        <v>126500</v>
       </c>
       <c r="K20" s="3">
         <v>126100</v>
@@ -1365,25 +1365,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>532900</v>
+        <v>514900</v>
       </c>
       <c r="E21" s="3">
-        <v>1349300</v>
+        <v>1303600</v>
       </c>
       <c r="F21" s="3">
-        <v>826500</v>
+        <v>798500</v>
       </c>
       <c r="G21" s="3">
-        <v>292400</v>
+        <v>282500</v>
       </c>
       <c r="H21" s="3">
-        <v>427900</v>
+        <v>413500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="3">
-        <v>2558500</v>
+        <v>2472000</v>
       </c>
       <c r="K21" s="3">
         <v>1447600</v>
@@ -1477,25 +1477,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-140000</v>
+        <v>-135300</v>
       </c>
       <c r="E23" s="3">
-        <v>1167500</v>
+        <v>1128000</v>
       </c>
       <c r="F23" s="3">
-        <v>517100</v>
+        <v>499600</v>
       </c>
       <c r="G23" s="3">
-        <v>-220200</v>
+        <v>-212700</v>
       </c>
       <c r="H23" s="3">
-        <v>125300</v>
+        <v>121100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="3">
-        <v>1220600</v>
+        <v>1179300</v>
       </c>
       <c r="K23" s="3">
         <v>874400</v>
@@ -1533,25 +1533,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-73400</v>
+        <v>-70900</v>
       </c>
       <c r="E24" s="3">
-        <v>208900</v>
+        <v>201800</v>
       </c>
       <c r="F24" s="3">
-        <v>81300</v>
+        <v>78500</v>
       </c>
       <c r="G24" s="3">
-        <v>-53100</v>
+        <v>-51300</v>
       </c>
       <c r="H24" s="3">
-        <v>-103900</v>
+        <v>-100400</v>
       </c>
       <c r="I24" s="3">
-        <v>291300</v>
+        <v>281500</v>
       </c>
       <c r="J24" s="3">
-        <v>193100</v>
+        <v>186500</v>
       </c>
       <c r="K24" s="3">
         <v>155300</v>
@@ -1645,25 +1645,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-66600</v>
+        <v>-64400</v>
       </c>
       <c r="E26" s="3">
-        <v>958600</v>
+        <v>926200</v>
       </c>
       <c r="F26" s="3">
-        <v>435800</v>
+        <v>421100</v>
       </c>
       <c r="G26" s="3">
-        <v>-167100</v>
+        <v>-161500</v>
       </c>
       <c r="H26" s="3">
-        <v>229200</v>
+        <v>221500</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="3">
-        <v>1027500</v>
+        <v>992700</v>
       </c>
       <c r="K26" s="3">
         <v>719100</v>
@@ -1701,25 +1701,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-91500</v>
+        <v>-88400</v>
       </c>
       <c r="E27" s="3">
-        <v>934900</v>
+        <v>903300</v>
       </c>
       <c r="F27" s="3">
-        <v>423400</v>
+        <v>409100</v>
       </c>
       <c r="G27" s="3">
-        <v>-187400</v>
+        <v>-181100</v>
       </c>
       <c r="H27" s="3">
-        <v>195300</v>
+        <v>188700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J27" s="3">
-        <v>982300</v>
+        <v>949100</v>
       </c>
       <c r="K27" s="3">
         <v>663100</v>
@@ -1981,25 +1981,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-114000</v>
+        <v>-110200</v>
       </c>
       <c r="E32" s="3">
-        <v>-105000</v>
+        <v>-101500</v>
       </c>
       <c r="F32" s="3">
-        <v>-61000</v>
+        <v>-58900</v>
       </c>
       <c r="G32" s="3">
-        <v>-198700</v>
+        <v>-192000</v>
       </c>
       <c r="H32" s="3">
-        <v>-134400</v>
+        <v>-129800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J32" s="3">
-        <v>-131000</v>
+        <v>-126500</v>
       </c>
       <c r="K32" s="3">
         <v>-126100</v>
@@ -2037,25 +2037,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-91500</v>
+        <v>-88400</v>
       </c>
       <c r="E33" s="3">
-        <v>934900</v>
+        <v>903300</v>
       </c>
       <c r="F33" s="3">
-        <v>423400</v>
+        <v>409100</v>
       </c>
       <c r="G33" s="3">
-        <v>-187400</v>
+        <v>-181100</v>
       </c>
       <c r="H33" s="3">
-        <v>195300</v>
+        <v>188700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J33" s="3">
-        <v>982300</v>
+        <v>949100</v>
       </c>
       <c r="K33" s="3">
         <v>663100</v>
@@ -2149,25 +2149,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-91500</v>
+        <v>-88400</v>
       </c>
       <c r="E35" s="3">
-        <v>934900</v>
+        <v>903300</v>
       </c>
       <c r="F35" s="3">
-        <v>423400</v>
+        <v>409100</v>
       </c>
       <c r="G35" s="3">
-        <v>-187400</v>
+        <v>-181100</v>
       </c>
       <c r="H35" s="3">
-        <v>195300</v>
+        <v>188700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J35" s="3">
-        <v>982300</v>
+        <v>949100</v>
       </c>
       <c r="K35" s="3">
         <v>663100</v>
@@ -2310,25 +2310,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7176600</v>
+        <v>6933800</v>
       </c>
       <c r="E41" s="3">
-        <v>8791200</v>
+        <v>8493800</v>
       </c>
       <c r="F41" s="3">
-        <v>8182600</v>
+        <v>7905800</v>
       </c>
       <c r="G41" s="3">
-        <v>9452800</v>
+        <v>9133100</v>
       </c>
       <c r="H41" s="3">
-        <v>12575900</v>
+        <v>12150600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J41" s="3">
-        <v>13846200</v>
+        <v>13377800</v>
       </c>
       <c r="K41" s="3">
         <v>13997200</v>
@@ -2646,25 +2646,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>179459200</v>
+        <v>173389200</v>
       </c>
       <c r="E47" s="3">
-        <v>177238200</v>
+        <v>171243400</v>
       </c>
       <c r="F47" s="3">
-        <v>175121200</v>
+        <v>169198000</v>
       </c>
       <c r="G47" s="3">
-        <v>178228400</v>
+        <v>172200100</v>
       </c>
       <c r="H47" s="3">
-        <v>179372200</v>
+        <v>173305200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J47" s="3">
-        <v>165068800</v>
+        <v>159485600</v>
       </c>
       <c r="K47" s="3">
         <v>167846700</v>
@@ -2702,25 +2702,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2822800</v>
+        <v>2727300</v>
       </c>
       <c r="E48" s="3">
-        <v>2735800</v>
+        <v>2643300</v>
       </c>
       <c r="F48" s="3">
-        <v>2639800</v>
+        <v>2550500</v>
       </c>
       <c r="G48" s="3">
-        <v>2692900</v>
+        <v>2601800</v>
       </c>
       <c r="H48" s="3">
-        <v>3378300</v>
+        <v>3264000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J48" s="3">
-        <v>3275500</v>
+        <v>3164700</v>
       </c>
       <c r="K48" s="3">
         <v>3215000</v>
@@ -2758,25 +2758,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1483600</v>
+        <v>1433500</v>
       </c>
       <c r="E49" s="3">
-        <v>1581900</v>
+        <v>1528400</v>
       </c>
       <c r="F49" s="3">
-        <v>1645100</v>
+        <v>1589500</v>
       </c>
       <c r="G49" s="3">
-        <v>1564900</v>
+        <v>1512000</v>
       </c>
       <c r="H49" s="3">
-        <v>1698200</v>
+        <v>1640700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J49" s="3">
-        <v>3520500</v>
+        <v>3401500</v>
       </c>
       <c r="K49" s="3">
         <v>1912200</v>
@@ -2935,7 +2935,7 @@
         <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>162600</v>
+        <v>157100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -2944,7 +2944,7 @@
         <v>8</v>
       </c>
       <c r="J52" s="3">
-        <v>219000</v>
+        <v>211600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -3038,25 +3038,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>519029200</v>
+        <v>501473900</v>
       </c>
       <c r="E54" s="3">
-        <v>518723200</v>
+        <v>501178200</v>
       </c>
       <c r="F54" s="3">
-        <v>508863900</v>
+        <v>491652400</v>
       </c>
       <c r="G54" s="3">
-        <v>502300500</v>
+        <v>485310900</v>
       </c>
       <c r="H54" s="3">
-        <v>501995600</v>
+        <v>485016400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J54" s="3">
-        <v>497417100</v>
+        <v>480592800</v>
       </c>
       <c r="K54" s="3">
         <v>495536400</v>
@@ -3250,25 +3250,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>438174400</v>
+        <v>423353800</v>
       </c>
       <c r="E59" s="3">
-        <v>437685500</v>
+        <v>422881400</v>
       </c>
       <c r="F59" s="3">
-        <v>429403500</v>
+        <v>414879600</v>
       </c>
       <c r="G59" s="3">
-        <v>418599100</v>
+        <v>404440700</v>
       </c>
       <c r="H59" s="3">
-        <v>410110600</v>
+        <v>396239200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J59" s="3">
-        <v>419394000</v>
+        <v>405208700</v>
       </c>
       <c r="K59" s="3">
         <v>415096000</v>
@@ -3362,25 +3362,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13272600</v>
+        <v>12823600</v>
       </c>
       <c r="E61" s="3">
-        <v>13051300</v>
+        <v>12609800</v>
       </c>
       <c r="F61" s="3">
-        <v>12601900</v>
+        <v>12175600</v>
       </c>
       <c r="G61" s="3">
-        <v>12120900</v>
+        <v>11710900</v>
       </c>
       <c r="H61" s="3">
-        <v>12691100</v>
+        <v>12261800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>13154000</v>
+        <v>12709100</v>
       </c>
       <c r="K61" s="3">
         <v>12874200</v>
@@ -3427,7 +3427,7 @@
         <v>8</v>
       </c>
       <c r="G62" s="3">
-        <v>7132500</v>
+        <v>6891300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -3436,7 +3436,7 @@
         <v>8</v>
       </c>
       <c r="J62" s="3">
-        <v>6499100</v>
+        <v>6279300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3642,25 +3642,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>489723400</v>
+        <v>473159300</v>
       </c>
       <c r="E66" s="3">
-        <v>489160000</v>
+        <v>472614900</v>
       </c>
       <c r="F66" s="3">
-        <v>481077900</v>
+        <v>464806200</v>
       </c>
       <c r="G66" s="3">
-        <v>473639400</v>
+        <v>457619300</v>
       </c>
       <c r="H66" s="3">
-        <v>472106100</v>
+        <v>456137800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J66" s="3">
-        <v>469167000</v>
+        <v>453298200</v>
       </c>
       <c r="K66" s="3">
         <v>466508700</v>
@@ -3944,25 +3944,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13596600</v>
+        <v>13136700</v>
       </c>
       <c r="E72" s="3">
-        <v>13562700</v>
+        <v>13104000</v>
       </c>
       <c r="F72" s="3">
-        <v>12697900</v>
+        <v>12268400</v>
       </c>
       <c r="G72" s="3">
-        <v>11731300</v>
+        <v>11334600</v>
       </c>
       <c r="H72" s="3">
-        <v>12979000</v>
+        <v>12540000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J72" s="3">
-        <v>12913500</v>
+        <v>12476700</v>
       </c>
       <c r="K72" s="3">
         <v>12489000</v>
@@ -4168,25 +4168,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29305800</v>
+        <v>28314600</v>
       </c>
       <c r="E76" s="3">
-        <v>29563200</v>
+        <v>28563300</v>
       </c>
       <c r="F76" s="3">
-        <v>27786000</v>
+        <v>26846200</v>
       </c>
       <c r="G76" s="3">
-        <v>28661100</v>
+        <v>27691700</v>
       </c>
       <c r="H76" s="3">
-        <v>29889500</v>
+        <v>28878600</v>
       </c>
       <c r="I76" s="3">
-        <v>26835300</v>
+        <v>25927700</v>
       </c>
       <c r="J76" s="3">
-        <v>28250100</v>
+        <v>27294600</v>
       </c>
       <c r="K76" s="3">
         <v>29027600</v>
@@ -4341,25 +4341,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-91500</v>
+        <v>-88400</v>
       </c>
       <c r="E81" s="3">
-        <v>934900</v>
+        <v>903300</v>
       </c>
       <c r="F81" s="3">
-        <v>423400</v>
+        <v>409100</v>
       </c>
       <c r="G81" s="3">
-        <v>-187400</v>
+        <v>-181100</v>
       </c>
       <c r="H81" s="3">
-        <v>195300</v>
+        <v>188700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J81" s="3">
-        <v>982300</v>
+        <v>949100</v>
       </c>
       <c r="K81" s="3">
         <v>663100</v>
@@ -4419,25 +4419,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>672900</v>
+        <v>650200</v>
       </c>
       <c r="E83" s="3">
-        <v>181800</v>
+        <v>175600</v>
       </c>
       <c r="F83" s="3">
-        <v>309400</v>
+        <v>298900</v>
       </c>
       <c r="G83" s="3">
-        <v>512600</v>
+        <v>495300</v>
       </c>
       <c r="H83" s="3">
-        <v>302600</v>
+        <v>292400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>1338000</v>
+        <v>1292700</v>
       </c>
       <c r="K83" s="3">
         <v>573200</v>
@@ -4755,25 +4755,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1152800</v>
+        <v>-1113800</v>
       </c>
       <c r="E89" s="3">
-        <v>146800</v>
+        <v>141800</v>
       </c>
       <c r="F89" s="3">
-        <v>-1663200</v>
+        <v>-1606900</v>
       </c>
       <c r="G89" s="3">
-        <v>-2327100</v>
+        <v>-2248400</v>
       </c>
       <c r="H89" s="3">
-        <v>-895400</v>
+        <v>-865100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J89" s="3">
-        <v>8244700</v>
+        <v>7965800</v>
       </c>
       <c r="K89" s="3">
         <v>6960100</v>
@@ -4833,25 +4833,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21500</v>
+        <v>-20700</v>
       </c>
       <c r="E91" s="3">
-        <v>-18100</v>
+        <v>-17500</v>
       </c>
       <c r="F91" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="G91" s="3">
-        <v>-59800</v>
+        <v>-57800</v>
       </c>
       <c r="H91" s="3">
-        <v>-30500</v>
+        <v>-29500</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J91" s="3">
-        <v>-115200</v>
+        <v>-111300</v>
       </c>
       <c r="K91" s="3">
         <v>-52500</v>
@@ -5001,25 +5001,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="E94" s="3">
-        <v>-36100</v>
+        <v>-34900</v>
       </c>
       <c r="F94" s="3">
-        <v>42900</v>
+        <v>41500</v>
       </c>
       <c r="G94" s="3">
-        <v>-271000</v>
+        <v>-261800</v>
       </c>
       <c r="H94" s="3">
-        <v>114000</v>
+        <v>110200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J94" s="3">
-        <v>-97100</v>
+        <v>-93800</v>
       </c>
       <c r="K94" s="3">
         <v>101600</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-71100</v>
+        <v>-68700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-348900</v>
+        <v>-337100</v>
       </c>
       <c r="K96" s="3">
         <v>-198500</v>
@@ -5303,25 +5303,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-450500</v>
+        <v>-435300</v>
       </c>
       <c r="E100" s="3">
-        <v>552100</v>
+        <v>533500</v>
       </c>
       <c r="F100" s="3">
-        <v>242800</v>
+        <v>234500</v>
       </c>
       <c r="G100" s="3">
-        <v>-425700</v>
+        <v>-411300</v>
       </c>
       <c r="H100" s="3">
-        <v>-452800</v>
+        <v>-437500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J100" s="3">
-        <v>-4211500</v>
+        <v>-4069100</v>
       </c>
       <c r="K100" s="3">
         <v>-3278100</v>
@@ -5359,25 +5359,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="F101" s="3">
-        <v>64400</v>
+        <v>62200</v>
       </c>
       <c r="G101" s="3">
-        <v>-100500</v>
+        <v>-97100</v>
       </c>
       <c r="H101" s="3">
-        <v>-36100</v>
+        <v>-34900</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J101" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="K101" s="3">
         <v>-1200</v>
@@ -5415,25 +5415,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1613500</v>
+        <v>-1558900</v>
       </c>
       <c r="E102" s="3">
-        <v>651500</v>
+        <v>629500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1313100</v>
+        <v>-1268700</v>
       </c>
       <c r="G102" s="3">
-        <v>-3124200</v>
+        <v>-3018500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1270200</v>
+        <v>-1227300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J102" s="3">
-        <v>3973300</v>
+        <v>3838900</v>
       </c>
       <c r="K102" s="3">
         <v>3782400</v>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>AEG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,247 +665,271 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>8304000</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>19820700</v>
+        <v>18145600</v>
       </c>
       <c r="F8" s="3">
-        <v>10315600</v>
+        <v>7900500</v>
       </c>
       <c r="G8" s="3">
-        <v>43694200</v>
+        <v>18857600</v>
       </c>
       <c r="H8" s="3">
-        <v>12238900</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
+        <v>9814400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>41571000</v>
       </c>
       <c r="J8" s="3">
+        <v>11644200</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
         <v>29050900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>47363000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4127000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>20221100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>18665500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>14526200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>14738800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>17115600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>11262500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>20941900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>16622300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>636000</v>
+        <v>253200</v>
       </c>
       <c r="E9" s="3">
-        <v>152700</v>
+        <v>6200</v>
       </c>
       <c r="F9" s="3">
-        <v>223600</v>
+        <v>605100</v>
       </c>
       <c r="G9" s="3">
-        <v>277100</v>
+        <v>145300</v>
       </c>
       <c r="H9" s="3">
-        <v>559600</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
+        <v>212800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>263600</v>
       </c>
       <c r="J9" s="3">
+        <v>532400</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
         <v>384000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>470500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>524300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>588200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>82500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>87500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>211600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>-287700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>143600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>314600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>7668000</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>19668000</v>
+        <v>18139400</v>
       </c>
       <c r="F10" s="3">
-        <v>10092000</v>
+        <v>7295400</v>
       </c>
       <c r="G10" s="3">
-        <v>43417100</v>
+        <v>18712300</v>
       </c>
       <c r="H10" s="3">
-        <v>11679300</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
+        <v>9601600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>41307400</v>
       </c>
       <c r="J10" s="3">
+        <v>11111800</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>28666900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>46892500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3602700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>19632900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>18583000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>14438700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>14527300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>17403300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>11118900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>20627400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>16378200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +950,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -982,8 +1008,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1038,64 +1070,76 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-63300</v>
+        <v>-60200</v>
       </c>
       <c r="E14" s="3">
-        <v>-101500</v>
+        <v>-148400</v>
       </c>
       <c r="F14" s="3">
-        <v>61100</v>
+        <v>-60200</v>
       </c>
       <c r="G14" s="3">
-        <v>89500</v>
+        <v>-96500</v>
       </c>
       <c r="H14" s="3">
-        <v>256400</v>
+        <v>58100</v>
       </c>
       <c r="I14" s="3">
+        <v>85100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>243900</v>
+      </c>
+      <c r="K14" s="3">
         <v>135300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-231300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>74700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-102900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-116500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-20300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-104100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-32100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-12100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>25800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-38700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,8 +1194,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1169,120 +1219,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8549500</v>
+        <v>-8069700</v>
       </c>
       <c r="E17" s="3">
-        <v>18794200</v>
+        <v>17645300</v>
       </c>
       <c r="F17" s="3">
-        <v>9874900</v>
+        <v>8134000</v>
       </c>
       <c r="G17" s="3">
-        <v>44098900</v>
+        <v>17880900</v>
       </c>
       <c r="H17" s="3">
-        <v>12247600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
+        <v>9395100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>41956100</v>
       </c>
       <c r="J17" s="3">
+        <v>11652500</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>27998200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>46614700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4125800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>19557700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>18102100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>13908100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13960200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>16579800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10703800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>20412600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>17081300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-245500</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>1026500</v>
+        <v>500300</v>
       </c>
       <c r="F18" s="3">
-        <v>440700</v>
+        <v>-233500</v>
       </c>
       <c r="G18" s="3">
-        <v>-404700</v>
+        <v>976700</v>
       </c>
       <c r="H18" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
+        <v>419300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-385100</v>
       </c>
       <c r="J18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>1052700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>748300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>663500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>563400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>618000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>778600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>535800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>558800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>529400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-459000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1303,97 +1367,105 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>110200</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>101500</v>
+        <v>134900</v>
       </c>
       <c r="F20" s="3">
-        <v>58900</v>
+        <v>104800</v>
       </c>
       <c r="G20" s="3">
-        <v>192000</v>
+        <v>96500</v>
       </c>
       <c r="H20" s="3">
-        <v>129800</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
+        <v>56000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>182700</v>
       </c>
       <c r="J20" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>126500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>126100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>142100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>118800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>55000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>54300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>47600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>38400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>37000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>56300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>514900</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>1303600</v>
+        <v>776300</v>
       </c>
       <c r="F21" s="3">
-        <v>798500</v>
+        <v>489900</v>
       </c>
       <c r="G21" s="3">
-        <v>282500</v>
+        <v>1240300</v>
       </c>
       <c r="H21" s="3">
-        <v>413500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>759700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>268800</v>
       </c>
       <c r="J21" s="3">
+        <v>393400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>2472000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1447600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1415,8 +1487,14 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1471,120 +1549,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-135300</v>
+        <v>387100</v>
       </c>
       <c r="E23" s="3">
-        <v>1128000</v>
+        <v>635200</v>
       </c>
       <c r="F23" s="3">
-        <v>499600</v>
+        <v>-128700</v>
       </c>
       <c r="G23" s="3">
-        <v>-212700</v>
+        <v>1073200</v>
       </c>
       <c r="H23" s="3">
-        <v>121100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
+        <v>475400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-202400</v>
       </c>
       <c r="J23" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>1179300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>874400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>143300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>782300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>618400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>672300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>826300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>574300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>595800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>585700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-424900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-70900</v>
+        <v>-40500</v>
       </c>
       <c r="E24" s="3">
-        <v>201800</v>
+        <v>89300</v>
       </c>
       <c r="F24" s="3">
-        <v>78500</v>
+        <v>-67500</v>
       </c>
       <c r="G24" s="3">
-        <v>-51300</v>
+        <v>192000</v>
       </c>
       <c r="H24" s="3">
-        <v>-100400</v>
+        <v>74700</v>
       </c>
       <c r="I24" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="K24" s="3">
         <v>281500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>186500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>155300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-167800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>204700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-559800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>154000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>240300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>159200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>68400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>165500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1639,120 +1735,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-64400</v>
+        <v>427600</v>
       </c>
       <c r="E26" s="3">
-        <v>926200</v>
+        <v>545900</v>
       </c>
       <c r="F26" s="3">
-        <v>421100</v>
+        <v>-61200</v>
       </c>
       <c r="G26" s="3">
-        <v>-161500</v>
+        <v>881200</v>
       </c>
       <c r="H26" s="3">
-        <v>221500</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
+        <v>400600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-153600</v>
       </c>
       <c r="J26" s="3">
+        <v>210700</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>992700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>719100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>311100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>577600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1178300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>518400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>585900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>415000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>527300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>420200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-451900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-88400</v>
+        <v>396500</v>
       </c>
       <c r="E27" s="3">
-        <v>903300</v>
+        <v>509600</v>
       </c>
       <c r="F27" s="3">
-        <v>409100</v>
+        <v>-84100</v>
       </c>
       <c r="G27" s="3">
-        <v>-181100</v>
+        <v>859400</v>
       </c>
       <c r="H27" s="3">
-        <v>188700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
+        <v>389200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-172300</v>
       </c>
       <c r="J27" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>949100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>663100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>241300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>510600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1140000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>480700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>552700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>376600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>490300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>378000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1807,8 +1921,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1863,8 +1983,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1919,8 +2045,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1975,120 +2107,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-110200</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-101500</v>
+        <v>-134900</v>
       </c>
       <c r="F32" s="3">
-        <v>-58900</v>
+        <v>-104800</v>
       </c>
       <c r="G32" s="3">
-        <v>-192000</v>
+        <v>-96500</v>
       </c>
       <c r="H32" s="3">
-        <v>-129800</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
+        <v>-56000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-182700</v>
       </c>
       <c r="J32" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>-126500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-126100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-142100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-118800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-55000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-54300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-47600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-38400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-37000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-56300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-88400</v>
+        <v>396500</v>
       </c>
       <c r="E33" s="3">
-        <v>903300</v>
+        <v>509600</v>
       </c>
       <c r="F33" s="3">
-        <v>409100</v>
+        <v>-84100</v>
       </c>
       <c r="G33" s="3">
-        <v>-181100</v>
+        <v>859400</v>
       </c>
       <c r="H33" s="3">
-        <v>188700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
+        <v>389200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-172300</v>
       </c>
       <c r="J33" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>949100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>663100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>241300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>510600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1140000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>480700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>552700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>376600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>490300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>378000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2143,125 +2293,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-88400</v>
+        <v>396500</v>
       </c>
       <c r="E35" s="3">
-        <v>903300</v>
+        <v>509600</v>
       </c>
       <c r="F35" s="3">
-        <v>409100</v>
+        <v>-84100</v>
       </c>
       <c r="G35" s="3">
-        <v>-181100</v>
+        <v>859400</v>
       </c>
       <c r="H35" s="3">
-        <v>188700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
+        <v>389200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-172300</v>
       </c>
       <c r="J35" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>949100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>663100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>241300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>510600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1140000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>480700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>552700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>376600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>490300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>378000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2282,8 +2450,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2304,64 +2474,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6933800</v>
+        <v>7374300</v>
       </c>
       <c r="E41" s="3">
-        <v>8493800</v>
+        <v>7150100</v>
       </c>
       <c r="F41" s="3">
-        <v>7905800</v>
+        <v>6596900</v>
       </c>
       <c r="G41" s="3">
-        <v>9133100</v>
+        <v>8081100</v>
       </c>
       <c r="H41" s="3">
-        <v>12150600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
+        <v>7521700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>8689300</v>
       </c>
       <c r="J41" s="3">
+        <v>11560100</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>13377800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>13997200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10711300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11275800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12880700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>13110700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>14265900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>12118600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>12731200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>13282800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>12303900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2416,8 +2594,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2448,18 +2632,18 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>4912800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2472,8 +2656,14 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2528,8 +2718,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2584,8 +2780,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2640,176 +2842,200 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>173389200</v>
+        <v>155312400</v>
       </c>
       <c r="E47" s="3">
-        <v>171243400</v>
+        <v>164872500</v>
       </c>
       <c r="F47" s="3">
-        <v>169198000</v>
+        <v>164963800</v>
       </c>
       <c r="G47" s="3">
-        <v>172200100</v>
+        <v>162922300</v>
       </c>
       <c r="H47" s="3">
-        <v>173305200</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+        <v>160976200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>163832500</v>
       </c>
       <c r="J47" s="3">
+        <v>164883900</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>159485600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>167846700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>169533700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>161833800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>168698900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>153240900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>155569100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>171034400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>175813600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>186608800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>187632400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2727300</v>
+        <v>2841800</v>
       </c>
       <c r="E48" s="3">
-        <v>2643300</v>
+        <v>2743200</v>
       </c>
       <c r="F48" s="3">
-        <v>2550500</v>
+        <v>2594800</v>
       </c>
       <c r="G48" s="3">
-        <v>2601800</v>
+        <v>2514800</v>
       </c>
       <c r="H48" s="3">
-        <v>3264000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
+        <v>2426600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2475400</v>
       </c>
       <c r="J48" s="3">
+        <v>3105400</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>3164700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3215000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3307500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2957500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3202200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2294900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2244000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2211400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2242900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2239600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2232600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1433500</v>
+        <v>1416700</v>
       </c>
       <c r="E49" s="3">
-        <v>1528400</v>
+        <v>1383500</v>
       </c>
       <c r="F49" s="3">
-        <v>1589500</v>
+        <v>1363800</v>
       </c>
       <c r="G49" s="3">
-        <v>1512000</v>
+        <v>1454100</v>
       </c>
       <c r="H49" s="3">
-        <v>1640700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+        <v>1512200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1438500</v>
       </c>
       <c r="J49" s="3">
+        <v>1561000</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>3401500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1912200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4231100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1932800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1953400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1863000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1869600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2021400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2042000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2024800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2118700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2864,8 +3090,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2920,64 +3152,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+      <c r="E52" s="3">
+        <v>259500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>157100</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="I52" s="3">
+        <v>149500</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>211600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>153100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>6439100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5808300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2574100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>9734900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>9921800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>10226200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>10604200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3032,64 +3276,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>501473900</v>
+        <v>465286400</v>
       </c>
       <c r="E54" s="3">
-        <v>501178200</v>
+        <v>486654700</v>
       </c>
       <c r="F54" s="3">
-        <v>491652400</v>
+        <v>477106000</v>
       </c>
       <c r="G54" s="3">
-        <v>485310900</v>
+        <v>476824800</v>
       </c>
       <c r="H54" s="3">
-        <v>485016400</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
+        <v>467761800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>461728500</v>
       </c>
       <c r="J54" s="3">
+        <v>461448300</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>480592800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>495536400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>481459000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>457491400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>474043300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>439933200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>448162700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>467149600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>477894800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>499290600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>499808300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3110,8 +3366,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3132,8 +3390,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3188,8 +3448,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3217,21 +3483,21 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>2112500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3244,64 +3510,76 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>423353800</v>
+        <v>397570700</v>
       </c>
       <c r="E59" s="3">
-        <v>422881400</v>
+        <v>415825300</v>
       </c>
       <c r="F59" s="3">
-        <v>414879600</v>
+        <v>402782000</v>
       </c>
       <c r="G59" s="3">
-        <v>404440700</v>
+        <v>402332600</v>
       </c>
       <c r="H59" s="3">
-        <v>396239200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+        <v>394719600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>384787900</v>
       </c>
       <c r="J59" s="3">
+        <v>376985000</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>405208700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>415096000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>405439800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>383724000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>391384700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>357369400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>367006600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>377844900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>387177400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>395586900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>391081800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3356,120 +3634,138 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12823600</v>
+        <v>12255500</v>
       </c>
       <c r="E61" s="3">
-        <v>12609800</v>
+        <v>12435100</v>
       </c>
       <c r="F61" s="3">
-        <v>12175600</v>
+        <v>12200500</v>
       </c>
       <c r="G61" s="3">
-        <v>11710900</v>
+        <v>11997100</v>
       </c>
       <c r="H61" s="3">
-        <v>12261800</v>
+        <v>11584000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>11141900</v>
       </c>
       <c r="J61" s="3">
+        <v>11666000</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>12709100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>12874200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>16639000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>17513100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>15359200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>17281900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>17472400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>17503200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>15793100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>16121100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>15254800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3">
+        <v>5880700</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>6891300</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="I62" s="3">
+        <v>6556400</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>6279300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>5643500</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>12105500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5512500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2596200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>9855600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>17896900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>10355400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>10723900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3524,8 +3820,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3580,8 +3882,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3636,64 +3944,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>473159300</v>
+        <v>440844900</v>
       </c>
       <c r="E66" s="3">
-        <v>472614900</v>
+        <v>458999900</v>
       </c>
       <c r="F66" s="3">
-        <v>464806200</v>
+        <v>450167300</v>
       </c>
       <c r="G66" s="3">
-        <v>457619300</v>
+        <v>449649400</v>
       </c>
       <c r="H66" s="3">
-        <v>456137800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
+        <v>442220100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>435382400</v>
       </c>
       <c r="J66" s="3">
+        <v>433973000</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>453298200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>466508700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>453482700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>429517800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>444896700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>413468200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>421372000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>439360300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>450169300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>470018200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>469565100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3714,8 +4034,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3770,8 +4092,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3826,8 +4154,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3882,8 +4216,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3938,64 +4278,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13136700</v>
+        <v>13784300</v>
       </c>
       <c r="E72" s="3">
-        <v>13104000</v>
+        <v>13451200</v>
       </c>
       <c r="F72" s="3">
-        <v>12268400</v>
+        <v>12498400</v>
       </c>
       <c r="G72" s="3">
-        <v>11334600</v>
+        <v>12467300</v>
       </c>
       <c r="H72" s="3">
-        <v>12540000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
+        <v>11672200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>10783800</v>
       </c>
       <c r="J72" s="3">
+        <v>11930700</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>12476700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>12489000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>12633300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11787500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>12015800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>9744700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>9903100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>10237800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>8979300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>9437400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>9470300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4050,8 +4402,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4106,8 +4464,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4162,64 +4526,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28314600</v>
+        <v>24441500</v>
       </c>
       <c r="E76" s="3">
-        <v>28563300</v>
+        <v>27654800</v>
       </c>
       <c r="F76" s="3">
-        <v>26846200</v>
+        <v>26938700</v>
       </c>
       <c r="G76" s="3">
-        <v>27691700</v>
+        <v>27175300</v>
       </c>
       <c r="H76" s="3">
-        <v>28878600</v>
+        <v>25541700</v>
       </c>
       <c r="I76" s="3">
+        <v>26346100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>27475300</v>
+      </c>
+      <c r="K76" s="3">
         <v>25927700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>27294600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>29027600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>27976300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>27973600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>29146600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>26465000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>26790600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>27789300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>27725500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>29272500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>30243200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4274,125 +4650,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-88400</v>
+        <v>396500</v>
       </c>
       <c r="E81" s="3">
-        <v>903300</v>
+        <v>509600</v>
       </c>
       <c r="F81" s="3">
-        <v>409100</v>
+        <v>-84100</v>
       </c>
       <c r="G81" s="3">
-        <v>-181100</v>
+        <v>859400</v>
       </c>
       <c r="H81" s="3">
-        <v>188700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
+        <v>389200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-172300</v>
       </c>
       <c r="J81" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>949100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>663100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>241300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>510600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1140000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>480700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>552700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>376600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>490300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>378000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4413,41 +4807,43 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>650200</v>
+        <v>342500</v>
       </c>
       <c r="E83" s="3">
-        <v>175600</v>
+        <v>141200</v>
       </c>
       <c r="F83" s="3">
-        <v>298900</v>
+        <v>618600</v>
       </c>
       <c r="G83" s="3">
-        <v>495300</v>
+        <v>167100</v>
       </c>
       <c r="H83" s="3">
-        <v>292400</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+        <v>284400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>471200</v>
       </c>
       <c r="J83" s="3">
+        <v>278200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>1292700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>573200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4460,17 +4856,23 @@
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4525,8 +4927,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4581,8 +4989,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4637,8 +5051,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4693,8 +5113,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4749,64 +5175,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1113800</v>
+        <v>71600</v>
       </c>
       <c r="E89" s="3">
-        <v>141800</v>
+        <v>589500</v>
       </c>
       <c r="F89" s="3">
-        <v>-1606900</v>
+        <v>-1059700</v>
       </c>
       <c r="G89" s="3">
-        <v>-2248400</v>
+        <v>134900</v>
       </c>
       <c r="H89" s="3">
-        <v>-865100</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
+        <v>-1528800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2139100</v>
       </c>
       <c r="J89" s="3">
+        <v>-823100</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>7965800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>6960100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1825200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1144600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>496400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-653500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3129000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2302500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>102100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>685500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-181900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4827,64 +5265,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20700</v>
+        <v>-17600</v>
       </c>
       <c r="E91" s="3">
-        <v>-17500</v>
+        <v>-32200</v>
       </c>
       <c r="F91" s="3">
-        <v>-10900</v>
+        <v>-19700</v>
       </c>
       <c r="G91" s="3">
-        <v>-57800</v>
+        <v>-16600</v>
       </c>
       <c r="H91" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+        <v>-10400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-55000</v>
       </c>
       <c r="J91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-111300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-52500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-82100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-16500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-19100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-22200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-23100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-32500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-28200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4939,8 +5385,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4995,64 +5447,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6500</v>
+        <v>483700</v>
       </c>
       <c r="E94" s="3">
-        <v>-34900</v>
+        <v>-56000</v>
       </c>
       <c r="F94" s="3">
-        <v>41500</v>
+        <v>-6200</v>
       </c>
       <c r="G94" s="3">
-        <v>-261800</v>
+        <v>-33200</v>
       </c>
       <c r="H94" s="3">
-        <v>110200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+        <v>39400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-249100</v>
       </c>
       <c r="J94" s="3">
+        <v>104800</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-93800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>101600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-427500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-104700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-140000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-14400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1069900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-109800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-359000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>9400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-906200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5073,8 +5537,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5082,55 +5548,61 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-68700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-65400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-337100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-198500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-197200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-196500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-167200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-180800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5185,8 +5657,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5241,8 +5719,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5297,172 +5781,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-435300</v>
+        <v>-343500</v>
       </c>
       <c r="E100" s="3">
-        <v>533500</v>
+        <v>-5200</v>
       </c>
       <c r="F100" s="3">
-        <v>234500</v>
+        <v>-414100</v>
       </c>
       <c r="G100" s="3">
-        <v>-411300</v>
+        <v>507500</v>
       </c>
       <c r="H100" s="3">
-        <v>-437500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
+        <v>223100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-391300</v>
       </c>
       <c r="J100" s="3">
+        <v>-416200</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>-4069100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-3278100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2435300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-478800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1573000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-189400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>104100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2098300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-157100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>625600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>961400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>13500</v>
       </c>
       <c r="E101" s="3">
-        <v>-10900</v>
+        <v>23900</v>
       </c>
       <c r="F101" s="3">
-        <v>62200</v>
+        <v>-3100</v>
       </c>
       <c r="G101" s="3">
-        <v>-97100</v>
+        <v>-10400</v>
       </c>
       <c r="H101" s="3">
-        <v>-34900</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+        <v>59200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-92400</v>
       </c>
       <c r="J101" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>36000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>8600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>32900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-14400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-50900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-124100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-28500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>151500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-31700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1558900</v>
+        <v>225200</v>
       </c>
       <c r="E102" s="3">
-        <v>629500</v>
+        <v>552200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1268700</v>
+        <v>-1483200</v>
       </c>
       <c r="G102" s="3">
-        <v>-3018500</v>
+        <v>598900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1227300</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
+        <v>-1207100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-2871900</v>
       </c>
       <c r="J102" s="3">
+        <v>-1167600</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>3838900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3782400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1029000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1695200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1230900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-908200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2039100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-342600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>51600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>976600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-125600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>AEG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,283 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
-        <v>18145600</v>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="3">
-        <v>7900500</v>
+        <v>17437500</v>
       </c>
       <c r="G8" s="3">
-        <v>18857600</v>
+        <v>7592200</v>
       </c>
       <c r="H8" s="3">
-        <v>9814400</v>
+        <v>18121800</v>
       </c>
       <c r="I8" s="3">
-        <v>41571000</v>
+        <v>9431400</v>
       </c>
       <c r="J8" s="3">
+        <v>39948900</v>
+      </c>
+      <c r="K8" s="3">
         <v>11644200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
         <v>29050900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47363000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4127000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20221100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18665500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14526200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14738800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17115600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11262500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20941900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16622300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>253200</v>
+        <v>326100</v>
       </c>
       <c r="E9" s="3">
-        <v>6200</v>
+        <v>243400</v>
       </c>
       <c r="F9" s="3">
-        <v>605100</v>
+        <v>6000</v>
       </c>
       <c r="G9" s="3">
-        <v>145300</v>
+        <v>581500</v>
       </c>
       <c r="H9" s="3">
-        <v>212800</v>
+        <v>139600</v>
       </c>
       <c r="I9" s="3">
-        <v>263600</v>
+        <v>204500</v>
       </c>
       <c r="J9" s="3">
+        <v>253300</v>
+      </c>
+      <c r="K9" s="3">
         <v>532400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3">
         <v>384000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>470500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>524300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>588200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>82500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>87500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>211600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>-287700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>143600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>314600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
-        <v>18139400</v>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>7295400</v>
+        <v>17431600</v>
       </c>
       <c r="G10" s="3">
-        <v>18712300</v>
+        <v>7010700</v>
       </c>
       <c r="H10" s="3">
-        <v>9601600</v>
+        <v>17982100</v>
       </c>
       <c r="I10" s="3">
-        <v>41307400</v>
+        <v>9226900</v>
       </c>
       <c r="J10" s="3">
+        <v>39695500</v>
+      </c>
+      <c r="K10" s="3">
         <v>11111800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
         <v>28666900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>46892500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3602700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19632900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18583000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14438700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14527300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17403300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11118900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>20627400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>16378200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +964,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,8 +1027,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1076,70 +1092,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-60200</v>
+        <v>-26900</v>
       </c>
       <c r="E14" s="3">
-        <v>-148400</v>
+        <v>-57800</v>
       </c>
       <c r="F14" s="3">
-        <v>-60200</v>
+        <v>-142600</v>
       </c>
       <c r="G14" s="3">
-        <v>-96500</v>
+        <v>-57800</v>
       </c>
       <c r="H14" s="3">
-        <v>58100</v>
+        <v>-92800</v>
       </c>
       <c r="I14" s="3">
-        <v>85100</v>
+        <v>55900</v>
       </c>
       <c r="J14" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K14" s="3">
         <v>243900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>135300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-231300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>74700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-102900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-116500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-104100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-32100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-12100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>25800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-38700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1200,8 +1222,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1221,132 +1246,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-8069700</v>
+        <v>-21816100</v>
       </c>
       <c r="E17" s="3">
-        <v>17645300</v>
+        <v>-7754800</v>
       </c>
       <c r="F17" s="3">
-        <v>8134000</v>
+        <v>16956800</v>
       </c>
       <c r="G17" s="3">
-        <v>17880900</v>
+        <v>7816600</v>
       </c>
       <c r="H17" s="3">
-        <v>9395100</v>
+        <v>17183200</v>
       </c>
       <c r="I17" s="3">
-        <v>41956100</v>
+        <v>9028500</v>
       </c>
       <c r="J17" s="3">
+        <v>40318900</v>
+      </c>
+      <c r="K17" s="3">
         <v>11652500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>27998200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>46614700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4125800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19557700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18102100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13908100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13960200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16579800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10703800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20412600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17081300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
-        <v>500300</v>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>-233500</v>
+        <v>480700</v>
       </c>
       <c r="G18" s="3">
-        <v>976700</v>
+        <v>-224400</v>
       </c>
       <c r="H18" s="3">
-        <v>419300</v>
+        <v>938600</v>
       </c>
       <c r="I18" s="3">
-        <v>-385100</v>
+        <v>402900</v>
       </c>
       <c r="J18" s="3">
+        <v>-370000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>1052700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>748300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>663500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>563400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>618000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>778600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>535800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>558800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>529400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-459000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1369,106 +1401,110 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
-        <v>134900</v>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>104800</v>
+        <v>129700</v>
       </c>
       <c r="G20" s="3">
-        <v>96500</v>
+        <v>100700</v>
       </c>
       <c r="H20" s="3">
-        <v>56000</v>
+        <v>92800</v>
       </c>
       <c r="I20" s="3">
-        <v>182700</v>
+        <v>53900</v>
       </c>
       <c r="J20" s="3">
+        <v>175500</v>
+      </c>
+      <c r="K20" s="3">
         <v>123500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>126500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>126100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>142100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>118800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>55000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>54300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>47600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>38400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>37000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>56300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
-        <v>776300</v>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>489900</v>
+        <v>746100</v>
       </c>
       <c r="G21" s="3">
-        <v>1240300</v>
+        <v>470800</v>
       </c>
       <c r="H21" s="3">
-        <v>759700</v>
+        <v>1191900</v>
       </c>
       <c r="I21" s="3">
-        <v>268800</v>
+        <v>730100</v>
       </c>
       <c r="J21" s="3">
+        <v>258300</v>
+      </c>
+      <c r="K21" s="3">
         <v>393400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>2472000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1447600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1493,8 +1529,11 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,132 +1594,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>387100</v>
+        <v>-452800</v>
       </c>
       <c r="E23" s="3">
-        <v>635200</v>
+        <v>372000</v>
       </c>
       <c r="F23" s="3">
-        <v>-128700</v>
+        <v>610400</v>
       </c>
       <c r="G23" s="3">
-        <v>1073200</v>
+        <v>-123700</v>
       </c>
       <c r="H23" s="3">
-        <v>475400</v>
+        <v>1031300</v>
       </c>
       <c r="I23" s="3">
-        <v>-202400</v>
+        <v>456800</v>
       </c>
       <c r="J23" s="3">
+        <v>-194500</v>
+      </c>
+      <c r="K23" s="3">
         <v>115200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>1179300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>874400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>143300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>782300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>618400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>672300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>826300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>574300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>595800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>585700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-424900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-40500</v>
+        <v>-105700</v>
       </c>
       <c r="E24" s="3">
-        <v>89300</v>
+        <v>-38900</v>
       </c>
       <c r="F24" s="3">
-        <v>-67500</v>
+        <v>85800</v>
       </c>
       <c r="G24" s="3">
-        <v>192000</v>
+        <v>-64800</v>
       </c>
       <c r="H24" s="3">
-        <v>74700</v>
+        <v>184500</v>
       </c>
       <c r="I24" s="3">
-        <v>-48800</v>
+        <v>71800</v>
       </c>
       <c r="J24" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-95500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>281500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>186500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>155300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-167800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>204700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-559800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>154000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>240300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>159200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>68400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>165500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1741,132 +1789,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>427600</v>
+        <v>-347100</v>
       </c>
       <c r="E26" s="3">
-        <v>545900</v>
+        <v>410900</v>
       </c>
       <c r="F26" s="3">
-        <v>-61200</v>
+        <v>524600</v>
       </c>
       <c r="G26" s="3">
-        <v>881200</v>
+        <v>-58800</v>
       </c>
       <c r="H26" s="3">
-        <v>400600</v>
+        <v>846800</v>
       </c>
       <c r="I26" s="3">
-        <v>-153600</v>
+        <v>385000</v>
       </c>
       <c r="J26" s="3">
+        <v>-147600</v>
+      </c>
+      <c r="K26" s="3">
         <v>210700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>992700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>719100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>311100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>577600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1178300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>518400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>585900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>415000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>527300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>420200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-451900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>396500</v>
+        <v>-378000</v>
       </c>
       <c r="E27" s="3">
-        <v>509600</v>
+        <v>381000</v>
       </c>
       <c r="F27" s="3">
-        <v>-84100</v>
+        <v>489700</v>
       </c>
       <c r="G27" s="3">
-        <v>859400</v>
+        <v>-80800</v>
       </c>
       <c r="H27" s="3">
-        <v>389200</v>
+        <v>825800</v>
       </c>
       <c r="I27" s="3">
-        <v>-172300</v>
+        <v>374000</v>
       </c>
       <c r="J27" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="K27" s="3">
         <v>179600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>949100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>663100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>241300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>510600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1140000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>480700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>552700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>376600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>490300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>378000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1927,8 +1984,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1989,8 +2049,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,8 +2114,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2113,132 +2179,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
-        <v>-134900</v>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
-        <v>-104800</v>
+        <v>-129700</v>
       </c>
       <c r="G32" s="3">
-        <v>-96500</v>
+        <v>-100700</v>
       </c>
       <c r="H32" s="3">
-        <v>-56000</v>
+        <v>-92800</v>
       </c>
       <c r="I32" s="3">
-        <v>-182700</v>
+        <v>-53900</v>
       </c>
       <c r="J32" s="3">
+        <v>-175500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-123500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>-126500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-126100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-142100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-118800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-54300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-47600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-38400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-37000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-56300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>396500</v>
+        <v>-378000</v>
       </c>
       <c r="E33" s="3">
-        <v>509600</v>
+        <v>381000</v>
       </c>
       <c r="F33" s="3">
-        <v>-84100</v>
+        <v>489700</v>
       </c>
       <c r="G33" s="3">
-        <v>859400</v>
+        <v>-80800</v>
       </c>
       <c r="H33" s="3">
-        <v>389200</v>
+        <v>825800</v>
       </c>
       <c r="I33" s="3">
-        <v>-172300</v>
+        <v>374000</v>
       </c>
       <c r="J33" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="K33" s="3">
         <v>179600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>949100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>663100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>241300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>510600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1140000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>480700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>552700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>376600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>490300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>378000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2299,137 +2374,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>396500</v>
+        <v>-378000</v>
       </c>
       <c r="E35" s="3">
-        <v>509600</v>
+        <v>381000</v>
       </c>
       <c r="F35" s="3">
-        <v>-84100</v>
+        <v>489700</v>
       </c>
       <c r="G35" s="3">
-        <v>859400</v>
+        <v>-80800</v>
       </c>
       <c r="H35" s="3">
-        <v>389200</v>
+        <v>825800</v>
       </c>
       <c r="I35" s="3">
-        <v>-172300</v>
+        <v>374000</v>
       </c>
       <c r="J35" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="K35" s="3">
         <v>179600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>949100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>663100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>241300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>510600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1140000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>480700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>552700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>376600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>490300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>378000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2452,8 +2536,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2476,70 +2561,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7374300</v>
+        <v>7889400</v>
       </c>
       <c r="E41" s="3">
-        <v>7150100</v>
+        <v>7086500</v>
       </c>
       <c r="F41" s="3">
-        <v>6596900</v>
+        <v>6871100</v>
       </c>
       <c r="G41" s="3">
-        <v>8081100</v>
+        <v>6339500</v>
       </c>
       <c r="H41" s="3">
-        <v>7521700</v>
+        <v>7765800</v>
       </c>
       <c r="I41" s="3">
-        <v>8689300</v>
+        <v>7228200</v>
       </c>
       <c r="J41" s="3">
+        <v>8350200</v>
+      </c>
+      <c r="K41" s="3">
         <v>11560100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>13377800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13997200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10711300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11275800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12880700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13110700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14265900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12118600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12731200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13282800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12303900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2600,8 +2689,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2638,15 +2730,15 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4912800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2662,8 +2754,11 @@
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2724,8 +2819,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2786,8 +2884,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2848,194 +2949,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>155312400</v>
+        <v>140356100</v>
       </c>
       <c r="E47" s="3">
-        <v>164872500</v>
+        <v>149251900</v>
       </c>
       <c r="F47" s="3">
-        <v>164963800</v>
+        <v>158439000</v>
       </c>
       <c r="G47" s="3">
-        <v>162922300</v>
+        <v>158526800</v>
       </c>
       <c r="H47" s="3">
-        <v>160976200</v>
+        <v>156564900</v>
       </c>
       <c r="I47" s="3">
-        <v>163832500</v>
+        <v>154694700</v>
       </c>
       <c r="J47" s="3">
+        <v>157439600</v>
+      </c>
+      <c r="K47" s="3">
         <v>164883900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>159485600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>167846700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>169533700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>161833800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>168698900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>153240900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>155569100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>171034400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>175813600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>186608800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>187632400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2841800</v>
+        <v>2781700</v>
       </c>
       <c r="E48" s="3">
-        <v>2743200</v>
+        <v>2730900</v>
       </c>
       <c r="F48" s="3">
-        <v>2594800</v>
+        <v>2636100</v>
       </c>
       <c r="G48" s="3">
-        <v>2514800</v>
+        <v>2493500</v>
       </c>
       <c r="H48" s="3">
-        <v>2426600</v>
+        <v>2416700</v>
       </c>
       <c r="I48" s="3">
-        <v>2475400</v>
+        <v>2331900</v>
       </c>
       <c r="J48" s="3">
+        <v>2378800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3105400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>3164700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3215000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3307500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2957500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3202200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2294900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2244000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2211400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2242900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2239600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2232600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1416700</v>
+        <v>1422300</v>
       </c>
       <c r="E49" s="3">
-        <v>1383500</v>
+        <v>1361500</v>
       </c>
       <c r="F49" s="3">
-        <v>1363800</v>
+        <v>1329500</v>
       </c>
       <c r="G49" s="3">
-        <v>1454100</v>
+        <v>1310600</v>
       </c>
       <c r="H49" s="3">
-        <v>1512200</v>
+        <v>1397400</v>
       </c>
       <c r="I49" s="3">
-        <v>1438500</v>
+        <v>1453200</v>
       </c>
       <c r="J49" s="3">
+        <v>1382400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1561000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>3401500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1912200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4231100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1932800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1953400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1863000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1869600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2021400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2042000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2024800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2118700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3096,8 +3209,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3158,19 +3274,22 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>259500</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>249400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -3178,50 +3297,53 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>149500</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>143600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>211600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>153100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>6439100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5808300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2574100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9734900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9921800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10226200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10604200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3282,70 +3404,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>465286400</v>
+        <v>420237500</v>
       </c>
       <c r="E54" s="3">
-        <v>486654700</v>
+        <v>447130400</v>
       </c>
       <c r="F54" s="3">
-        <v>477106000</v>
+        <v>467664900</v>
       </c>
       <c r="G54" s="3">
-        <v>476824800</v>
+        <v>458488800</v>
       </c>
       <c r="H54" s="3">
-        <v>467761800</v>
+        <v>458218500</v>
       </c>
       <c r="I54" s="3">
-        <v>461728500</v>
+        <v>449509200</v>
       </c>
       <c r="J54" s="3">
+        <v>443711300</v>
+      </c>
+      <c r="K54" s="3">
         <v>461448300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>480592800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>495536400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>481459000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>457491400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>474043300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>439933200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>448162700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>467149600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>477894800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>499290600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>499808300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3368,8 +3496,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3392,8 +3521,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3454,8 +3584,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3489,18 +3622,18 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2112500</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3516,70 +3649,76 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>397570700</v>
+        <v>360735600</v>
       </c>
       <c r="E59" s="3">
-        <v>415825300</v>
+        <v>382057100</v>
       </c>
       <c r="F59" s="3">
-        <v>402782000</v>
+        <v>399599300</v>
       </c>
       <c r="G59" s="3">
-        <v>402332600</v>
+        <v>387065000</v>
       </c>
       <c r="H59" s="3">
-        <v>394719600</v>
+        <v>386633100</v>
       </c>
       <c r="I59" s="3">
-        <v>384787900</v>
+        <v>379317200</v>
       </c>
       <c r="J59" s="3">
+        <v>369773100</v>
+      </c>
+      <c r="K59" s="3">
         <v>376985000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>405208700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>415096000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>405439800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>383724000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>391384700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>357369400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>367006600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>377844900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>387177400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>395586900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>391081800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3640,81 +3779,87 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12255500</v>
+        <v>11789300</v>
       </c>
       <c r="E61" s="3">
-        <v>12435100</v>
+        <v>11777300</v>
       </c>
       <c r="F61" s="3">
-        <v>12200500</v>
+        <v>11949800</v>
       </c>
       <c r="G61" s="3">
-        <v>11997100</v>
+        <v>11724400</v>
       </c>
       <c r="H61" s="3">
-        <v>11584000</v>
+        <v>11528900</v>
       </c>
       <c r="I61" s="3">
-        <v>11141900</v>
+        <v>11132000</v>
       </c>
       <c r="J61" s="3">
+        <v>10707100</v>
+      </c>
+      <c r="K61" s="3">
         <v>11666000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>12709100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12874200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16639000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17513100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15359200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17281900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17472400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17503200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15793100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16121100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15254800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>5880700</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5651300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -3722,50 +3867,53 @@
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>6556400</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6300600</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>6279300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>5643500</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>12105500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5512500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2596200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9855600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17896900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10355400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10723900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3826,8 +3974,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3888,8 +4039,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3950,70 +4104,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>440844900</v>
+        <v>401218100</v>
       </c>
       <c r="E66" s="3">
-        <v>458999900</v>
+        <v>423642700</v>
       </c>
       <c r="F66" s="3">
-        <v>450167300</v>
+        <v>441089200</v>
       </c>
       <c r="G66" s="3">
-        <v>449649400</v>
+        <v>432601300</v>
       </c>
       <c r="H66" s="3">
-        <v>442220100</v>
+        <v>432103600</v>
       </c>
       <c r="I66" s="3">
-        <v>435382400</v>
+        <v>424964200</v>
       </c>
       <c r="J66" s="3">
+        <v>418393300</v>
+      </c>
+      <c r="K66" s="3">
         <v>433973000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>453298200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>466508700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>453482700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>429517800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>444896700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>413468200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>421372000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>439360300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>450169300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>470018200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>469565100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4036,8 +4196,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4098,8 +4259,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4160,8 +4324,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4222,8 +4389,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4284,70 +4454,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13784300</v>
+        <v>13526700</v>
       </c>
       <c r="E72" s="3">
-        <v>13451200</v>
+        <v>13246500</v>
       </c>
       <c r="F72" s="3">
-        <v>12498400</v>
+        <v>12926300</v>
       </c>
       <c r="G72" s="3">
-        <v>12467300</v>
+        <v>12010700</v>
       </c>
       <c r="H72" s="3">
-        <v>11672200</v>
+        <v>11980800</v>
       </c>
       <c r="I72" s="3">
-        <v>10783800</v>
+        <v>11216800</v>
       </c>
       <c r="J72" s="3">
+        <v>10363000</v>
+      </c>
+      <c r="K72" s="3">
         <v>11930700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>12476700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12489000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12633300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11787500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12015800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9744700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9903100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10237800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8979300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9437400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9470300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4408,8 +4584,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4470,8 +4649,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4532,70 +4714,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24441500</v>
+        <v>19019400</v>
       </c>
       <c r="E76" s="3">
-        <v>27654800</v>
+        <v>23487800</v>
       </c>
       <c r="F76" s="3">
-        <v>26938700</v>
+        <v>26575700</v>
       </c>
       <c r="G76" s="3">
-        <v>27175300</v>
+        <v>25887500</v>
       </c>
       <c r="H76" s="3">
-        <v>25541700</v>
+        <v>26114900</v>
       </c>
       <c r="I76" s="3">
-        <v>26346100</v>
+        <v>24545000</v>
       </c>
       <c r="J76" s="3">
+        <v>25318000</v>
+      </c>
+      <c r="K76" s="3">
         <v>27475300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25927700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27294600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29027600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27976300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27973600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29146600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26465000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26790600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27789300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27725500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>29272500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>30243200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4656,137 +4844,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>396500</v>
+        <v>-378000</v>
       </c>
       <c r="E81" s="3">
-        <v>509600</v>
+        <v>381000</v>
       </c>
       <c r="F81" s="3">
-        <v>-84100</v>
+        <v>489700</v>
       </c>
       <c r="G81" s="3">
-        <v>859400</v>
+        <v>-80800</v>
       </c>
       <c r="H81" s="3">
-        <v>389200</v>
+        <v>825800</v>
       </c>
       <c r="I81" s="3">
-        <v>-172300</v>
+        <v>374000</v>
       </c>
       <c r="J81" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="K81" s="3">
         <v>179600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>949100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>663100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>241300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>510600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1140000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>480700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>552700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>376600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>490300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>378000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4809,44 +5006,45 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>342500</v>
+        <v>278300</v>
       </c>
       <c r="E83" s="3">
-        <v>141200</v>
+        <v>329100</v>
       </c>
       <c r="F83" s="3">
-        <v>618600</v>
+        <v>135600</v>
       </c>
       <c r="G83" s="3">
-        <v>167100</v>
+        <v>594500</v>
       </c>
       <c r="H83" s="3">
-        <v>284400</v>
+        <v>160600</v>
       </c>
       <c r="I83" s="3">
-        <v>471200</v>
+        <v>273300</v>
       </c>
       <c r="J83" s="3">
+        <v>452800</v>
+      </c>
+      <c r="K83" s="3">
         <v>278200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>1292700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>573200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4862,8 +5060,8 @@
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4871,8 +5069,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4933,8 +5134,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4995,8 +5199,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5057,8 +5264,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5119,8 +5329,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5181,70 +5394,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>71600</v>
+        <v>1511100</v>
       </c>
       <c r="E89" s="3">
-        <v>589500</v>
+        <v>68800</v>
       </c>
       <c r="F89" s="3">
-        <v>-1059700</v>
+        <v>566500</v>
       </c>
       <c r="G89" s="3">
-        <v>134900</v>
+        <v>-1018300</v>
       </c>
       <c r="H89" s="3">
-        <v>-1528800</v>
+        <v>129700</v>
       </c>
       <c r="I89" s="3">
-        <v>-2139100</v>
+        <v>-1469200</v>
       </c>
       <c r="J89" s="3">
+        <v>-2055600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-823100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>7965800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6960100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1825200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1144600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>496400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-653500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3129000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2302500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>102100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>685500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-181900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5267,70 +5486,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17600</v>
+        <v>-19900</v>
       </c>
       <c r="E91" s="3">
-        <v>-32200</v>
+        <v>-17000</v>
       </c>
       <c r="F91" s="3">
-        <v>-19700</v>
+        <v>-30900</v>
       </c>
       <c r="G91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-111300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-16600</v>
       </c>
-      <c r="H91" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-55000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-111300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-52500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-82100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-22200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5391,8 +5614,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5453,70 +5679,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>483700</v>
+        <v>58800</v>
       </c>
       <c r="E94" s="3">
-        <v>-56000</v>
+        <v>464800</v>
       </c>
       <c r="F94" s="3">
-        <v>-6200</v>
+        <v>-53900</v>
       </c>
       <c r="G94" s="3">
-        <v>-33200</v>
+        <v>-6000</v>
       </c>
       <c r="H94" s="3">
-        <v>39400</v>
+        <v>-31900</v>
       </c>
       <c r="I94" s="3">
-        <v>-249100</v>
+        <v>37900</v>
       </c>
       <c r="J94" s="3">
+        <v>-239400</v>
+      </c>
+      <c r="K94" s="3">
         <v>104800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-93800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>101600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-427500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-104700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-140000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1069900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-109800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-359000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>9400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-906200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5539,8 +5771,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5548,11 +5781,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -5560,49 +5793,52 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-65400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-62800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-337100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-198500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-197200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-196500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-167200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-180800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5663,8 +5899,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5725,8 +5964,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5787,190 +6029,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-343500</v>
+        <v>-840800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5200</v>
+        <v>-330100</v>
       </c>
       <c r="F100" s="3">
-        <v>-414100</v>
+        <v>-5000</v>
       </c>
       <c r="G100" s="3">
-        <v>507500</v>
+        <v>-398000</v>
       </c>
       <c r="H100" s="3">
-        <v>223100</v>
+        <v>487700</v>
       </c>
       <c r="I100" s="3">
-        <v>-391300</v>
+        <v>214400</v>
       </c>
       <c r="J100" s="3">
+        <v>-376000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-416200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-4069100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3278100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2435300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-478800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1573000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-189400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>104100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2098300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-157100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>625600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>961400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13500</v>
+        <v>71800</v>
       </c>
       <c r="E101" s="3">
-        <v>23900</v>
+        <v>13000</v>
       </c>
       <c r="F101" s="3">
-        <v>-3100</v>
+        <v>22900</v>
       </c>
       <c r="G101" s="3">
-        <v>-10400</v>
+        <v>-3000</v>
       </c>
       <c r="H101" s="3">
-        <v>59200</v>
+        <v>-10000</v>
       </c>
       <c r="I101" s="3">
-        <v>-92400</v>
+        <v>56900</v>
       </c>
       <c r="J101" s="3">
+        <v>-88800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-33200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>36000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>32900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-50900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-124100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-28500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>151500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-31700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>225200</v>
+        <v>800900</v>
       </c>
       <c r="E102" s="3">
-        <v>552200</v>
+        <v>216400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1483200</v>
+        <v>530600</v>
       </c>
       <c r="G102" s="3">
-        <v>598900</v>
+        <v>-1425300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1207100</v>
+        <v>575500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2871900</v>
+        <v>-1160000</v>
       </c>
       <c r="J102" s="3">
+        <v>-2759800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1167600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>3838900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3782400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1029000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1695200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1230900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-908200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2039100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-342600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>51600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>976600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-125600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>AEG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,91 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,127 +759,133 @@
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
-        <v>17437500</v>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G8" s="3">
-        <v>7592200</v>
+        <v>17846600</v>
       </c>
       <c r="H8" s="3">
-        <v>18121800</v>
+        <v>7770300</v>
       </c>
       <c r="I8" s="3">
-        <v>9431400</v>
+        <v>18546900</v>
       </c>
       <c r="J8" s="3">
+        <v>9652700</v>
+      </c>
+      <c r="K8" s="3">
         <v>39948900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11644200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3">
         <v>29050900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47363000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4127000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20221100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18665500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14526200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14738800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17115600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11262500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20941900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>16622300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>326100</v>
+        <v>264400</v>
       </c>
       <c r="E9" s="3">
-        <v>243400</v>
+        <v>333800</v>
       </c>
       <c r="F9" s="3">
-        <v>6000</v>
+        <v>249100</v>
       </c>
       <c r="G9" s="3">
-        <v>581500</v>
+        <v>6100</v>
       </c>
       <c r="H9" s="3">
-        <v>139600</v>
+        <v>595100</v>
       </c>
       <c r="I9" s="3">
-        <v>204500</v>
+        <v>142900</v>
       </c>
       <c r="J9" s="3">
+        <v>209300</v>
+      </c>
+      <c r="K9" s="3">
         <v>253300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>532400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3">
         <v>384000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>470500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>524300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>588200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>82500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>87500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>211600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>-287700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>143600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>314600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,62 +895,65 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
-        <v>17431600</v>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G10" s="3">
-        <v>7010700</v>
+        <v>17840500</v>
       </c>
       <c r="H10" s="3">
-        <v>17982100</v>
+        <v>7175200</v>
       </c>
       <c r="I10" s="3">
-        <v>9226900</v>
+        <v>18404000</v>
       </c>
       <c r="J10" s="3">
+        <v>9443400</v>
+      </c>
+      <c r="K10" s="3">
         <v>39695500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11111800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
         <v>28666900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>46892500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3602700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19632900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18583000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14438700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14527300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17403300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11118900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>20627400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>16378200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +977,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,8 +1043,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1095,73 +1111,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-26900</v>
+        <v>36700</v>
       </c>
       <c r="E14" s="3">
-        <v>-57800</v>
+        <v>-27600</v>
       </c>
       <c r="F14" s="3">
-        <v>-142600</v>
+        <v>-353200</v>
       </c>
       <c r="G14" s="3">
-        <v>-57800</v>
+        <v>-146000</v>
       </c>
       <c r="H14" s="3">
-        <v>-92800</v>
+        <v>-59200</v>
       </c>
       <c r="I14" s="3">
-        <v>55900</v>
+        <v>-94900</v>
       </c>
       <c r="J14" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K14" s="3">
         <v>81800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>243900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>135300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-231300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>74700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-102900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-116500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-20300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-104100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-32100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-12100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>25800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-38700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1225,8 +1247,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1247,73 +1272,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-21816100</v>
+        <v>-2305000</v>
       </c>
       <c r="E17" s="3">
-        <v>-7754800</v>
+        <v>-22328000</v>
       </c>
       <c r="F17" s="3">
-        <v>16956800</v>
+        <v>-8230700</v>
       </c>
       <c r="G17" s="3">
-        <v>7816600</v>
+        <v>17354600</v>
       </c>
       <c r="H17" s="3">
-        <v>17183200</v>
+        <v>8000000</v>
       </c>
       <c r="I17" s="3">
-        <v>9028500</v>
+        <v>17586300</v>
       </c>
       <c r="J17" s="3">
+        <v>9240300</v>
+      </c>
+      <c r="K17" s="3">
         <v>40318900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11652500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>27998200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46614700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4125800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19557700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18102100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13908100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13960200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16579800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10703800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20412600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17081300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1323,62 +1352,65 @@
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
-        <v>480700</v>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G18" s="3">
-        <v>-224400</v>
+        <v>492000</v>
       </c>
       <c r="H18" s="3">
-        <v>938600</v>
+        <v>-229700</v>
       </c>
       <c r="I18" s="3">
-        <v>402900</v>
+        <v>960600</v>
       </c>
       <c r="J18" s="3">
+        <v>412400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-370000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>1052700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>748300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>663500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>563400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>618000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>778600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>535800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>558800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>529400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-459000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1402,8 +1434,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1413,62 +1446,65 @@
       <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3">
-        <v>129700</v>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G20" s="3">
-        <v>100700</v>
+        <v>132700</v>
       </c>
       <c r="H20" s="3">
-        <v>92800</v>
+        <v>103100</v>
       </c>
       <c r="I20" s="3">
-        <v>53900</v>
+        <v>94900</v>
       </c>
       <c r="J20" s="3">
+        <v>55100</v>
+      </c>
+      <c r="K20" s="3">
         <v>175500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>123500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>126500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>126100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>142100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>118800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>55000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>54300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>47600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>38400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>37000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>56300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1478,36 +1514,36 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
-        <v>746100</v>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G21" s="3">
-        <v>470800</v>
+        <v>763600</v>
       </c>
       <c r="H21" s="3">
-        <v>1191900</v>
+        <v>481800</v>
       </c>
       <c r="I21" s="3">
-        <v>730100</v>
+        <v>1219900</v>
       </c>
       <c r="J21" s="3">
+        <v>747200</v>
+      </c>
+      <c r="K21" s="3">
         <v>258300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>393400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>2472000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1447600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1532,8 +1568,11 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1597,138 +1636,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-452800</v>
+        <v>-325600</v>
       </c>
       <c r="E23" s="3">
-        <v>372000</v>
+        <v>-463400</v>
       </c>
       <c r="F23" s="3">
-        <v>610400</v>
+        <v>380800</v>
       </c>
       <c r="G23" s="3">
-        <v>-123700</v>
+        <v>624700</v>
       </c>
       <c r="H23" s="3">
-        <v>1031300</v>
+        <v>-126600</v>
       </c>
       <c r="I23" s="3">
-        <v>456800</v>
+        <v>1055500</v>
       </c>
       <c r="J23" s="3">
+        <v>467500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-194500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>115200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>1179300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>874400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>143300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>782300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>618400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>672300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>826300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>574300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>595800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>585700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-424900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-105700</v>
+        <v>-115400</v>
       </c>
       <c r="E24" s="3">
-        <v>-38900</v>
+        <v>-108200</v>
       </c>
       <c r="F24" s="3">
-        <v>85800</v>
+        <v>-39800</v>
       </c>
       <c r="G24" s="3">
-        <v>-64800</v>
+        <v>87800</v>
       </c>
       <c r="H24" s="3">
-        <v>184500</v>
+        <v>-66400</v>
       </c>
       <c r="I24" s="3">
-        <v>71800</v>
+        <v>188800</v>
       </c>
       <c r="J24" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-46900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-95500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>281500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>186500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>155300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-167800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>204700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-559800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>154000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>240300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>159200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>68400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>165500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1792,138 +1840,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-347100</v>
+        <v>-210300</v>
       </c>
       <c r="E26" s="3">
-        <v>410900</v>
+        <v>-355200</v>
       </c>
       <c r="F26" s="3">
-        <v>524600</v>
+        <v>420600</v>
       </c>
       <c r="G26" s="3">
-        <v>-58800</v>
+        <v>536900</v>
       </c>
       <c r="H26" s="3">
-        <v>846800</v>
+        <v>-60200</v>
       </c>
       <c r="I26" s="3">
-        <v>385000</v>
+        <v>866700</v>
       </c>
       <c r="J26" s="3">
+        <v>394000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-147600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>210700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>992700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>719100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>311100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>577600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1178300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>518400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>585900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>415000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>527300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>420200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-451900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-378000</v>
+        <v>-208200</v>
       </c>
       <c r="E27" s="3">
-        <v>381000</v>
+        <v>-386900</v>
       </c>
       <c r="F27" s="3">
-        <v>489700</v>
+        <v>389900</v>
       </c>
       <c r="G27" s="3">
-        <v>-80800</v>
+        <v>501200</v>
       </c>
       <c r="H27" s="3">
-        <v>825800</v>
+        <v>-82700</v>
       </c>
       <c r="I27" s="3">
-        <v>374000</v>
+        <v>845200</v>
       </c>
       <c r="J27" s="3">
+        <v>382800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-165600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>179600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>949100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>663100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>241300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>510600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1140000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>480700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>552700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>376600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>490300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>378000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1987,8 +2044,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2052,8 +2112,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2117,8 +2180,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2182,8 +2248,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2193,127 +2262,133 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
-        <v>-129700</v>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G32" s="3">
-        <v>-100700</v>
+        <v>-132700</v>
       </c>
       <c r="H32" s="3">
-        <v>-92800</v>
+        <v>-103100</v>
       </c>
       <c r="I32" s="3">
-        <v>-53900</v>
+        <v>-94900</v>
       </c>
       <c r="J32" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-175500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-123500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>-126500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-126100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-142100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-118800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-55000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-54300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-47600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-38400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-37000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-56300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-378000</v>
+        <v>-208200</v>
       </c>
       <c r="E33" s="3">
-        <v>381000</v>
+        <v>-386900</v>
       </c>
       <c r="F33" s="3">
-        <v>489700</v>
+        <v>389900</v>
       </c>
       <c r="G33" s="3">
-        <v>-80800</v>
+        <v>501200</v>
       </c>
       <c r="H33" s="3">
-        <v>825800</v>
+        <v>-82700</v>
       </c>
       <c r="I33" s="3">
-        <v>374000</v>
+        <v>845200</v>
       </c>
       <c r="J33" s="3">
+        <v>382800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-165600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>179600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>949100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>663100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>241300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>510600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1140000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>480700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>552700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>376600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>490300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>378000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2377,143 +2452,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-378000</v>
+        <v>-208200</v>
       </c>
       <c r="E35" s="3">
-        <v>381000</v>
+        <v>-386900</v>
       </c>
       <c r="F35" s="3">
-        <v>489700</v>
+        <v>389900</v>
       </c>
       <c r="G35" s="3">
-        <v>-80800</v>
+        <v>501200</v>
       </c>
       <c r="H35" s="3">
-        <v>825800</v>
+        <v>-82700</v>
       </c>
       <c r="I35" s="3">
-        <v>374000</v>
+        <v>845200</v>
       </c>
       <c r="J35" s="3">
+        <v>382800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-165600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>179600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>949100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>663100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>241300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>510600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1140000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>480700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>552700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>376600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>490300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>378000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2537,8 +2621,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2562,73 +2647,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7889400</v>
+        <v>8219500</v>
       </c>
       <c r="E41" s="3">
-        <v>7086500</v>
+        <v>8074500</v>
       </c>
       <c r="F41" s="3">
-        <v>6871100</v>
+        <v>7252800</v>
       </c>
       <c r="G41" s="3">
-        <v>6339500</v>
+        <v>7032300</v>
       </c>
       <c r="H41" s="3">
-        <v>7765800</v>
+        <v>6488200</v>
       </c>
       <c r="I41" s="3">
-        <v>7228200</v>
+        <v>7947900</v>
       </c>
       <c r="J41" s="3">
+        <v>7397700</v>
+      </c>
+      <c r="K41" s="3">
         <v>8350200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11560100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>13377800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13997200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10711300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11275800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12880700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13110700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14265900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12118600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12731200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13282800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12303900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2692,8 +2781,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2733,15 +2825,15 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>4912800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2757,8 +2849,11 @@
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2822,8 +2917,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2887,8 +2985,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2952,203 +3053,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>140356100</v>
+        <v>142210700</v>
       </c>
       <c r="E47" s="3">
-        <v>149251900</v>
+        <v>143649000</v>
       </c>
       <c r="F47" s="3">
-        <v>158439000</v>
+        <v>152753500</v>
       </c>
       <c r="G47" s="3">
-        <v>158526800</v>
+        <v>162156100</v>
       </c>
       <c r="H47" s="3">
-        <v>156564900</v>
+        <v>162246000</v>
       </c>
       <c r="I47" s="3">
-        <v>154694700</v>
+        <v>160238000</v>
       </c>
       <c r="J47" s="3">
+        <v>158324000</v>
+      </c>
+      <c r="K47" s="3">
         <v>157439600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>164883900</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>159485600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>167846700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>169533700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>161833800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>168698900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>153240900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>155569100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>171034400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>175813600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>186608800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>187632400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2781700</v>
+        <v>2818400</v>
       </c>
       <c r="E48" s="3">
-        <v>2730900</v>
+        <v>2847000</v>
       </c>
       <c r="F48" s="3">
-        <v>2636100</v>
+        <v>2795000</v>
       </c>
       <c r="G48" s="3">
-        <v>2493500</v>
+        <v>2698000</v>
       </c>
       <c r="H48" s="3">
-        <v>2416700</v>
+        <v>2552000</v>
       </c>
       <c r="I48" s="3">
-        <v>2331900</v>
+        <v>2473400</v>
       </c>
       <c r="J48" s="3">
+        <v>2386600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2378800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3105400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>3164700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3215000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3307500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2957500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3202200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2294900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2244000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2211400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2242900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2239600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2232600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1422300</v>
+        <v>1543400</v>
       </c>
       <c r="E49" s="3">
-        <v>1361500</v>
+        <v>1455700</v>
       </c>
       <c r="F49" s="3">
-        <v>1329500</v>
+        <v>1393400</v>
       </c>
       <c r="G49" s="3">
-        <v>1310600</v>
+        <v>1360700</v>
       </c>
       <c r="H49" s="3">
-        <v>1397400</v>
+        <v>1341300</v>
       </c>
       <c r="I49" s="3">
-        <v>1453200</v>
+        <v>1430100</v>
       </c>
       <c r="J49" s="3">
+        <v>1487300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1382400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1561000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>3401500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1912200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4231100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1932800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1953400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1863000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1869600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2021400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2042000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2024800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2118700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3212,8 +3325,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3277,8 +3393,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3288,11 +3407,11 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>249400</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>255200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -3300,50 +3419,53 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>143600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>211600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>153100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>6439100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5808300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2574100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9734900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9921800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10226200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10604200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3407,73 +3529,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>420237500</v>
+        <v>433336700</v>
       </c>
       <c r="E54" s="3">
-        <v>447130400</v>
+        <v>430096700</v>
       </c>
       <c r="F54" s="3">
-        <v>467664900</v>
+        <v>457620600</v>
       </c>
       <c r="G54" s="3">
-        <v>458488800</v>
+        <v>478636800</v>
       </c>
       <c r="H54" s="3">
-        <v>458218500</v>
+        <v>469245400</v>
       </c>
       <c r="I54" s="3">
-        <v>449509200</v>
+        <v>468968800</v>
       </c>
       <c r="J54" s="3">
+        <v>460055200</v>
+      </c>
+      <c r="K54" s="3">
         <v>443711300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>461448300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>480592800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>495536400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>481459000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>457491400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>474043300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>439933200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>448162700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>467149600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>477894800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>499290600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>499808300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3497,8 +3625,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3522,8 +3651,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3587,8 +3717,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3625,18 +3758,18 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>2112500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3652,73 +3785,79 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>360735600</v>
+        <v>368609900</v>
       </c>
       <c r="E59" s="3">
-        <v>382057100</v>
+        <v>369198900</v>
       </c>
       <c r="F59" s="3">
-        <v>399599300</v>
+        <v>391020500</v>
       </c>
       <c r="G59" s="3">
-        <v>387065000</v>
+        <v>408974300</v>
       </c>
       <c r="H59" s="3">
-        <v>386633100</v>
+        <v>396145900</v>
       </c>
       <c r="I59" s="3">
-        <v>379317200</v>
+        <v>395703900</v>
       </c>
       <c r="J59" s="3">
+        <v>388216400</v>
+      </c>
+      <c r="K59" s="3">
         <v>369773100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>376985000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>405208700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>415096000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>405439800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>383724000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>391384700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>357369400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>367006600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>377844900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>387177400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>395586900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>391081800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3782,73 +3921,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11789300</v>
+        <v>12448700</v>
       </c>
       <c r="E61" s="3">
-        <v>11777300</v>
+        <v>12065900</v>
       </c>
       <c r="F61" s="3">
-        <v>11949800</v>
+        <v>12053600</v>
       </c>
       <c r="G61" s="3">
-        <v>11724400</v>
+        <v>12230200</v>
       </c>
       <c r="H61" s="3">
-        <v>11528900</v>
+        <v>11999500</v>
       </c>
       <c r="I61" s="3">
-        <v>11132000</v>
+        <v>11799400</v>
       </c>
       <c r="J61" s="3">
+        <v>11393100</v>
+      </c>
+      <c r="K61" s="3">
         <v>10707100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11666000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>12709100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12874200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16639000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17513100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15359200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17281900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17472400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17503200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15793100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16121100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15254800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3858,11 +4003,11 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>5651300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5783900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -3870,50 +4015,53 @@
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>6300600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>6279300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>5643500</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>12105500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5512500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2596200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9855600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17896900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10355400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10723900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3977,8 +4125,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4042,8 +4193,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4107,73 +4261,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>401218100</v>
+        <v>417877800</v>
       </c>
       <c r="E66" s="3">
-        <v>423642700</v>
+        <v>410631100</v>
       </c>
       <c r="F66" s="3">
-        <v>441089200</v>
+        <v>433581700</v>
       </c>
       <c r="G66" s="3">
-        <v>432601300</v>
+        <v>451437600</v>
       </c>
       <c r="H66" s="3">
-        <v>432103600</v>
+        <v>442750600</v>
       </c>
       <c r="I66" s="3">
-        <v>424964200</v>
+        <v>442241200</v>
       </c>
       <c r="J66" s="3">
+        <v>434934300</v>
+      </c>
+      <c r="K66" s="3">
         <v>418393300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>433973000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>453298200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>466508700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>453482700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>429517800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>444896700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>413468200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>421372000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>439360300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>450169300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>470018200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>469565100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4197,8 +4357,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4262,8 +4423,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4327,8 +4491,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4392,8 +4559,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4457,73 +4627,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13526700</v>
+        <v>14132000</v>
       </c>
       <c r="E72" s="3">
-        <v>13246500</v>
+        <v>13844100</v>
       </c>
       <c r="F72" s="3">
-        <v>12926300</v>
+        <v>13557200</v>
       </c>
       <c r="G72" s="3">
-        <v>12010700</v>
+        <v>13229600</v>
       </c>
       <c r="H72" s="3">
-        <v>11980800</v>
+        <v>12292500</v>
       </c>
       <c r="I72" s="3">
-        <v>11216800</v>
+        <v>12261800</v>
       </c>
       <c r="J72" s="3">
+        <v>11479900</v>
+      </c>
+      <c r="K72" s="3">
         <v>10363000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11930700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>12476700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12489000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12633300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11787500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12015800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9744700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9903100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10237800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8979300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9437400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9470300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4587,8 +4763,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4652,8 +4831,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4717,73 +4899,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19019400</v>
+        <v>15459000</v>
       </c>
       <c r="E76" s="3">
-        <v>23487800</v>
+        <v>19465600</v>
       </c>
       <c r="F76" s="3">
-        <v>26575700</v>
+        <v>24038800</v>
       </c>
       <c r="G76" s="3">
-        <v>25887500</v>
+        <v>27199200</v>
       </c>
       <c r="H76" s="3">
-        <v>26114900</v>
+        <v>26494900</v>
       </c>
       <c r="I76" s="3">
-        <v>24545000</v>
+        <v>26727600</v>
       </c>
       <c r="J76" s="3">
+        <v>25120900</v>
+      </c>
+      <c r="K76" s="3">
         <v>25318000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27475300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25927700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27294600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29027600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27976300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27973600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29146600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26465000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26790600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27789300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27725500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>29272500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>30243200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4847,143 +5035,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-378000</v>
+        <v>-208200</v>
       </c>
       <c r="E81" s="3">
-        <v>381000</v>
+        <v>-386900</v>
       </c>
       <c r="F81" s="3">
-        <v>489700</v>
+        <v>389900</v>
       </c>
       <c r="G81" s="3">
-        <v>-80800</v>
+        <v>501200</v>
       </c>
       <c r="H81" s="3">
-        <v>825800</v>
+        <v>-82700</v>
       </c>
       <c r="I81" s="3">
-        <v>374000</v>
+        <v>845200</v>
       </c>
       <c r="J81" s="3">
+        <v>382800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-165600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>179600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>949100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>663100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>241300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>510600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1140000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>480700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>552700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>376600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>490300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>378000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5007,47 +5204,48 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>278300</v>
+        <v>216400</v>
       </c>
       <c r="E83" s="3">
-        <v>329100</v>
+        <v>284800</v>
       </c>
       <c r="F83" s="3">
-        <v>135600</v>
+        <v>336900</v>
       </c>
       <c r="G83" s="3">
-        <v>594500</v>
+        <v>138800</v>
       </c>
       <c r="H83" s="3">
-        <v>160600</v>
+        <v>608400</v>
       </c>
       <c r="I83" s="3">
-        <v>273300</v>
+        <v>164300</v>
       </c>
       <c r="J83" s="3">
+        <v>279700</v>
+      </c>
+      <c r="K83" s="3">
         <v>452800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>278200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>1292700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>573200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5063,8 +5261,8 @@
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5072,8 +5270,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5137,8 +5338,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5202,8 +5406,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5267,8 +5474,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5332,8 +5542,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5397,73 +5610,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1511100</v>
+        <v>372600</v>
       </c>
       <c r="E89" s="3">
-        <v>68800</v>
+        <v>1546500</v>
       </c>
       <c r="F89" s="3">
-        <v>566500</v>
+        <v>70400</v>
       </c>
       <c r="G89" s="3">
-        <v>-1018300</v>
+        <v>579800</v>
       </c>
       <c r="H89" s="3">
-        <v>129700</v>
+        <v>-1042200</v>
       </c>
       <c r="I89" s="3">
-        <v>-1469200</v>
+        <v>132700</v>
       </c>
       <c r="J89" s="3">
+        <v>-1503600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2055600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-823100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>7965800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6960100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1825200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1144600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>496400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-653500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3129000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2302500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>102100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>685500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-181900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5487,73 +5706,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19900</v>
+        <v>-21400</v>
       </c>
       <c r="E91" s="3">
-        <v>-17000</v>
+        <v>-20400</v>
       </c>
       <c r="F91" s="3">
-        <v>-30900</v>
+        <v>-17400</v>
       </c>
       <c r="G91" s="3">
-        <v>-19000</v>
+        <v>-31600</v>
       </c>
       <c r="H91" s="3">
-        <v>-16000</v>
+        <v>-19400</v>
       </c>
       <c r="I91" s="3">
-        <v>-10000</v>
+        <v>-16300</v>
       </c>
       <c r="J91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-52900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-111300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-52500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-82100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-28200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5617,8 +5840,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5682,73 +5908,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>58800</v>
+        <v>13300</v>
       </c>
       <c r="E94" s="3">
-        <v>464800</v>
+        <v>60200</v>
       </c>
       <c r="F94" s="3">
-        <v>-53900</v>
+        <v>475700</v>
       </c>
       <c r="G94" s="3">
-        <v>-6000</v>
+        <v>-55100</v>
       </c>
       <c r="H94" s="3">
-        <v>-31900</v>
+        <v>-6100</v>
       </c>
       <c r="I94" s="3">
-        <v>37900</v>
+        <v>-32700</v>
       </c>
       <c r="J94" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-239400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>104800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-93800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>101600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-427500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-104700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-140000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1069900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-109800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-359000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>9400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-906200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5772,8 +6004,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5784,11 +6017,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -5796,49 +6029,52 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-62800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-337100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-198500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-197200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-196500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-167200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-180800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5902,8 +6138,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5967,8 +6206,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6032,199 +6274,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-840800</v>
+        <v>-348100</v>
       </c>
       <c r="E100" s="3">
-        <v>-330100</v>
+        <v>-860500</v>
       </c>
       <c r="F100" s="3">
-        <v>-5000</v>
+        <v>-337900</v>
       </c>
       <c r="G100" s="3">
-        <v>-398000</v>
+        <v>-5100</v>
       </c>
       <c r="H100" s="3">
-        <v>487700</v>
+        <v>-407300</v>
       </c>
       <c r="I100" s="3">
-        <v>214400</v>
+        <v>499200</v>
       </c>
       <c r="J100" s="3">
+        <v>219500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-376000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-416200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-4069100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3278100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2435300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-478800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1573000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-189400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>104100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2098300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-157100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>625600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>961400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>71800</v>
+        <v>63300</v>
       </c>
       <c r="E101" s="3">
-        <v>13000</v>
+        <v>73500</v>
       </c>
       <c r="F101" s="3">
-        <v>22900</v>
+        <v>13300</v>
       </c>
       <c r="G101" s="3">
-        <v>-3000</v>
+        <v>23500</v>
       </c>
       <c r="H101" s="3">
-        <v>-10000</v>
+        <v>-3100</v>
       </c>
       <c r="I101" s="3">
-        <v>56900</v>
+        <v>-10200</v>
       </c>
       <c r="J101" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-88800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-33200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>36000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>32900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-14400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-50900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-124100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-28500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>151500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-31700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>800900</v>
+        <v>101100</v>
       </c>
       <c r="E102" s="3">
-        <v>216400</v>
+        <v>819700</v>
       </c>
       <c r="F102" s="3">
-        <v>530600</v>
+        <v>221500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1425300</v>
+        <v>543100</v>
       </c>
       <c r="H102" s="3">
-        <v>575500</v>
+        <v>-1458700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1160000</v>
+        <v>589000</v>
       </c>
       <c r="J102" s="3">
+        <v>-1187200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2759800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1167600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>3838900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3782400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1029000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1695200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1230900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-908200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2039100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-342600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>51600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>976600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-125600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -763,16 +763,16 @@
         <v>8</v>
       </c>
       <c r="G8" s="3">
-        <v>17846600</v>
+        <v>18497000</v>
       </c>
       <c r="H8" s="3">
-        <v>7770300</v>
+        <v>8053500</v>
       </c>
       <c r="I8" s="3">
-        <v>18546900</v>
+        <v>19222800</v>
       </c>
       <c r="J8" s="3">
-        <v>9652700</v>
+        <v>10004400</v>
       </c>
       <c r="K8" s="3">
         <v>39948900</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>264400</v>
+        <v>274000</v>
       </c>
       <c r="E9" s="3">
-        <v>333800</v>
+        <v>346000</v>
       </c>
       <c r="F9" s="3">
-        <v>249100</v>
+        <v>258200</v>
       </c>
       <c r="G9" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="H9" s="3">
-        <v>595100</v>
+        <v>616800</v>
       </c>
       <c r="I9" s="3">
-        <v>142900</v>
+        <v>148100</v>
       </c>
       <c r="J9" s="3">
-        <v>209300</v>
+        <v>216900</v>
       </c>
       <c r="K9" s="3">
         <v>253300</v>
@@ -899,16 +899,16 @@
         <v>8</v>
       </c>
       <c r="G10" s="3">
-        <v>17840500</v>
+        <v>18490700</v>
       </c>
       <c r="H10" s="3">
-        <v>7175200</v>
+        <v>7436700</v>
       </c>
       <c r="I10" s="3">
-        <v>18404000</v>
+        <v>19074700</v>
       </c>
       <c r="J10" s="3">
-        <v>9443400</v>
+        <v>9787600</v>
       </c>
       <c r="K10" s="3">
         <v>39695500</v>
@@ -1120,25 +1120,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>36700</v>
+        <v>38100</v>
       </c>
       <c r="E14" s="3">
-        <v>-27600</v>
+        <v>-28600</v>
       </c>
       <c r="F14" s="3">
-        <v>-353200</v>
+        <v>-366100</v>
       </c>
       <c r="G14" s="3">
-        <v>-146000</v>
+        <v>-151300</v>
       </c>
       <c r="H14" s="3">
-        <v>-59200</v>
+        <v>-61400</v>
       </c>
       <c r="I14" s="3">
-        <v>-94900</v>
+        <v>-98400</v>
       </c>
       <c r="J14" s="3">
-        <v>57200</v>
+        <v>59200</v>
       </c>
       <c r="K14" s="3">
         <v>81800</v>
@@ -1279,25 +1279,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-2305000</v>
+        <v>-2389000</v>
       </c>
       <c r="E17" s="3">
-        <v>-22328000</v>
+        <v>-23141600</v>
       </c>
       <c r="F17" s="3">
-        <v>-8230700</v>
+        <v>-8530700</v>
       </c>
       <c r="G17" s="3">
-        <v>17354600</v>
+        <v>17987100</v>
       </c>
       <c r="H17" s="3">
-        <v>8000000</v>
+        <v>8291500</v>
       </c>
       <c r="I17" s="3">
-        <v>17586300</v>
+        <v>18227200</v>
       </c>
       <c r="J17" s="3">
-        <v>9240300</v>
+        <v>9577000</v>
       </c>
       <c r="K17" s="3">
         <v>40318900</v>
@@ -1356,16 +1356,16 @@
         <v>8</v>
       </c>
       <c r="G18" s="3">
-        <v>492000</v>
+        <v>510000</v>
       </c>
       <c r="H18" s="3">
-        <v>-229700</v>
+        <v>-238100</v>
       </c>
       <c r="I18" s="3">
-        <v>960600</v>
+        <v>995600</v>
       </c>
       <c r="J18" s="3">
-        <v>412400</v>
+        <v>427400</v>
       </c>
       <c r="K18" s="3">
         <v>-370000</v>
@@ -1450,16 +1450,16 @@
         <v>8</v>
       </c>
       <c r="G20" s="3">
-        <v>132700</v>
+        <v>137500</v>
       </c>
       <c r="H20" s="3">
-        <v>103100</v>
+        <v>106900</v>
       </c>
       <c r="I20" s="3">
-        <v>94900</v>
+        <v>98400</v>
       </c>
       <c r="J20" s="3">
-        <v>55100</v>
+        <v>57100</v>
       </c>
       <c r="K20" s="3">
         <v>175500</v>
@@ -1518,16 +1518,16 @@
         <v>8</v>
       </c>
       <c r="G21" s="3">
-        <v>763600</v>
+        <v>791400</v>
       </c>
       <c r="H21" s="3">
-        <v>481800</v>
+        <v>499400</v>
       </c>
       <c r="I21" s="3">
-        <v>1219900</v>
+        <v>1264300</v>
       </c>
       <c r="J21" s="3">
-        <v>747200</v>
+        <v>774500</v>
       </c>
       <c r="K21" s="3">
         <v>258300</v>
@@ -1645,25 +1645,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-325600</v>
+        <v>-337500</v>
       </c>
       <c r="E23" s="3">
-        <v>-463400</v>
+        <v>-480300</v>
       </c>
       <c r="F23" s="3">
-        <v>380800</v>
+        <v>394600</v>
       </c>
       <c r="G23" s="3">
-        <v>624700</v>
+        <v>647500</v>
       </c>
       <c r="H23" s="3">
-        <v>-126600</v>
+        <v>-131200</v>
       </c>
       <c r="I23" s="3">
-        <v>1055500</v>
+        <v>1094000</v>
       </c>
       <c r="J23" s="3">
-        <v>467500</v>
+        <v>484600</v>
       </c>
       <c r="K23" s="3">
         <v>-194500</v>
@@ -1713,25 +1713,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-115400</v>
+        <v>-119600</v>
       </c>
       <c r="E24" s="3">
-        <v>-108200</v>
+        <v>-112100</v>
       </c>
       <c r="F24" s="3">
-        <v>-39800</v>
+        <v>-41300</v>
       </c>
       <c r="G24" s="3">
-        <v>87800</v>
+        <v>91000</v>
       </c>
       <c r="H24" s="3">
-        <v>-66400</v>
+        <v>-68800</v>
       </c>
       <c r="I24" s="3">
-        <v>188800</v>
+        <v>195700</v>
       </c>
       <c r="J24" s="3">
-        <v>73500</v>
+        <v>76200</v>
       </c>
       <c r="K24" s="3">
         <v>-46900</v>
@@ -1849,25 +1849,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-210300</v>
+        <v>-217900</v>
       </c>
       <c r="E26" s="3">
-        <v>-355200</v>
+        <v>-368200</v>
       </c>
       <c r="F26" s="3">
-        <v>420600</v>
+        <v>435900</v>
       </c>
       <c r="G26" s="3">
-        <v>536900</v>
+        <v>556500</v>
       </c>
       <c r="H26" s="3">
-        <v>-60200</v>
+        <v>-62400</v>
       </c>
       <c r="I26" s="3">
-        <v>866700</v>
+        <v>898200</v>
       </c>
       <c r="J26" s="3">
-        <v>394000</v>
+        <v>408400</v>
       </c>
       <c r="K26" s="3">
         <v>-147600</v>
@@ -1917,25 +1917,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-208200</v>
+        <v>-215800</v>
       </c>
       <c r="E27" s="3">
-        <v>-386900</v>
+        <v>-401000</v>
       </c>
       <c r="F27" s="3">
-        <v>389900</v>
+        <v>404200</v>
       </c>
       <c r="G27" s="3">
-        <v>501200</v>
+        <v>519500</v>
       </c>
       <c r="H27" s="3">
-        <v>-82700</v>
+        <v>-85700</v>
       </c>
       <c r="I27" s="3">
-        <v>845200</v>
+        <v>876000</v>
       </c>
       <c r="J27" s="3">
-        <v>382800</v>
+        <v>396800</v>
       </c>
       <c r="K27" s="3">
         <v>-165600</v>
@@ -2266,16 +2266,16 @@
         <v>8</v>
       </c>
       <c r="G32" s="3">
-        <v>-132700</v>
+        <v>-137500</v>
       </c>
       <c r="H32" s="3">
-        <v>-103100</v>
+        <v>-106900</v>
       </c>
       <c r="I32" s="3">
-        <v>-94900</v>
+        <v>-98400</v>
       </c>
       <c r="J32" s="3">
-        <v>-55100</v>
+        <v>-57100</v>
       </c>
       <c r="K32" s="3">
         <v>-175500</v>
@@ -2325,25 +2325,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-208200</v>
+        <v>-215800</v>
       </c>
       <c r="E33" s="3">
-        <v>-386900</v>
+        <v>-401000</v>
       </c>
       <c r="F33" s="3">
-        <v>389900</v>
+        <v>404200</v>
       </c>
       <c r="G33" s="3">
-        <v>501200</v>
+        <v>519500</v>
       </c>
       <c r="H33" s="3">
-        <v>-82700</v>
+        <v>-85700</v>
       </c>
       <c r="I33" s="3">
-        <v>845200</v>
+        <v>876000</v>
       </c>
       <c r="J33" s="3">
-        <v>382800</v>
+        <v>396800</v>
       </c>
       <c r="K33" s="3">
         <v>-165600</v>
@@ -2461,25 +2461,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-208200</v>
+        <v>-215800</v>
       </c>
       <c r="E35" s="3">
-        <v>-386900</v>
+        <v>-401000</v>
       </c>
       <c r="F35" s="3">
-        <v>389900</v>
+        <v>404200</v>
       </c>
       <c r="G35" s="3">
-        <v>501200</v>
+        <v>519500</v>
       </c>
       <c r="H35" s="3">
-        <v>-82700</v>
+        <v>-85700</v>
       </c>
       <c r="I35" s="3">
-        <v>845200</v>
+        <v>876000</v>
       </c>
       <c r="J35" s="3">
-        <v>382800</v>
+        <v>396800</v>
       </c>
       <c r="K35" s="3">
         <v>-165600</v>
@@ -2654,25 +2654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8219500</v>
+        <v>8519000</v>
       </c>
       <c r="E41" s="3">
-        <v>8074500</v>
+        <v>8368800</v>
       </c>
       <c r="F41" s="3">
-        <v>7252800</v>
+        <v>7517100</v>
       </c>
       <c r="G41" s="3">
-        <v>7032300</v>
+        <v>7288600</v>
       </c>
       <c r="H41" s="3">
-        <v>6488200</v>
+        <v>6724600</v>
       </c>
       <c r="I41" s="3">
-        <v>7947900</v>
+        <v>8237600</v>
       </c>
       <c r="J41" s="3">
-        <v>7397700</v>
+        <v>7667300</v>
       </c>
       <c r="K41" s="3">
         <v>8350200</v>
@@ -3062,25 +3062,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>142210700</v>
+        <v>147393200</v>
       </c>
       <c r="E47" s="3">
-        <v>143649000</v>
+        <v>148883900</v>
       </c>
       <c r="F47" s="3">
-        <v>152753500</v>
+        <v>158320200</v>
       </c>
       <c r="G47" s="3">
-        <v>162156100</v>
+        <v>168065400</v>
       </c>
       <c r="H47" s="3">
-        <v>162246000</v>
+        <v>168158500</v>
       </c>
       <c r="I47" s="3">
-        <v>160238000</v>
+        <v>166077400</v>
       </c>
       <c r="J47" s="3">
-        <v>158324000</v>
+        <v>164093700</v>
       </c>
       <c r="K47" s="3">
         <v>157439600</v>
@@ -3130,25 +3130,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2818400</v>
+        <v>2921100</v>
       </c>
       <c r="E48" s="3">
-        <v>2847000</v>
+        <v>2950800</v>
       </c>
       <c r="F48" s="3">
-        <v>2795000</v>
+        <v>2896800</v>
       </c>
       <c r="G48" s="3">
-        <v>2698000</v>
+        <v>2796300</v>
       </c>
       <c r="H48" s="3">
-        <v>2552000</v>
+        <v>2645000</v>
       </c>
       <c r="I48" s="3">
-        <v>2473400</v>
+        <v>2563500</v>
       </c>
       <c r="J48" s="3">
-        <v>2386600</v>
+        <v>2473600</v>
       </c>
       <c r="K48" s="3">
         <v>2378800</v>
@@ -3198,25 +3198,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1543400</v>
+        <v>1599700</v>
       </c>
       <c r="E49" s="3">
-        <v>1455700</v>
+        <v>1508700</v>
       </c>
       <c r="F49" s="3">
-        <v>1393400</v>
+        <v>1444200</v>
       </c>
       <c r="G49" s="3">
-        <v>1360700</v>
+        <v>1410300</v>
       </c>
       <c r="H49" s="3">
-        <v>1341300</v>
+        <v>1390200</v>
       </c>
       <c r="I49" s="3">
-        <v>1430100</v>
+        <v>1482300</v>
       </c>
       <c r="J49" s="3">
-        <v>1487300</v>
+        <v>1541500</v>
       </c>
       <c r="K49" s="3">
         <v>1382400</v>
@@ -3411,7 +3411,7 @@
         <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>255200</v>
+        <v>264500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -3538,25 +3538,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>433336700</v>
+        <v>449128400</v>
       </c>
       <c r="E54" s="3">
-        <v>430096700</v>
+        <v>445770300</v>
       </c>
       <c r="F54" s="3">
-        <v>457620600</v>
+        <v>474297200</v>
       </c>
       <c r="G54" s="3">
-        <v>478636800</v>
+        <v>496079300</v>
       </c>
       <c r="H54" s="3">
-        <v>469245400</v>
+        <v>486345700</v>
       </c>
       <c r="I54" s="3">
-        <v>468968800</v>
+        <v>486059000</v>
       </c>
       <c r="J54" s="3">
-        <v>460055200</v>
+        <v>476820500</v>
       </c>
       <c r="K54" s="3">
         <v>443711300</v>
@@ -3794,25 +3794,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>368609900</v>
+        <v>382042700</v>
       </c>
       <c r="E59" s="3">
-        <v>369198900</v>
+        <v>382653200</v>
       </c>
       <c r="F59" s="3">
-        <v>391020500</v>
+        <v>405270100</v>
       </c>
       <c r="G59" s="3">
-        <v>408974300</v>
+        <v>423878200</v>
       </c>
       <c r="H59" s="3">
-        <v>396145900</v>
+        <v>410582300</v>
       </c>
       <c r="I59" s="3">
-        <v>395703900</v>
+        <v>410124200</v>
       </c>
       <c r="J59" s="3">
-        <v>388216400</v>
+        <v>402363700</v>
       </c>
       <c r="K59" s="3">
         <v>369773100</v>
@@ -3930,25 +3930,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12448700</v>
+        <v>12902300</v>
       </c>
       <c r="E61" s="3">
-        <v>12065900</v>
+        <v>12505600</v>
       </c>
       <c r="F61" s="3">
-        <v>12053600</v>
+        <v>12492900</v>
       </c>
       <c r="G61" s="3">
-        <v>12230200</v>
+        <v>12675900</v>
       </c>
       <c r="H61" s="3">
-        <v>11999500</v>
+        <v>12436800</v>
       </c>
       <c r="I61" s="3">
-        <v>11799400</v>
+        <v>12229400</v>
       </c>
       <c r="J61" s="3">
-        <v>11393100</v>
+        <v>11808300</v>
       </c>
       <c r="K61" s="3">
         <v>10707100</v>
@@ -4007,7 +4007,7 @@
         <v>8</v>
       </c>
       <c r="G62" s="3">
-        <v>5783900</v>
+        <v>5994600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -4270,25 +4270,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>417877800</v>
+        <v>433106100</v>
       </c>
       <c r="E66" s="3">
-        <v>410631100</v>
+        <v>425595300</v>
       </c>
       <c r="F66" s="3">
-        <v>433581700</v>
+        <v>449382300</v>
       </c>
       <c r="G66" s="3">
-        <v>451437600</v>
+        <v>467888900</v>
       </c>
       <c r="H66" s="3">
-        <v>442750600</v>
+        <v>458885300</v>
       </c>
       <c r="I66" s="3">
-        <v>442241200</v>
+        <v>458357300</v>
       </c>
       <c r="J66" s="3">
-        <v>434934300</v>
+        <v>450784200</v>
       </c>
       <c r="K66" s="3">
         <v>418393300</v>
@@ -4636,25 +4636,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14132000</v>
+        <v>14647000</v>
       </c>
       <c r="E72" s="3">
-        <v>13844100</v>
+        <v>14348600</v>
       </c>
       <c r="F72" s="3">
-        <v>13557200</v>
+        <v>14051300</v>
       </c>
       <c r="G72" s="3">
-        <v>13229600</v>
+        <v>13711700</v>
       </c>
       <c r="H72" s="3">
-        <v>12292500</v>
+        <v>12740400</v>
       </c>
       <c r="I72" s="3">
-        <v>12261800</v>
+        <v>12708700</v>
       </c>
       <c r="J72" s="3">
-        <v>11479900</v>
+        <v>11898300</v>
       </c>
       <c r="K72" s="3">
         <v>10363000</v>
@@ -4908,25 +4908,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15459000</v>
+        <v>16022400</v>
       </c>
       <c r="E76" s="3">
-        <v>19465600</v>
+        <v>20175000</v>
       </c>
       <c r="F76" s="3">
-        <v>24038800</v>
+        <v>24914800</v>
       </c>
       <c r="G76" s="3">
-        <v>27199200</v>
+        <v>28190400</v>
       </c>
       <c r="H76" s="3">
-        <v>26494900</v>
+        <v>27460400</v>
       </c>
       <c r="I76" s="3">
-        <v>26727600</v>
+        <v>27701600</v>
       </c>
       <c r="J76" s="3">
-        <v>25120900</v>
+        <v>26036300</v>
       </c>
       <c r="K76" s="3">
         <v>25318000</v>
@@ -5117,25 +5117,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-208200</v>
+        <v>-215800</v>
       </c>
       <c r="E81" s="3">
-        <v>-386900</v>
+        <v>-401000</v>
       </c>
       <c r="F81" s="3">
-        <v>389900</v>
+        <v>404200</v>
       </c>
       <c r="G81" s="3">
-        <v>501200</v>
+        <v>519500</v>
       </c>
       <c r="H81" s="3">
-        <v>-82700</v>
+        <v>-85700</v>
       </c>
       <c r="I81" s="3">
-        <v>845200</v>
+        <v>876000</v>
       </c>
       <c r="J81" s="3">
-        <v>382800</v>
+        <v>396800</v>
       </c>
       <c r="K81" s="3">
         <v>-165600</v>
@@ -5211,25 +5211,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>216400</v>
+        <v>224300</v>
       </c>
       <c r="E83" s="3">
-        <v>284800</v>
+        <v>295200</v>
       </c>
       <c r="F83" s="3">
-        <v>336900</v>
+        <v>349100</v>
       </c>
       <c r="G83" s="3">
-        <v>138800</v>
+        <v>143900</v>
       </c>
       <c r="H83" s="3">
-        <v>608400</v>
+        <v>630600</v>
       </c>
       <c r="I83" s="3">
-        <v>164300</v>
+        <v>170300</v>
       </c>
       <c r="J83" s="3">
-        <v>279700</v>
+        <v>289900</v>
       </c>
       <c r="K83" s="3">
         <v>452800</v>
@@ -5619,25 +5619,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>372600</v>
+        <v>386200</v>
       </c>
       <c r="E89" s="3">
-        <v>1546500</v>
+        <v>1602900</v>
       </c>
       <c r="F89" s="3">
-        <v>70400</v>
+        <v>73000</v>
       </c>
       <c r="G89" s="3">
-        <v>579800</v>
+        <v>600900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1042200</v>
+        <v>-1080200</v>
       </c>
       <c r="I89" s="3">
-        <v>132700</v>
+        <v>137500</v>
       </c>
       <c r="J89" s="3">
-        <v>-1503600</v>
+        <v>-1558400</v>
       </c>
       <c r="K89" s="3">
         <v>-2055600</v>
@@ -5713,25 +5713,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21400</v>
+        <v>-22200</v>
       </c>
       <c r="E91" s="3">
-        <v>-20400</v>
+        <v>-21200</v>
       </c>
       <c r="F91" s="3">
-        <v>-17400</v>
+        <v>-18000</v>
       </c>
       <c r="G91" s="3">
-        <v>-31600</v>
+        <v>-32800</v>
       </c>
       <c r="H91" s="3">
-        <v>-19400</v>
+        <v>-20100</v>
       </c>
       <c r="I91" s="3">
-        <v>-16300</v>
+        <v>-16900</v>
       </c>
       <c r="J91" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="K91" s="3">
         <v>-52900</v>
@@ -5917,25 +5917,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="E94" s="3">
-        <v>60200</v>
+        <v>62400</v>
       </c>
       <c r="F94" s="3">
-        <v>475700</v>
+        <v>493000</v>
       </c>
       <c r="G94" s="3">
-        <v>-55100</v>
+        <v>-57100</v>
       </c>
       <c r="H94" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="I94" s="3">
-        <v>-32700</v>
+        <v>-33900</v>
       </c>
       <c r="J94" s="3">
-        <v>38800</v>
+        <v>40200</v>
       </c>
       <c r="K94" s="3">
         <v>-239400</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6283,25 +6283,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-348100</v>
+        <v>-360800</v>
       </c>
       <c r="E100" s="3">
-        <v>-860500</v>
+        <v>-891900</v>
       </c>
       <c r="F100" s="3">
-        <v>-337900</v>
+        <v>-350200</v>
       </c>
       <c r="G100" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="H100" s="3">
-        <v>-407300</v>
+        <v>-422100</v>
       </c>
       <c r="I100" s="3">
-        <v>499200</v>
+        <v>517400</v>
       </c>
       <c r="J100" s="3">
-        <v>219500</v>
+        <v>227500</v>
       </c>
       <c r="K100" s="3">
         <v>-376000</v>
@@ -6351,25 +6351,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>63300</v>
+        <v>65600</v>
       </c>
       <c r="E101" s="3">
-        <v>73500</v>
+        <v>76200</v>
       </c>
       <c r="F101" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="G101" s="3">
-        <v>23500</v>
+        <v>24300</v>
       </c>
       <c r="H101" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="I101" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="J101" s="3">
-        <v>58200</v>
+        <v>60300</v>
       </c>
       <c r="K101" s="3">
         <v>-88800</v>
@@ -6419,25 +6419,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>101100</v>
+        <v>104700</v>
       </c>
       <c r="E102" s="3">
-        <v>819700</v>
+        <v>849600</v>
       </c>
       <c r="F102" s="3">
-        <v>221500</v>
+        <v>229600</v>
       </c>
       <c r="G102" s="3">
-        <v>543100</v>
+        <v>562900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1458700</v>
+        <v>-1511900</v>
       </c>
       <c r="I102" s="3">
-        <v>589000</v>
+        <v>610500</v>
       </c>
       <c r="J102" s="3">
-        <v>-1187200</v>
+        <v>-1230500</v>
       </c>
       <c r="K102" s="3">
         <v>-2759800</v>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>AEG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,99 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>23775800</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -762,135 +765,141 @@
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3">
-        <v>18497000</v>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H8" s="3">
-        <v>8053500</v>
+        <v>15793800</v>
       </c>
       <c r="I8" s="3">
-        <v>19222800</v>
+        <v>8197400</v>
       </c>
       <c r="J8" s="3">
+        <v>19566200</v>
+      </c>
+      <c r="K8" s="3">
         <v>10004400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39948900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11644200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="3">
         <v>29050900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>47363000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4127000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20221100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18665500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14526200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14738800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>17115600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11262500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20941900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16622300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>274000</v>
+        <v>60300</v>
       </c>
       <c r="E9" s="3">
-        <v>346000</v>
+        <v>278900</v>
       </c>
       <c r="F9" s="3">
-        <v>258200</v>
+        <v>352100</v>
       </c>
       <c r="G9" s="3">
-        <v>6300</v>
+        <v>262800</v>
       </c>
       <c r="H9" s="3">
-        <v>616800</v>
+        <v>6500</v>
       </c>
       <c r="I9" s="3">
-        <v>148100</v>
+        <v>627800</v>
       </c>
       <c r="J9" s="3">
+        <v>150800</v>
+      </c>
+      <c r="K9" s="3">
         <v>216900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>253300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>532400</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3">
         <v>384000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>470500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>524300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>588200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>82500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>87500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>211600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>-287700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>143600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>314600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>23715500</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
@@ -898,62 +907,65 @@
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
-        <v>18490700</v>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H10" s="3">
-        <v>7436700</v>
+        <v>15787400</v>
       </c>
       <c r="I10" s="3">
-        <v>19074700</v>
+        <v>7569500</v>
       </c>
       <c r="J10" s="3">
+        <v>19415400</v>
+      </c>
+      <c r="K10" s="3">
         <v>9787600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39695500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11111800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
         <v>28666900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>46892500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3602700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19632900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18583000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14438700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>14527300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17403300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11118900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>20627400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>16378200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1114,76 +1130,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>38100</v>
+        <v>123800</v>
       </c>
       <c r="E14" s="3">
-        <v>-28600</v>
+        <v>38800</v>
       </c>
       <c r="F14" s="3">
-        <v>-366100</v>
+        <v>-29100</v>
       </c>
       <c r="G14" s="3">
-        <v>-151300</v>
+        <v>-372600</v>
       </c>
       <c r="H14" s="3">
-        <v>-61400</v>
+        <v>119500</v>
       </c>
       <c r="I14" s="3">
-        <v>-98400</v>
+        <v>-62500</v>
       </c>
       <c r="J14" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="K14" s="3">
         <v>59200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>81800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>243900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>135300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-231300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>74700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-102900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-116500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-20300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-104100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-32100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-12100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>25800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-38700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,8 +1272,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1273,81 +1298,85 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-2389000</v>
+        <v>24977600</v>
       </c>
       <c r="E17" s="3">
-        <v>-23141600</v>
+        <v>-2431600</v>
       </c>
       <c r="F17" s="3">
-        <v>-8530700</v>
+        <v>-23555000</v>
       </c>
       <c r="G17" s="3">
-        <v>17987100</v>
+        <v>-8683000</v>
       </c>
       <c r="H17" s="3">
-        <v>8291500</v>
+        <v>15980100</v>
       </c>
       <c r="I17" s="3">
-        <v>18227200</v>
+        <v>8439700</v>
       </c>
       <c r="J17" s="3">
+        <v>18552800</v>
+      </c>
+      <c r="K17" s="3">
         <v>9577000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40318900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11652500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>27998200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>46614700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4125800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19557700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18102100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13908100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13960200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16579800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10703800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>20412600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17081300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-1201800</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -1355,62 +1384,65 @@
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
-        <v>510000</v>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H18" s="3">
-        <v>-238100</v>
+        <v>-186300</v>
       </c>
       <c r="I18" s="3">
-        <v>995600</v>
+        <v>-242300</v>
       </c>
       <c r="J18" s="3">
+        <v>1013400</v>
+      </c>
+      <c r="K18" s="3">
         <v>427400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-370000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>1052700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>748300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>663500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>563400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>618000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>778600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>535800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>558800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>529400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-459000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1435,13 +1467,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-29100</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -1449,67 +1482,70 @@
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
-        <v>137500</v>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H20" s="3">
-        <v>106900</v>
+        <v>-32300</v>
       </c>
       <c r="I20" s="3">
-        <v>98400</v>
+        <v>108800</v>
       </c>
       <c r="J20" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K20" s="3">
         <v>57100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>175500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>123500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>126500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>126100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>142100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>118800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>55000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>54300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>47600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>38400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>37000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>56300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-865800</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1517,36 +1553,36 @@
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
-        <v>791400</v>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>499400</v>
+        <v>-72200</v>
       </c>
       <c r="I21" s="3">
-        <v>1264300</v>
+        <v>508300</v>
       </c>
       <c r="J21" s="3">
+        <v>1286900</v>
+      </c>
+      <c r="K21" s="3">
         <v>774500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>258300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>393400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>2472000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1447600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1571,8 +1607,11 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1639,144 +1678,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-337500</v>
+        <v>-1230900</v>
       </c>
       <c r="E23" s="3">
-        <v>-480300</v>
+        <v>-343500</v>
       </c>
       <c r="F23" s="3">
-        <v>394600</v>
+        <v>-488900</v>
       </c>
       <c r="G23" s="3">
-        <v>647500</v>
+        <v>401700</v>
       </c>
       <c r="H23" s="3">
-        <v>-131200</v>
+        <v>-218600</v>
       </c>
       <c r="I23" s="3">
-        <v>1094000</v>
+        <v>-133500</v>
       </c>
       <c r="J23" s="3">
+        <v>1113500</v>
+      </c>
+      <c r="K23" s="3">
         <v>484600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-194500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>115200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>1179300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>874400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>143300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>782300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>618400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>672300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>826300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>574300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>595800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>585700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-424900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-119600</v>
+        <v>-278900</v>
       </c>
       <c r="E24" s="3">
-        <v>-112100</v>
+        <v>-121700</v>
       </c>
       <c r="F24" s="3">
-        <v>-41300</v>
+        <v>-114200</v>
       </c>
       <c r="G24" s="3">
-        <v>91000</v>
+        <v>-42000</v>
       </c>
       <c r="H24" s="3">
-        <v>-68800</v>
+        <v>-104500</v>
       </c>
       <c r="I24" s="3">
-        <v>195700</v>
+        <v>-70000</v>
       </c>
       <c r="J24" s="3">
+        <v>199200</v>
+      </c>
+      <c r="K24" s="3">
         <v>76200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-46900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-95500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>281500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>186500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>155300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-167800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>204700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-559800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>154000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>240300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>159200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>68400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>165500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1843,144 +1891,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-217900</v>
+        <v>-952000</v>
       </c>
       <c r="E26" s="3">
-        <v>-368200</v>
+        <v>-221800</v>
       </c>
       <c r="F26" s="3">
-        <v>435900</v>
+        <v>-374800</v>
       </c>
       <c r="G26" s="3">
-        <v>556500</v>
+        <v>443700</v>
       </c>
       <c r="H26" s="3">
-        <v>-62400</v>
+        <v>-114200</v>
       </c>
       <c r="I26" s="3">
-        <v>898200</v>
+        <v>-63500</v>
       </c>
       <c r="J26" s="3">
+        <v>914300</v>
+      </c>
+      <c r="K26" s="3">
         <v>408400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-147600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>210700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>992700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>719100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>311100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>577600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1178300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>518400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>585900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>415000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>527300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>420200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-451900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-215800</v>
+        <v>-958400</v>
       </c>
       <c r="E27" s="3">
-        <v>-401000</v>
+        <v>-219700</v>
       </c>
       <c r="F27" s="3">
-        <v>404200</v>
+        <v>-408100</v>
       </c>
       <c r="G27" s="3">
-        <v>519500</v>
+        <v>411400</v>
       </c>
       <c r="H27" s="3">
-        <v>-85700</v>
+        <v>-150800</v>
       </c>
       <c r="I27" s="3">
-        <v>876000</v>
+        <v>-87200</v>
       </c>
       <c r="J27" s="3">
+        <v>891700</v>
+      </c>
+      <c r="K27" s="3">
         <v>396800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-165600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>179600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>949100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>663100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>241300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>510600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1140000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>480700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>552700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>376600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>490300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>378000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2047,31 +2104,34 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-1592700</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>680600</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2115,8 +2175,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2183,8 +2246,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2251,13 +2317,16 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>29100</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
@@ -2265,130 +2334,136 @@
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="3">
-        <v>-137500</v>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H32" s="3">
-        <v>-106900</v>
+        <v>32300</v>
       </c>
       <c r="I32" s="3">
-        <v>-98400</v>
+        <v>-108800</v>
       </c>
       <c r="J32" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-57100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-175500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-123500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>-126500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-126100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-142100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-118800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-55000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-54300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-47600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-38400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-37000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-56300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-215800</v>
+        <v>-2551200</v>
       </c>
       <c r="E33" s="3">
-        <v>-401000</v>
+        <v>-219700</v>
       </c>
       <c r="F33" s="3">
-        <v>404200</v>
+        <v>-408100</v>
       </c>
       <c r="G33" s="3">
-        <v>519500</v>
+        <v>411400</v>
       </c>
       <c r="H33" s="3">
-        <v>-85700</v>
+        <v>529800</v>
       </c>
       <c r="I33" s="3">
-        <v>876000</v>
+        <v>-87200</v>
       </c>
       <c r="J33" s="3">
+        <v>891700</v>
+      </c>
+      <c r="K33" s="3">
         <v>396800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-165600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>179600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>949100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>663100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>241300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>510600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1140000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>480700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>552700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>376600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>490300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>378000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2455,149 +2530,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-215800</v>
+        <v>-2551200</v>
       </c>
       <c r="E35" s="3">
-        <v>-401000</v>
+        <v>-219700</v>
       </c>
       <c r="F35" s="3">
-        <v>404200</v>
+        <v>-408100</v>
       </c>
       <c r="G35" s="3">
-        <v>519500</v>
+        <v>411400</v>
       </c>
       <c r="H35" s="3">
-        <v>-85700</v>
+        <v>529800</v>
       </c>
       <c r="I35" s="3">
-        <v>876000</v>
+        <v>-87200</v>
       </c>
       <c r="J35" s="3">
+        <v>891700</v>
+      </c>
+      <c r="K35" s="3">
         <v>396800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-165600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>179600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>949100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>663100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>241300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>510600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1140000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>480700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>552700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>376600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>490300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>378000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2622,8 +2706,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2648,76 +2733,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8519000</v>
+        <v>3669000</v>
       </c>
       <c r="E41" s="3">
-        <v>8368800</v>
+        <v>8671200</v>
       </c>
       <c r="F41" s="3">
-        <v>7517100</v>
+        <v>8518300</v>
       </c>
       <c r="G41" s="3">
-        <v>7288600</v>
+        <v>7651400</v>
       </c>
       <c r="H41" s="3">
-        <v>6724600</v>
+        <v>7418800</v>
       </c>
       <c r="I41" s="3">
-        <v>8237600</v>
+        <v>6844800</v>
       </c>
       <c r="J41" s="3">
+        <v>8384700</v>
+      </c>
+      <c r="K41" s="3">
         <v>7667300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8350200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11560100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>13377800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13997200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10711300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11275800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12880700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13110700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14265900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12118600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12731200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13282800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12303900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2784,8 +2873,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2828,15 +2920,15 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>4912800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2852,8 +2944,11 @@
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2920,8 +3015,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2988,8 +3086,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3056,212 +3157,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>147393200</v>
+        <v>84401000</v>
       </c>
       <c r="E47" s="3">
-        <v>148883900</v>
+        <v>150026200</v>
       </c>
       <c r="F47" s="3">
-        <v>158320200</v>
+        <v>151543500</v>
       </c>
       <c r="G47" s="3">
-        <v>168065400</v>
+        <v>161148400</v>
       </c>
       <c r="H47" s="3">
-        <v>168158500</v>
+        <v>171067700</v>
       </c>
       <c r="I47" s="3">
-        <v>166077400</v>
+        <v>171162500</v>
       </c>
       <c r="J47" s="3">
+        <v>169044200</v>
+      </c>
+      <c r="K47" s="3">
         <v>164093700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>157439600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>164883900</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>159485600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>167846700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>169533700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>161833800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>168698900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>153240900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>155569100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>171034400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>175813600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>186608800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>187632400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2921100</v>
+        <v>63500</v>
       </c>
       <c r="E48" s="3">
-        <v>2950800</v>
+        <v>2973300</v>
       </c>
       <c r="F48" s="3">
-        <v>2896800</v>
+        <v>3003500</v>
       </c>
       <c r="G48" s="3">
-        <v>2796300</v>
+        <v>2948600</v>
       </c>
       <c r="H48" s="3">
-        <v>2645000</v>
+        <v>2846200</v>
       </c>
       <c r="I48" s="3">
-        <v>2563500</v>
+        <v>2692300</v>
       </c>
       <c r="J48" s="3">
+        <v>2609300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2473600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2378800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3105400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>3164700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3215000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3307500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2957500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3202200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2294900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2244000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2211400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2242900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2239600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2232600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1599700</v>
+        <v>1335400</v>
       </c>
       <c r="E49" s="3">
+        <v>1628300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1535700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1470000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1435500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1415000</v>
+      </c>
+      <c r="J49" s="3">
         <v>1508700</v>
       </c>
-      <c r="F49" s="3">
-        <v>1444200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1410300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1390200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1482300</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1541500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1382400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1561000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>3401500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1912200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4231100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1932800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1953400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1863000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1869600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2021400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2042000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2024800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2118700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3328,8 +3441,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3396,13 +3512,16 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>97799800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -3410,11 +3529,11 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>264500</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
+        <v>269200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -3422,50 +3541,53 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>143600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>211600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>153100</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>6439100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5808300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2574100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9734900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9921800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10226200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10604200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3532,76 +3654,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>449128400</v>
+        <v>431768000</v>
       </c>
       <c r="E54" s="3">
-        <v>445770300</v>
+        <v>457151600</v>
       </c>
       <c r="F54" s="3">
-        <v>474297200</v>
+        <v>453733500</v>
       </c>
       <c r="G54" s="3">
-        <v>496079300</v>
+        <v>482770000</v>
       </c>
       <c r="H54" s="3">
-        <v>486345700</v>
+        <v>504941200</v>
       </c>
       <c r="I54" s="3">
-        <v>486059000</v>
+        <v>495033700</v>
       </c>
       <c r="J54" s="3">
+        <v>494741900</v>
+      </c>
+      <c r="K54" s="3">
         <v>476820500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>443711300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>461448300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>480592800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>495536400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>481459000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>457491400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>474043300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>439933200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>448162700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>467149600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>477894800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>499290600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>499808300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3626,8 +3754,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3652,8 +3781,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3720,8 +3850,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3761,18 +3894,18 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>2112500</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3788,76 +3921,82 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>382042700</v>
+        <v>300782500</v>
       </c>
       <c r="E59" s="3">
-        <v>382653200</v>
+        <v>388867500</v>
       </c>
       <c r="F59" s="3">
-        <v>405270100</v>
+        <v>389488900</v>
       </c>
       <c r="G59" s="3">
-        <v>423878200</v>
+        <v>412509800</v>
       </c>
       <c r="H59" s="3">
-        <v>410582300</v>
+        <v>431450300</v>
       </c>
       <c r="I59" s="3">
-        <v>410124200</v>
+        <v>417916900</v>
       </c>
       <c r="J59" s="3">
+        <v>417450600</v>
+      </c>
+      <c r="K59" s="3">
         <v>402363700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>369773100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>376985000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>405208700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>415096000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>405439800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>383724000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>391384700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>357369400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>367006600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>377844900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>387177400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>395586900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>391081800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3924,81 +4063,87 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6961100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>13132800</v>
+      </c>
+      <c r="F61" s="3">
+        <v>12729000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>12716000</v>
+      </c>
+      <c r="H61" s="3">
         <v>12902300</v>
       </c>
-      <c r="E61" s="3">
-        <v>12505600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>12492900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>12675900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>12436800</v>
-      </c>
       <c r="I61" s="3">
-        <v>12229400</v>
+        <v>12659000</v>
       </c>
       <c r="J61" s="3">
+        <v>12447900</v>
+      </c>
+      <c r="K61" s="3">
         <v>11808300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10707100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11666000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>12709100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12874200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16639000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17513100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15359200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17281900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17472400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17503200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15793100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16121100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15254800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>91126200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -4006,11 +4151,11 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>5994600</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6101700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -4018,50 +4163,53 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>6300600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>6279300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>5643500</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>12105500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5512500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2596200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9855600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17896900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10355400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10723900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4128,8 +4276,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4196,8 +4347,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4264,76 +4418,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>433106100</v>
+        <v>417355800</v>
       </c>
       <c r="E66" s="3">
-        <v>425595300</v>
+        <v>440843000</v>
       </c>
       <c r="F66" s="3">
-        <v>449382300</v>
+        <v>433198100</v>
       </c>
       <c r="G66" s="3">
-        <v>467888900</v>
+        <v>457410000</v>
       </c>
       <c r="H66" s="3">
-        <v>458885300</v>
+        <v>476247200</v>
       </c>
       <c r="I66" s="3">
-        <v>458357300</v>
+        <v>467082800</v>
       </c>
       <c r="J66" s="3">
+        <v>466545400</v>
+      </c>
+      <c r="K66" s="3">
         <v>450784200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>418393300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>433973000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>453298200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>466508700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>453482700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>429517800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>444896700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>413468200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>421372000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>439360300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>450169300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>470018200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>469565100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4358,8 +4518,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4426,8 +4587,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4494,8 +4658,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4562,8 +4729,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4630,76 +4800,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14647000</v>
+        <v>11830800</v>
       </c>
       <c r="E72" s="3">
-        <v>14348600</v>
+        <v>14908600</v>
       </c>
       <c r="F72" s="3">
-        <v>14051300</v>
+        <v>14604900</v>
       </c>
       <c r="G72" s="3">
-        <v>13711700</v>
+        <v>14302300</v>
       </c>
       <c r="H72" s="3">
-        <v>12740400</v>
+        <v>13956600</v>
       </c>
       <c r="I72" s="3">
-        <v>12708700</v>
+        <v>12968000</v>
       </c>
       <c r="J72" s="3">
+        <v>12935700</v>
+      </c>
+      <c r="K72" s="3">
         <v>11898300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10363000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11930700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>12476700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12489000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12633300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11787500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12015800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9744700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9903100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10237800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8979300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9437400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9470300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4766,8 +4942,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4834,8 +5013,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4902,76 +5084,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16022400</v>
+        <v>14412200</v>
       </c>
       <c r="E76" s="3">
-        <v>20175000</v>
+        <v>16308600</v>
       </c>
       <c r="F76" s="3">
-        <v>24914800</v>
+        <v>20535400</v>
       </c>
       <c r="G76" s="3">
-        <v>28190400</v>
+        <v>25359900</v>
       </c>
       <c r="H76" s="3">
-        <v>27460400</v>
+        <v>28694000</v>
       </c>
       <c r="I76" s="3">
-        <v>27701600</v>
+        <v>27950900</v>
       </c>
       <c r="J76" s="3">
+        <v>28196500</v>
+      </c>
+      <c r="K76" s="3">
         <v>26036300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25318000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27475300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25927700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27294600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29027600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27976300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27973600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29146600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26465000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26790600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27789300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27725500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>29272500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>30243200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5038,149 +5226,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-215800</v>
+        <v>-2551200</v>
       </c>
       <c r="E81" s="3">
-        <v>-401000</v>
+        <v>-219700</v>
       </c>
       <c r="F81" s="3">
-        <v>404200</v>
+        <v>-408100</v>
       </c>
       <c r="G81" s="3">
-        <v>519500</v>
+        <v>411400</v>
       </c>
       <c r="H81" s="3">
-        <v>-85700</v>
+        <v>529800</v>
       </c>
       <c r="I81" s="3">
-        <v>876000</v>
+        <v>-87200</v>
       </c>
       <c r="J81" s="3">
+        <v>891700</v>
+      </c>
+      <c r="K81" s="3">
         <v>396800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-165600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>179600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>949100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>663100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>241300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>510600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1140000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>480700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>552700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>376600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>490300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>378000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5205,50 +5402,51 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>224300</v>
+        <v>365100</v>
       </c>
       <c r="E83" s="3">
-        <v>295200</v>
+        <v>228300</v>
       </c>
       <c r="F83" s="3">
-        <v>349100</v>
+        <v>300500</v>
       </c>
       <c r="G83" s="3">
-        <v>143900</v>
+        <v>355400</v>
       </c>
       <c r="H83" s="3">
-        <v>630600</v>
+        <v>146500</v>
       </c>
       <c r="I83" s="3">
-        <v>170300</v>
+        <v>641800</v>
       </c>
       <c r="J83" s="3">
+        <v>173400</v>
+      </c>
+      <c r="K83" s="3">
         <v>289900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>452800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>278200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>1292700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>573200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5264,8 +5462,8 @@
       <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5273,8 +5471,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5341,8 +5542,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5409,8 +5613,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5477,8 +5684,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5545,8 +5755,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5613,76 +5826,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>386200</v>
+        <v>971400</v>
       </c>
       <c r="E89" s="3">
-        <v>1602900</v>
+        <v>393100</v>
       </c>
       <c r="F89" s="3">
-        <v>73000</v>
+        <v>1631500</v>
       </c>
       <c r="G89" s="3">
-        <v>600900</v>
+        <v>74300</v>
       </c>
       <c r="H89" s="3">
-        <v>-1080200</v>
+        <v>611700</v>
       </c>
       <c r="I89" s="3">
-        <v>137500</v>
+        <v>-1099500</v>
       </c>
       <c r="J89" s="3">
+        <v>140000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1558400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2055600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-823100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>7965800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6960100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1825200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1144600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>496400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-653500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3129000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2302500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>102100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>685500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-181900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5707,76 +5926,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-111300</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-22200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-21200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-32800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-52900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-111300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-52500</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-82100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-22200</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-28200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5843,8 +6066,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5911,76 +6137,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>13800</v>
+        <v>84000</v>
       </c>
       <c r="E94" s="3">
-        <v>62400</v>
+        <v>14000</v>
       </c>
       <c r="F94" s="3">
-        <v>493000</v>
+        <v>63500</v>
       </c>
       <c r="G94" s="3">
-        <v>-57100</v>
+        <v>501800</v>
       </c>
       <c r="H94" s="3">
-        <v>-6300</v>
+        <v>-58200</v>
       </c>
       <c r="I94" s="3">
-        <v>-33900</v>
+        <v>-6500</v>
       </c>
       <c r="J94" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="K94" s="3">
         <v>40200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-239400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>104800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-93800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>101600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-427500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-104700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-140000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1069900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-109800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-359000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>9400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-906200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6005,8 +6237,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6020,11 +6253,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1100</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6032,49 +6265,52 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-62800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-337100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-198500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-197200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-196500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-167200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-180800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6141,8 +6377,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6209,8 +6448,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6277,208 +6519,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-413500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-360800</v>
       </c>
-      <c r="E100" s="3">
-        <v>-891900</v>
-      </c>
       <c r="F100" s="3">
-        <v>-350200</v>
+        <v>-885200</v>
       </c>
       <c r="G100" s="3">
-        <v>-5300</v>
+        <v>-356500</v>
       </c>
       <c r="H100" s="3">
-        <v>-422100</v>
+        <v>-5400</v>
       </c>
       <c r="I100" s="3">
-        <v>517400</v>
+        <v>-429700</v>
       </c>
       <c r="J100" s="3">
+        <v>526600</v>
+      </c>
+      <c r="K100" s="3">
         <v>227500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-376000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-416200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-4069100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3278100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2435300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-478800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1573000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-189400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>104100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2098300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-157100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>625600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>961400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>65600</v>
+        <v>-99100</v>
       </c>
       <c r="E101" s="3">
-        <v>76200</v>
+        <v>66800</v>
       </c>
       <c r="F101" s="3">
-        <v>13800</v>
+        <v>77500</v>
       </c>
       <c r="G101" s="3">
-        <v>24300</v>
+        <v>14000</v>
       </c>
       <c r="H101" s="3">
+        <v>24800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3200</v>
       </c>
-      <c r="I101" s="3">
-        <v>-10600</v>
-      </c>
       <c r="J101" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K101" s="3">
         <v>60300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-88800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-33200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>36000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>32900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-14400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-50900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-124100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-28500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>151500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-31700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>104700</v>
+        <v>520100</v>
       </c>
       <c r="E102" s="3">
-        <v>849600</v>
+        <v>106600</v>
       </c>
       <c r="F102" s="3">
-        <v>229600</v>
+        <v>864800</v>
       </c>
       <c r="G102" s="3">
-        <v>562900</v>
+        <v>233700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1511900</v>
+        <v>572900</v>
       </c>
       <c r="I102" s="3">
-        <v>610500</v>
+        <v>-1538900</v>
       </c>
       <c r="J102" s="3">
+        <v>621400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1230500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2759800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1167600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>3838900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3782400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1029000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1695200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1230900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-908200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2039100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-342600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>51600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>976600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-125600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>AEG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,331 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23775800</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
+        <v>722000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1126400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>23840400</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="3">
-        <v>15793800</v>
+        <v>794600</v>
       </c>
       <c r="I8" s="3">
+        <v>1173000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>15899400</v>
+      </c>
+      <c r="K8" s="3">
         <v>8197400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>19566200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10004400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>39948900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11644200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3">
         <v>29050900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>47363000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4127000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>20221100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>18665500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>14526200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>14738800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>17115600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>11262500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>20941900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>16622300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>60300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>278900</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>352100</v>
+        <v>60700</v>
       </c>
       <c r="G9" s="3">
-        <v>262800</v>
+        <v>280800</v>
       </c>
       <c r="H9" s="3">
+        <v>354500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>264500</v>
+      </c>
+      <c r="J9" s="3">
         <v>6500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>627800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>150800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>216900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>253300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>532400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="3">
         <v>384000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>470500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>524300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>588200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>82500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>87500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>211600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>-287700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>143600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>314600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>23715500</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
+      <c r="F10" s="3">
+        <v>23779700</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="3">
-        <v>15787400</v>
+        <v>440100</v>
       </c>
       <c r="I10" s="3">
+        <v>908500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>15892900</v>
+      </c>
+      <c r="K10" s="3">
         <v>7569500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>19415400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>9787600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>39695500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>11111800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="3">
         <v>28666900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>46892500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>3602700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>19632900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>18583000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>14438700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>14527300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>17403300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>11118900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>20627400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>16378200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1015,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1062,8 +1088,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1133,79 +1165,91 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>123800</v>
+        <v>380500</v>
       </c>
       <c r="E14" s="3">
-        <v>38800</v>
+        <v>104100</v>
       </c>
       <c r="F14" s="3">
-        <v>-29100</v>
+        <v>30400</v>
       </c>
       <c r="G14" s="3">
-        <v>-372600</v>
+        <v>39000</v>
       </c>
       <c r="H14" s="3">
-        <v>119500</v>
+        <v>-59600</v>
       </c>
       <c r="I14" s="3">
+        <v>-310100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>120300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-62500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>59200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>81800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>243900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>135300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-231300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>74700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-102900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-116500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-20300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-104100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-32100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-12100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>25800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>-38700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1275,8 +1319,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1299,150 +1349,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24977600</v>
+        <v>1197900</v>
       </c>
       <c r="E17" s="3">
-        <v>-2431600</v>
+        <v>946400</v>
       </c>
       <c r="F17" s="3">
-        <v>-23555000</v>
+        <v>25050300</v>
       </c>
       <c r="G17" s="3">
-        <v>-8683000</v>
+        <v>-2447900</v>
       </c>
       <c r="H17" s="3">
-        <v>15980100</v>
+        <v>908500</v>
       </c>
       <c r="I17" s="3">
+        <v>519300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>16087000</v>
+      </c>
+      <c r="K17" s="3">
         <v>8439700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>18552800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9577000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>40318900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11652500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>27998200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>46614700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4125800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>19557700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>18102100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>13908100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>13960200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>16579800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>10703800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>20412600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>17081300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1201800</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
+        <v>-475900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>180000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1209900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="3">
-        <v>-186300</v>
+        <v>-113800</v>
       </c>
       <c r="I18" s="3">
+        <v>653700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-187500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-242300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1013400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>427400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-370000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1052700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>748300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>663500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>563400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>618000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>778600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>535800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>558800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>529400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-459000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1468,127 +1532,135 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-29100</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
+        <v>52000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-29300</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="3">
-        <v>-32300</v>
+        <v>62900</v>
       </c>
       <c r="I20" s="3">
+        <v>56400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K20" s="3">
         <v>108800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>57100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>175500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>123500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>126500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>126100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>142100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>118800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>55000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>54300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>47600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>38400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>37000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>56300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-865800</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+      <c r="F21" s="3">
+        <v>-871600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>-72200</v>
+        <v>251500</v>
       </c>
       <c r="I21" s="3">
+        <v>-197300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="K21" s="3">
         <v>508300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1286900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>774500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>258300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>393400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2472000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1447600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1610,8 +1682,14 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1681,150 +1759,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1230900</v>
+        <v>-423900</v>
       </c>
       <c r="E23" s="3">
-        <v>-343500</v>
+        <v>222200</v>
       </c>
       <c r="F23" s="3">
-        <v>-488900</v>
+        <v>-1239100</v>
       </c>
       <c r="G23" s="3">
-        <v>401700</v>
+        <v>-345800</v>
       </c>
       <c r="H23" s="3">
-        <v>-218600</v>
+        <v>-51000</v>
       </c>
       <c r="I23" s="3">
+        <v>710100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-220100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-133500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1113500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>484600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-194500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>115200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1179300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>874400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>143300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>782300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>618400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>672300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>826300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>574300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>595800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>585700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-424900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-278900</v>
+        <v>-112700</v>
       </c>
       <c r="E24" s="3">
-        <v>-121700</v>
+        <v>37900</v>
       </c>
       <c r="F24" s="3">
-        <v>-114200</v>
+        <v>-280800</v>
       </c>
       <c r="G24" s="3">
-        <v>-42000</v>
+        <v>-122500</v>
       </c>
       <c r="H24" s="3">
-        <v>-104500</v>
+        <v>-19500</v>
       </c>
       <c r="I24" s="3">
+        <v>51000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-105200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-70000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>199200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>76200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-46900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-95500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>281500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>186500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>155300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-167800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>204700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-559800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>154000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>240300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>159200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>68400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>165500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1894,150 +1990,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-952000</v>
+        <v>-311100</v>
       </c>
       <c r="E26" s="3">
-        <v>-221800</v>
+        <v>184300</v>
       </c>
       <c r="F26" s="3">
-        <v>-374800</v>
+        <v>-958300</v>
       </c>
       <c r="G26" s="3">
-        <v>443700</v>
+        <v>-223300</v>
       </c>
       <c r="H26" s="3">
-        <v>-114200</v>
+        <v>-31400</v>
       </c>
       <c r="I26" s="3">
+        <v>659100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-114900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-63500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>914300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>408400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-147600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>210700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>992700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>719100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>311100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>577600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1178300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>518400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>585900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>415000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>527300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>420200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-451900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-958400</v>
+        <v>-333900</v>
       </c>
       <c r="E27" s="3">
-        <v>-219700</v>
+        <v>178900</v>
       </c>
       <c r="F27" s="3">
-        <v>-408100</v>
+        <v>-964800</v>
       </c>
       <c r="G27" s="3">
-        <v>411400</v>
+        <v>-221200</v>
       </c>
       <c r="H27" s="3">
-        <v>-150800</v>
+        <v>-67200</v>
       </c>
       <c r="I27" s="3">
+        <v>628800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-151800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-87200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>891700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>396800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-165600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>179600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>949100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>663100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>241300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>510600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1140000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>480700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>552700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>376600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>490300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>378000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2107,37 +2221,43 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-1592700</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>379400</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-468300</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-1603400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>680600</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+        <v>-145300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-432600</v>
+      </c>
+      <c r="J29" s="3">
+        <v>685200</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2178,8 +2298,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2249,8 +2375,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2320,150 +2452,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>29100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
+        <v>-52000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>29300</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="3">
-        <v>32300</v>
+        <v>-62900</v>
       </c>
       <c r="I32" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-108800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-57100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-175500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-123500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-126500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-126100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-142100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-118800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-55000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-54300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-47600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-38400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-37000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-56300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2551200</v>
+        <v>45500</v>
       </c>
       <c r="E33" s="3">
-        <v>-219700</v>
+        <v>-289500</v>
       </c>
       <c r="F33" s="3">
-        <v>-408100</v>
+        <v>-2568200</v>
       </c>
       <c r="G33" s="3">
-        <v>411400</v>
+        <v>-221200</v>
       </c>
       <c r="H33" s="3">
-        <v>529800</v>
+        <v>-212500</v>
       </c>
       <c r="I33" s="3">
+        <v>196200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>533400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-87200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>891700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>396800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-165600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>179600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>949100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>663100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>241300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>510600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1140000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>480700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>552700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>376600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>490300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>378000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2533,155 +2683,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2551200</v>
+        <v>45500</v>
       </c>
       <c r="E35" s="3">
-        <v>-219700</v>
+        <v>-289500</v>
       </c>
       <c r="F35" s="3">
-        <v>-408100</v>
+        <v>-2568200</v>
       </c>
       <c r="G35" s="3">
-        <v>411400</v>
+        <v>-221200</v>
       </c>
       <c r="H35" s="3">
-        <v>529800</v>
+        <v>-212500</v>
       </c>
       <c r="I35" s="3">
+        <v>196200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>533400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-87200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>891700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>396800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-165600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>179600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>949100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>663100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>241300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>510600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1140000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>480700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>552700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>376600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>490300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>378000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2707,8 +2875,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2734,79 +2904,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3669000</v>
+        <v>4070800</v>
       </c>
       <c r="E41" s="3">
-        <v>8671200</v>
+        <v>3688100</v>
       </c>
       <c r="F41" s="3">
-        <v>8518300</v>
+        <v>8729200</v>
       </c>
       <c r="G41" s="3">
-        <v>7651400</v>
+        <v>8575200</v>
       </c>
       <c r="H41" s="3">
-        <v>7418800</v>
+        <v>7702500</v>
       </c>
       <c r="I41" s="3">
+        <v>7468400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6890500</v>
+      </c>
+      <c r="K41" s="3">
         <v>6844800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8384700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7667300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8350200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11560100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>13377800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>13997200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10711300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>11275800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>12880700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>13110700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>14265900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>12118600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>12731200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>13282800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>12303900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2876,8 +3054,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2923,18 +3107,18 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>4912800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2947,8 +3131,14 @@
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3018,8 +3208,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3089,8 +3285,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3160,221 +3362,245 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>84401000</v>
+        <v>286120000</v>
       </c>
       <c r="E47" s="3">
-        <v>150026200</v>
+        <v>360630200</v>
       </c>
       <c r="F47" s="3">
-        <v>151543500</v>
+        <v>151029200</v>
       </c>
       <c r="G47" s="3">
-        <v>161148400</v>
+        <v>152556700</v>
       </c>
       <c r="H47" s="3">
-        <v>171067700</v>
+        <v>162225800</v>
       </c>
       <c r="I47" s="3">
+        <v>172211500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>172306900</v>
+      </c>
+      <c r="K47" s="3">
         <v>171162500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>169044200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>164093700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>157439600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>164883900</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3">
         <v>159485600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>167846700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>169533700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>161833800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>168698900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>153240900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>155569100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>171034400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>175813600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>186608800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>187632400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>63500</v>
+        <v>546400</v>
       </c>
       <c r="E48" s="3">
-        <v>2973300</v>
+        <v>544200</v>
       </c>
       <c r="F48" s="3">
-        <v>3003500</v>
+        <v>2993200</v>
       </c>
       <c r="G48" s="3">
-        <v>2948600</v>
+        <v>3023600</v>
       </c>
       <c r="H48" s="3">
-        <v>2846200</v>
+        <v>2968300</v>
       </c>
       <c r="I48" s="3">
+        <v>2865300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2710300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2692300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2609300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2473600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2378800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3105400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>3164700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3215000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3307500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2957500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3202200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2294900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2244000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2211400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2242900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2239600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2232600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1335400</v>
+        <v>397900</v>
       </c>
       <c r="E49" s="3">
-        <v>1628300</v>
+        <v>455300</v>
       </c>
       <c r="F49" s="3">
-        <v>1535700</v>
+        <v>1639200</v>
       </c>
       <c r="G49" s="3">
-        <v>1470000</v>
+        <v>1545900</v>
       </c>
       <c r="H49" s="3">
-        <v>1435500</v>
+        <v>1479800</v>
       </c>
       <c r="I49" s="3">
+        <v>1445100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1424500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1415000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1508700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1541500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1382400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1561000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3401500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1912200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4231100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1932800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1953400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1863000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1869600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2021400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2042000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2024800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2118700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3444,8 +3670,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3515,16 +3747,22 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>97799800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+        <v>98571800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>98609700</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -3532,11 +3770,11 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>269200</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>271000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -3544,50 +3782,56 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>143600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>211600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>153100</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>6439100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>5808300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2574100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>9734900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>9921800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>10226200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>10604200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3657,79 +3901,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>431768000</v>
+        <v>415495400</v>
       </c>
       <c r="E54" s="3">
-        <v>457151600</v>
+        <v>412486000</v>
       </c>
       <c r="F54" s="3">
-        <v>453733500</v>
+        <v>460208000</v>
       </c>
       <c r="G54" s="3">
-        <v>482770000</v>
+        <v>456767100</v>
       </c>
       <c r="H54" s="3">
-        <v>504941200</v>
+        <v>485997700</v>
       </c>
       <c r="I54" s="3">
+        <v>508317100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>498343400</v>
+      </c>
+      <c r="K54" s="3">
         <v>495033700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>494741900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>476820500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>443711300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>461448300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>480592800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>495536400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>481459000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>457491400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>474043300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>439933200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>448162700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>467149600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>477894800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>499290600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>499808300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3755,8 +4011,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3782,8 +4040,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3853,8 +4113,14 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3897,21 +4163,21 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>2112500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3924,79 +4190,91 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300782500</v>
+        <v>294223700</v>
       </c>
       <c r="E59" s="3">
-        <v>388867500</v>
+        <v>492904500</v>
       </c>
       <c r="F59" s="3">
-        <v>389488900</v>
+        <v>391467400</v>
       </c>
       <c r="G59" s="3">
-        <v>412509800</v>
+        <v>392093000</v>
       </c>
       <c r="H59" s="3">
-        <v>431450300</v>
+        <v>415267800</v>
       </c>
       <c r="I59" s="3">
+        <v>434334900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>420711000</v>
+      </c>
+      <c r="K59" s="3">
         <v>417916900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>417450600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>402363700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>369773100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>376985000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>405208700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>415096000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>405439800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>383724000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>391384700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>357369400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>367006600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>377844900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>387177400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>395586900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>391081800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4066,87 +4344,99 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6961100</v>
+        <v>5848700</v>
       </c>
       <c r="E61" s="3">
-        <v>13132800</v>
+        <v>7007600</v>
       </c>
       <c r="F61" s="3">
-        <v>12729000</v>
+        <v>13220600</v>
       </c>
       <c r="G61" s="3">
-        <v>12716000</v>
+        <v>12814100</v>
       </c>
       <c r="H61" s="3">
-        <v>12902300</v>
+        <v>12801100</v>
       </c>
       <c r="I61" s="3">
+        <v>12988600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>12743600</v>
+      </c>
+      <c r="K61" s="3">
         <v>12659000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>12447900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>11808300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>10707100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>11666000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>12709100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>12874200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>16639000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>17513100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>15359200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>17281900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>17472400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>17503200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>15793100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>16121100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>15254800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>91126200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+        <v>90877900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>91562000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -4154,11 +4444,11 @@
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>6101700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6142500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -4166,50 +4456,56 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>6300600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>6279300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>5643500</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>12105500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>5512500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2596200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>9855600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>17896900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>10355400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>10723900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4279,8 +4575,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4350,8 +4652,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4421,79 +4729,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>417355800</v>
+        <v>404562300</v>
       </c>
       <c r="E66" s="3">
-        <v>440843000</v>
+        <v>400822100</v>
       </c>
       <c r="F66" s="3">
-        <v>433198100</v>
+        <v>443790400</v>
       </c>
       <c r="G66" s="3">
-        <v>457410000</v>
+        <v>436094400</v>
       </c>
       <c r="H66" s="3">
-        <v>476247200</v>
+        <v>460468200</v>
       </c>
       <c r="I66" s="3">
+        <v>479431300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>470205600</v>
+      </c>
+      <c r="K66" s="3">
         <v>467082800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>466545400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>450784200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>418393300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>433973000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>453298200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>466508700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>453482700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>429517800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>444896700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>413468200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>421372000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>439360300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>450169300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>470018200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>469565100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4519,8 +4839,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4590,8 +4912,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4661,8 +4989,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4732,8 +5066,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4803,79 +5143,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11830800</v>
+        <v>7655900</v>
       </c>
       <c r="E72" s="3">
-        <v>14908600</v>
+        <v>8498300</v>
       </c>
       <c r="F72" s="3">
-        <v>14604900</v>
+        <v>15008300</v>
       </c>
       <c r="G72" s="3">
-        <v>14302300</v>
+        <v>14702600</v>
       </c>
       <c r="H72" s="3">
-        <v>13956600</v>
+        <v>14397900</v>
       </c>
       <c r="I72" s="3">
+        <v>14049900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>13054700</v>
+      </c>
+      <c r="K72" s="3">
         <v>12968000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>12935700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>11898300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>10363000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11930700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>12476700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>12489000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>12633300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>11787500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>12015800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>9744700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>9903100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>10237800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>8979300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>9437400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>9470300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4945,8 +5297,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5016,8 +5374,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5087,79 +5451,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14412200</v>
+        <v>10933100</v>
       </c>
       <c r="E76" s="3">
-        <v>16308600</v>
+        <v>11663800</v>
       </c>
       <c r="F76" s="3">
-        <v>20535400</v>
+        <v>16417600</v>
       </c>
       <c r="G76" s="3">
-        <v>25359900</v>
+        <v>20672700</v>
       </c>
       <c r="H76" s="3">
-        <v>28694000</v>
+        <v>25529500</v>
       </c>
       <c r="I76" s="3">
+        <v>28885800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>28137800</v>
+      </c>
+      <c r="K76" s="3">
         <v>27950900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28196500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>26036300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>25318000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>27475300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>25927700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>27294600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>29027600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>27976300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>27973600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>29146600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>26465000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>26790600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>27789300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>27725500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>29272500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>30243200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5229,155 +5605,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2551200</v>
+        <v>45500</v>
       </c>
       <c r="E81" s="3">
-        <v>-219700</v>
+        <v>-289500</v>
       </c>
       <c r="F81" s="3">
-        <v>-408100</v>
+        <v>-2568200</v>
       </c>
       <c r="G81" s="3">
-        <v>411400</v>
+        <v>-221200</v>
       </c>
       <c r="H81" s="3">
-        <v>529800</v>
+        <v>-212500</v>
       </c>
       <c r="I81" s="3">
+        <v>196200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>533400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-87200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>891700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>396800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-165600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>179600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>949100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>663100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>241300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>510600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1140000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>480700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>552700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>376600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>490300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>378000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-487100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5403,56 +5797,58 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>365100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>228300</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F83" s="3">
-        <v>300500</v>
+        <v>367500</v>
       </c>
       <c r="G83" s="3">
-        <v>355400</v>
+        <v>229800</v>
       </c>
       <c r="H83" s="3">
-        <v>146500</v>
+        <v>660200</v>
       </c>
       <c r="I83" s="3">
+        <v>-907400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>147400</v>
+      </c>
+      <c r="K83" s="3">
         <v>641800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>173400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>289900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>452800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>278200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1292700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>573200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5465,17 +5861,23 @@
       <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5545,8 +5947,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5616,8 +6024,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5687,8 +6101,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5758,8 +6178,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5829,79 +6255,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>971400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>393100</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F89" s="3">
-        <v>1631500</v>
+        <v>977900</v>
       </c>
       <c r="G89" s="3">
-        <v>74300</v>
+        <v>395700</v>
       </c>
       <c r="H89" s="3">
-        <v>611700</v>
+        <v>1717200</v>
       </c>
       <c r="I89" s="3">
+        <v>2021800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>615800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1099500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>140000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1558400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2055600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-823100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>7965800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>6960100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1825200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1144600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>496400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-653500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3129000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2302500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>102100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>685500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-181900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5927,79 +6365,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-21000</v>
-      </c>
       <c r="F91" s="3">
-        <v>-20000</v>
+        <v>-22000</v>
       </c>
       <c r="G91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-17000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-10600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-52900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-28000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-111300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-52500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-82100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-16500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-19100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-22200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-16600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-23100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-32500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-28200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-56300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6069,8 +6515,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6140,79 +6592,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>84000</v>
-      </c>
-      <c r="E94" s="3">
-        <v>14000</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>63500</v>
+        <v>84600</v>
       </c>
       <c r="G94" s="3">
-        <v>501800</v>
+        <v>6500</v>
       </c>
       <c r="H94" s="3">
-        <v>-58200</v>
+        <v>576700</v>
       </c>
       <c r="I94" s="3">
+        <v>563700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-34500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>40200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-239400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>104800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-93800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>101600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-427500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-104700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-140000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-14400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1069900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-109800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-359000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>9400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-906200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6238,8 +6702,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6256,61 +6722,67 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-62800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-337100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-198500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-197200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-196500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-167200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-180800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6380,8 +6852,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6451,8 +6929,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6522,217 +7006,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-413500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-360800</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
-        <v>-885200</v>
+        <v>-439100</v>
       </c>
       <c r="G100" s="3">
-        <v>-356500</v>
+        <v>-416300</v>
       </c>
       <c r="H100" s="3">
+        <v>-1226100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-684100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-5400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-429700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>526600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>227500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-376000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-416200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-4069100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3278100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2435300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-478800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1573000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-189400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>104100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2098300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-157100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>625600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>961400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-99100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>66800</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F101" s="3">
-        <v>77500</v>
+        <v>-99700</v>
       </c>
       <c r="G101" s="3">
-        <v>14000</v>
+        <v>67200</v>
       </c>
       <c r="H101" s="3">
-        <v>24800</v>
+        <v>92100</v>
       </c>
       <c r="I101" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-10800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>60300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-88800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-33200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>36000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>8600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>32900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-14400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-50900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-124100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-28500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>151500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-31700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>520100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>106600</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>864800</v>
+        <v>523600</v>
       </c>
       <c r="G102" s="3">
-        <v>233700</v>
+        <v>90000</v>
       </c>
       <c r="H102" s="3">
-        <v>572900</v>
+        <v>1123100</v>
       </c>
       <c r="I102" s="3">
+        <v>1843000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>576700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1538900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>621400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1230500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2759800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1167600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>3838900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3782400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1029000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1695200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1230900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-908200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>2039100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-342600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>51600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>976600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-125600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEG_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>722000</v>
+        <v>722600</v>
       </c>
       <c r="E8" s="3">
-        <v>1126400</v>
+        <v>1127300</v>
       </c>
       <c r="F8" s="3">
-        <v>23840400</v>
+        <v>23860200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="3">
-        <v>794600</v>
+        <v>795300</v>
       </c>
       <c r="I8" s="3">
-        <v>1173000</v>
+        <v>1174000</v>
       </c>
       <c r="J8" s="3">
-        <v>15899400</v>
+        <v>15912600</v>
       </c>
       <c r="K8" s="3">
         <v>8197400</v>
@@ -846,16 +846,16 @@
         <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>60700</v>
+        <v>60800</v>
       </c>
       <c r="G9" s="3">
-        <v>280800</v>
+        <v>281000</v>
       </c>
       <c r="H9" s="3">
-        <v>354500</v>
+        <v>354800</v>
       </c>
       <c r="I9" s="3">
-        <v>264500</v>
+        <v>264700</v>
       </c>
       <c r="J9" s="3">
         <v>6500</v>
@@ -923,19 +923,19 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>23779700</v>
+        <v>23799500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="3">
-        <v>440100</v>
+        <v>440500</v>
       </c>
       <c r="I10" s="3">
-        <v>908500</v>
+        <v>909200</v>
       </c>
       <c r="J10" s="3">
-        <v>15892900</v>
+        <v>15906100</v>
       </c>
       <c r="K10" s="3">
         <v>7569500</v>
@@ -1177,25 +1177,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>380500</v>
+        <v>380800</v>
       </c>
       <c r="E14" s="3">
-        <v>104100</v>
+        <v>104200</v>
       </c>
       <c r="F14" s="3">
         <v>30400</v>
       </c>
       <c r="G14" s="3">
-        <v>39000</v>
+        <v>39100</v>
       </c>
       <c r="H14" s="3">
-        <v>-59600</v>
+        <v>-59700</v>
       </c>
       <c r="I14" s="3">
-        <v>-310100</v>
+        <v>-310300</v>
       </c>
       <c r="J14" s="3">
-        <v>120300</v>
+        <v>120400</v>
       </c>
       <c r="K14" s="3">
         <v>-62500</v>
@@ -1357,25 +1357,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1197900</v>
+        <v>1198900</v>
       </c>
       <c r="E17" s="3">
-        <v>946400</v>
+        <v>947200</v>
       </c>
       <c r="F17" s="3">
-        <v>25050300</v>
+        <v>25071100</v>
       </c>
       <c r="G17" s="3">
-        <v>-2447900</v>
+        <v>-2449900</v>
       </c>
       <c r="H17" s="3">
-        <v>908500</v>
+        <v>909200</v>
       </c>
       <c r="I17" s="3">
-        <v>519300</v>
+        <v>519700</v>
       </c>
       <c r="J17" s="3">
-        <v>16087000</v>
+        <v>16100300</v>
       </c>
       <c r="K17" s="3">
         <v>8439700</v>
@@ -1434,25 +1434,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-475900</v>
+        <v>-476300</v>
       </c>
       <c r="E18" s="3">
-        <v>180000</v>
+        <v>180100</v>
       </c>
       <c r="F18" s="3">
-        <v>-1209900</v>
+        <v>-1210900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="3">
-        <v>-113800</v>
+        <v>-113900</v>
       </c>
       <c r="I18" s="3">
-        <v>653700</v>
+        <v>654300</v>
       </c>
       <c r="J18" s="3">
-        <v>-187500</v>
+        <v>-187700</v>
       </c>
       <c r="K18" s="3">
         <v>-242300</v>
@@ -1540,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>52000</v>
+        <v>52100</v>
       </c>
       <c r="E20" s="3">
         <v>42300</v>
@@ -1558,7 +1558,7 @@
         <v>56400</v>
       </c>
       <c r="J20" s="3">
-        <v>-32500</v>
+        <v>-32600</v>
       </c>
       <c r="K20" s="3">
         <v>108800</v>
@@ -1623,19 +1623,19 @@
         <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>-871600</v>
+        <v>-872300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>251500</v>
+        <v>251700</v>
       </c>
       <c r="I21" s="3">
-        <v>-197300</v>
+        <v>-197500</v>
       </c>
       <c r="J21" s="3">
-        <v>-72600</v>
+        <v>-72700</v>
       </c>
       <c r="K21" s="3">
         <v>508300</v>
@@ -1771,25 +1771,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-423900</v>
+        <v>-424200</v>
       </c>
       <c r="E23" s="3">
-        <v>222200</v>
+        <v>222400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1239100</v>
+        <v>-1240200</v>
       </c>
       <c r="G23" s="3">
-        <v>-345800</v>
+        <v>-346100</v>
       </c>
       <c r="H23" s="3">
         <v>-51000</v>
       </c>
       <c r="I23" s="3">
-        <v>710100</v>
+        <v>710700</v>
       </c>
       <c r="J23" s="3">
-        <v>-220100</v>
+        <v>-220300</v>
       </c>
       <c r="K23" s="3">
         <v>-133500</v>
@@ -1848,16 +1848,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-112700</v>
+        <v>-112800</v>
       </c>
       <c r="E24" s="3">
-        <v>37900</v>
+        <v>38000</v>
       </c>
       <c r="F24" s="3">
-        <v>-280800</v>
+        <v>-281000</v>
       </c>
       <c r="G24" s="3">
-        <v>-122500</v>
+        <v>-122600</v>
       </c>
       <c r="H24" s="3">
         <v>-19500</v>
@@ -2002,25 +2002,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-311100</v>
+        <v>-311400</v>
       </c>
       <c r="E26" s="3">
-        <v>184300</v>
+        <v>184500</v>
       </c>
       <c r="F26" s="3">
-        <v>-958300</v>
+        <v>-959100</v>
       </c>
       <c r="G26" s="3">
-        <v>-223300</v>
+        <v>-223500</v>
       </c>
       <c r="H26" s="3">
-        <v>-31400</v>
+        <v>-31500</v>
       </c>
       <c r="I26" s="3">
-        <v>659100</v>
+        <v>659700</v>
       </c>
       <c r="J26" s="3">
-        <v>-114900</v>
+        <v>-115000</v>
       </c>
       <c r="K26" s="3">
         <v>-63500</v>
@@ -2079,25 +2079,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-333900</v>
+        <v>-334200</v>
       </c>
       <c r="E27" s="3">
-        <v>178900</v>
+        <v>179000</v>
       </c>
       <c r="F27" s="3">
-        <v>-964800</v>
+        <v>-965700</v>
       </c>
       <c r="G27" s="3">
-        <v>-221200</v>
+        <v>-221300</v>
       </c>
       <c r="H27" s="3">
-        <v>-67200</v>
+        <v>-67300</v>
       </c>
       <c r="I27" s="3">
-        <v>628800</v>
+        <v>629300</v>
       </c>
       <c r="J27" s="3">
-        <v>-151800</v>
+        <v>-151900</v>
       </c>
       <c r="K27" s="3">
         <v>-87200</v>
@@ -2233,25 +2233,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>379400</v>
+        <v>379800</v>
       </c>
       <c r="E29" s="3">
-        <v>-468300</v>
+        <v>-468700</v>
       </c>
       <c r="F29" s="3">
-        <v>-1603400</v>
+        <v>-1604700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-145300</v>
+        <v>-145400</v>
       </c>
       <c r="I29" s="3">
-        <v>-432600</v>
+        <v>-432900</v>
       </c>
       <c r="J29" s="3">
-        <v>685200</v>
+        <v>685700</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2464,7 +2464,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-52000</v>
+        <v>-52100</v>
       </c>
       <c r="E32" s="3">
         <v>-42300</v>
@@ -2482,7 +2482,7 @@
         <v>-56400</v>
       </c>
       <c r="J32" s="3">
-        <v>32500</v>
+        <v>32600</v>
       </c>
       <c r="K32" s="3">
         <v>-108800</v>
@@ -2541,25 +2541,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>45500</v>
+        <v>45600</v>
       </c>
       <c r="E33" s="3">
-        <v>-289500</v>
+        <v>-289700</v>
       </c>
       <c r="F33" s="3">
-        <v>-2568200</v>
+        <v>-2570400</v>
       </c>
       <c r="G33" s="3">
-        <v>-221200</v>
+        <v>-221300</v>
       </c>
       <c r="H33" s="3">
-        <v>-212500</v>
+        <v>-212700</v>
       </c>
       <c r="I33" s="3">
-        <v>196200</v>
+        <v>196400</v>
       </c>
       <c r="J33" s="3">
-        <v>533400</v>
+        <v>533800</v>
       </c>
       <c r="K33" s="3">
         <v>-87200</v>
@@ -2695,25 +2695,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>45500</v>
+        <v>45600</v>
       </c>
       <c r="E35" s="3">
-        <v>-289500</v>
+        <v>-289700</v>
       </c>
       <c r="F35" s="3">
-        <v>-2568200</v>
+        <v>-2570400</v>
       </c>
       <c r="G35" s="3">
-        <v>-221200</v>
+        <v>-221300</v>
       </c>
       <c r="H35" s="3">
-        <v>-212500</v>
+        <v>-212700</v>
       </c>
       <c r="I35" s="3">
-        <v>196200</v>
+        <v>196400</v>
       </c>
       <c r="J35" s="3">
-        <v>533400</v>
+        <v>533800</v>
       </c>
       <c r="K35" s="3">
         <v>-87200</v>
@@ -2912,25 +2912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4070800</v>
+        <v>4074200</v>
       </c>
       <c r="E41" s="3">
-        <v>3688100</v>
+        <v>3691200</v>
       </c>
       <c r="F41" s="3">
-        <v>8729200</v>
+        <v>8736400</v>
       </c>
       <c r="G41" s="3">
-        <v>8575200</v>
+        <v>8582400</v>
       </c>
       <c r="H41" s="3">
-        <v>7702500</v>
+        <v>7708900</v>
       </c>
       <c r="I41" s="3">
-        <v>7468400</v>
+        <v>7474600</v>
       </c>
       <c r="J41" s="3">
-        <v>6890500</v>
+        <v>6896300</v>
       </c>
       <c r="K41" s="3">
         <v>6844800</v>
@@ -3374,25 +3374,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>286120000</v>
+        <v>286357500</v>
       </c>
       <c r="E47" s="3">
-        <v>360630200</v>
+        <v>360929600</v>
       </c>
       <c r="F47" s="3">
-        <v>151029200</v>
+        <v>151154600</v>
       </c>
       <c r="G47" s="3">
-        <v>152556700</v>
+        <v>152683400</v>
       </c>
       <c r="H47" s="3">
-        <v>162225800</v>
+        <v>162360500</v>
       </c>
       <c r="I47" s="3">
-        <v>172211500</v>
+        <v>172354400</v>
       </c>
       <c r="J47" s="3">
-        <v>172306900</v>
+        <v>172449900</v>
       </c>
       <c r="K47" s="3">
         <v>171162500</v>
@@ -3451,25 +3451,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>546400</v>
+        <v>546800</v>
       </c>
       <c r="E48" s="3">
-        <v>544200</v>
+        <v>544700</v>
       </c>
       <c r="F48" s="3">
-        <v>2993200</v>
+        <v>2995700</v>
       </c>
       <c r="G48" s="3">
-        <v>3023600</v>
+        <v>3026100</v>
       </c>
       <c r="H48" s="3">
-        <v>2968300</v>
+        <v>2970700</v>
       </c>
       <c r="I48" s="3">
-        <v>2865300</v>
+        <v>2867700</v>
       </c>
       <c r="J48" s="3">
-        <v>2710300</v>
+        <v>2712500</v>
       </c>
       <c r="K48" s="3">
         <v>2692300</v>
@@ -3528,25 +3528,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>397900</v>
+        <v>398200</v>
       </c>
       <c r="E49" s="3">
-        <v>455300</v>
+        <v>455700</v>
       </c>
       <c r="F49" s="3">
-        <v>1639200</v>
+        <v>1640500</v>
       </c>
       <c r="G49" s="3">
-        <v>1545900</v>
+        <v>1547200</v>
       </c>
       <c r="H49" s="3">
-        <v>1479800</v>
+        <v>1481000</v>
       </c>
       <c r="I49" s="3">
-        <v>1445100</v>
+        <v>1446300</v>
       </c>
       <c r="J49" s="3">
-        <v>1424500</v>
+        <v>1425700</v>
       </c>
       <c r="K49" s="3">
         <v>1415000</v>
@@ -3759,10 +3759,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98571800</v>
+        <v>98653600</v>
       </c>
       <c r="E52" s="3">
-        <v>98609700</v>
+        <v>98691600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -3774,7 +3774,7 @@
         <v>8</v>
       </c>
       <c r="I52" s="3">
-        <v>271000</v>
+        <v>271300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -3913,25 +3913,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>415495400</v>
+        <v>415840400</v>
       </c>
       <c r="E54" s="3">
-        <v>412486000</v>
+        <v>412828400</v>
       </c>
       <c r="F54" s="3">
-        <v>460208000</v>
+        <v>460590100</v>
       </c>
       <c r="G54" s="3">
-        <v>456767100</v>
+        <v>457146300</v>
       </c>
       <c r="H54" s="3">
-        <v>485997700</v>
+        <v>486401200</v>
       </c>
       <c r="I54" s="3">
-        <v>508317100</v>
+        <v>508739100</v>
       </c>
       <c r="J54" s="3">
-        <v>498343400</v>
+        <v>498757100</v>
       </c>
       <c r="K54" s="3">
         <v>495033700</v>
@@ -4202,25 +4202,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>294223700</v>
+        <v>294467900</v>
       </c>
       <c r="E59" s="3">
-        <v>492904500</v>
+        <v>493313700</v>
       </c>
       <c r="F59" s="3">
-        <v>391467400</v>
+        <v>391792400</v>
       </c>
       <c r="G59" s="3">
-        <v>392093000</v>
+        <v>392418500</v>
       </c>
       <c r="H59" s="3">
-        <v>415267800</v>
+        <v>415612500</v>
       </c>
       <c r="I59" s="3">
-        <v>434334900</v>
+        <v>434695500</v>
       </c>
       <c r="J59" s="3">
-        <v>420711000</v>
+        <v>421060300</v>
       </c>
       <c r="K59" s="3">
         <v>417916900</v>
@@ -4356,25 +4356,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5848700</v>
+        <v>5853600</v>
       </c>
       <c r="E61" s="3">
-        <v>7007600</v>
+        <v>7013400</v>
       </c>
       <c r="F61" s="3">
-        <v>13220600</v>
+        <v>13231600</v>
       </c>
       <c r="G61" s="3">
-        <v>12814100</v>
+        <v>12824700</v>
       </c>
       <c r="H61" s="3">
-        <v>12801100</v>
+        <v>12811700</v>
       </c>
       <c r="I61" s="3">
-        <v>12988600</v>
+        <v>12999400</v>
       </c>
       <c r="J61" s="3">
-        <v>12743600</v>
+        <v>12754200</v>
       </c>
       <c r="K61" s="3">
         <v>12659000</v>
@@ -4433,10 +4433,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>90877900</v>
+        <v>90953400</v>
       </c>
       <c r="E62" s="3">
-        <v>91562000</v>
+        <v>91638000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -4448,7 +4448,7 @@
         <v>8</v>
       </c>
       <c r="I62" s="3">
-        <v>6142500</v>
+        <v>6147600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -4741,25 +4741,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>404562300</v>
+        <v>404898100</v>
       </c>
       <c r="E66" s="3">
-        <v>400822100</v>
+        <v>401154900</v>
       </c>
       <c r="F66" s="3">
-        <v>443790400</v>
+        <v>444158900</v>
       </c>
       <c r="G66" s="3">
-        <v>436094400</v>
+        <v>436456400</v>
       </c>
       <c r="H66" s="3">
-        <v>460468200</v>
+        <v>460850500</v>
       </c>
       <c r="I66" s="3">
-        <v>479431300</v>
+        <v>479829300</v>
       </c>
       <c r="J66" s="3">
-        <v>470205600</v>
+        <v>470596000</v>
       </c>
       <c r="K66" s="3">
         <v>467082800</v>
@@ -5155,25 +5155,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7655900</v>
+        <v>7662300</v>
       </c>
       <c r="E72" s="3">
-        <v>8498300</v>
+        <v>8505300</v>
       </c>
       <c r="F72" s="3">
-        <v>15008300</v>
+        <v>15020700</v>
       </c>
       <c r="G72" s="3">
-        <v>14702600</v>
+        <v>14714800</v>
       </c>
       <c r="H72" s="3">
-        <v>14397900</v>
+        <v>14409900</v>
       </c>
       <c r="I72" s="3">
-        <v>14049900</v>
+        <v>14061600</v>
       </c>
       <c r="J72" s="3">
-        <v>13054700</v>
+        <v>13065600</v>
       </c>
       <c r="K72" s="3">
         <v>12968000</v>
@@ -5463,25 +5463,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10933100</v>
+        <v>10942200</v>
       </c>
       <c r="E76" s="3">
-        <v>11663800</v>
+        <v>11673500</v>
       </c>
       <c r="F76" s="3">
-        <v>16417600</v>
+        <v>16431200</v>
       </c>
       <c r="G76" s="3">
-        <v>20672700</v>
+        <v>20689900</v>
       </c>
       <c r="H76" s="3">
-        <v>25529500</v>
+        <v>25550700</v>
       </c>
       <c r="I76" s="3">
-        <v>28885800</v>
+        <v>28909800</v>
       </c>
       <c r="J76" s="3">
-        <v>28137800</v>
+        <v>28161200</v>
       </c>
       <c r="K76" s="3">
         <v>27950900</v>
@@ -5699,25 +5699,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>45500</v>
+        <v>45600</v>
       </c>
       <c r="E81" s="3">
-        <v>-289500</v>
+        <v>-289700</v>
       </c>
       <c r="F81" s="3">
-        <v>-2568200</v>
+        <v>-2570400</v>
       </c>
       <c r="G81" s="3">
-        <v>-221200</v>
+        <v>-221300</v>
       </c>
       <c r="H81" s="3">
-        <v>-212500</v>
+        <v>-212700</v>
       </c>
       <c r="I81" s="3">
-        <v>196200</v>
+        <v>196400</v>
       </c>
       <c r="J81" s="3">
-        <v>533400</v>
+        <v>533800</v>
       </c>
       <c r="K81" s="3">
         <v>-87200</v>
@@ -5811,19 +5811,19 @@
         <v>8</v>
       </c>
       <c r="F83" s="3">
-        <v>367500</v>
+        <v>367800</v>
       </c>
       <c r="G83" s="3">
-        <v>229800</v>
+        <v>230000</v>
       </c>
       <c r="H83" s="3">
-        <v>660200</v>
+        <v>660800</v>
       </c>
       <c r="I83" s="3">
-        <v>-907400</v>
+        <v>-908100</v>
       </c>
       <c r="J83" s="3">
-        <v>147400</v>
+        <v>147600</v>
       </c>
       <c r="K83" s="3">
         <v>641800</v>
@@ -6273,19 +6273,19 @@
         <v>8</v>
       </c>
       <c r="F89" s="3">
-        <v>977900</v>
+        <v>978700</v>
       </c>
       <c r="G89" s="3">
-        <v>395700</v>
+        <v>396000</v>
       </c>
       <c r="H89" s="3">
-        <v>1717200</v>
+        <v>1718600</v>
       </c>
       <c r="I89" s="3">
-        <v>2021800</v>
+        <v>2023500</v>
       </c>
       <c r="J89" s="3">
-        <v>615800</v>
+        <v>616300</v>
       </c>
       <c r="K89" s="3">
         <v>-1099500</v>
@@ -6616,13 +6616,13 @@
         <v>6500</v>
       </c>
       <c r="H94" s="3">
-        <v>576700</v>
+        <v>577200</v>
       </c>
       <c r="I94" s="3">
-        <v>563700</v>
+        <v>564200</v>
       </c>
       <c r="J94" s="3">
-        <v>-58500</v>
+        <v>-58600</v>
       </c>
       <c r="K94" s="3">
         <v>-6500</v>
@@ -7024,16 +7024,16 @@
         <v>8</v>
       </c>
       <c r="F100" s="3">
-        <v>-439100</v>
+        <v>-439400</v>
       </c>
       <c r="G100" s="3">
-        <v>-416300</v>
+        <v>-416600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1226100</v>
+        <v>-1227100</v>
       </c>
       <c r="I100" s="3">
-        <v>-684100</v>
+        <v>-684600</v>
       </c>
       <c r="J100" s="3">
         <v>-5400</v>
@@ -7101,19 +7101,19 @@
         <v>8</v>
       </c>
       <c r="F101" s="3">
-        <v>-99700</v>
+        <v>-99800</v>
       </c>
       <c r="G101" s="3">
-        <v>67200</v>
+        <v>67300</v>
       </c>
       <c r="H101" s="3">
-        <v>92100</v>
+        <v>92200</v>
       </c>
       <c r="I101" s="3">
-        <v>-58500</v>
+        <v>-58600</v>
       </c>
       <c r="J101" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="K101" s="3">
         <v>-3200</v>
@@ -7178,19 +7178,19 @@
         <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>523600</v>
+        <v>524100</v>
       </c>
       <c r="G102" s="3">
-        <v>90000</v>
+        <v>90100</v>
       </c>
       <c r="H102" s="3">
-        <v>1123100</v>
+        <v>1124100</v>
       </c>
       <c r="I102" s="3">
-        <v>1843000</v>
+        <v>1844500</v>
       </c>
       <c r="J102" s="3">
-        <v>576700</v>
+        <v>577200</v>
       </c>
       <c r="K102" s="3">
         <v>-1538900</v>
